--- a/table_replication_pve.xlsx
+++ b/table_replication_pve.xlsx
@@ -200,10 +200,10 @@
     <t>cg02181309</t>
   </si>
   <si>
+    <t>cg08684361</t>
+  </si>
+  <si>
     <t>cg18450582</t>
-  </si>
-  <si>
-    <t>cg08684361</t>
   </si>
   <si>
     <t>cg07037057</t>
@@ -2483,37 +2483,37 @@
         <v>6</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0597430389260075</v>
+        <v>0.124407182221583</v>
       </c>
       <c r="D51" t="n">
-        <v>0.574815051794415</v>
+        <v>0.824721669529594</v>
       </c>
       <c r="E51" t="n">
-        <v>2.78232389148385E-7</v>
+        <v>2.08443164458338E-4</v>
       </c>
       <c r="F51" t="n">
-        <v>0.00332097448261142</v>
+        <v>1.20709940613002E-6</v>
       </c>
       <c r="G51" t="n">
-        <v>0.0779827079465992</v>
+        <v>0.10399571180009</v>
       </c>
       <c r="H51" t="n">
-        <v>3.41441716566067E-5</v>
+        <v>2.07984739437134E-4</v>
       </c>
       <c r="I51" t="n">
-        <v>0.0103090306058761</v>
+        <v>3.73918354495524E-4</v>
       </c>
       <c r="J51" t="n">
-        <v>0.0189427732366675</v>
+        <v>2.51267818621089E-4</v>
       </c>
       <c r="K51" t="n">
-        <v>3.56871742596759E-4</v>
+        <v>2.40313710005627E-5</v>
       </c>
       <c r="L51" t="n">
-        <v>2.09635413900274E-5</v>
+        <v>1.49936124075707E-4</v>
       </c>
       <c r="M51" t="n">
-        <v>0.297005132754885</v>
+        <v>0.0671541624716613</v>
       </c>
     </row>
     <row r="52">
@@ -2524,37 +2524,37 @@
         <v>6</v>
       </c>
       <c r="C52" t="n">
-        <v>0.124407182221583</v>
+        <v>0.0597430389260075</v>
       </c>
       <c r="D52" t="n">
-        <v>0.824721669529594</v>
+        <v>0.574815051794415</v>
       </c>
       <c r="E52" t="n">
-        <v>2.08443164458338E-4</v>
+        <v>2.78232389148385E-7</v>
       </c>
       <c r="F52" t="n">
-        <v>1.20709940613002E-6</v>
+        <v>0.00332097448261142</v>
       </c>
       <c r="G52" t="n">
-        <v>0.10399571180009</v>
+        <v>0.0779827079465992</v>
       </c>
       <c r="H52" t="n">
-        <v>2.07984739437134E-4</v>
+        <v>3.41441716566067E-5</v>
       </c>
       <c r="I52" t="n">
-        <v>3.73918354495524E-4</v>
+        <v>0.0103090306058761</v>
       </c>
       <c r="J52" t="n">
-        <v>2.51267818621089E-4</v>
+        <v>0.0189427732366675</v>
       </c>
       <c r="K52" t="n">
-        <v>2.40313710005627E-5</v>
+        <v>3.56871742596759E-4</v>
       </c>
       <c r="L52" t="n">
-        <v>1.49936124075707E-4</v>
+        <v>2.09635413900274E-5</v>
       </c>
       <c r="M52" t="n">
-        <v>0.0671541624716613</v>
+        <v>0.297005132754885</v>
       </c>
     </row>
     <row r="53">

--- a/table_replication_pve.xlsx
+++ b/table_replication_pve.xlsx
@@ -200,10 +200,10 @@
     <t>cg02181309</t>
   </si>
   <si>
+    <t>cg18450582</t>
+  </si>
+  <si>
     <t>cg08684361</t>
-  </si>
-  <si>
-    <t>cg18450582</t>
   </si>
   <si>
     <t>cg07037057</t>
@@ -2483,37 +2483,37 @@
         <v>6</v>
       </c>
       <c r="C51" t="n">
-        <v>0.124407182221583</v>
+        <v>0.0597430389260075</v>
       </c>
       <c r="D51" t="n">
-        <v>0.824721669529594</v>
+        <v>0.574815051794415</v>
       </c>
       <c r="E51" t="n">
-        <v>2.08443164458338E-4</v>
+        <v>2.78232389148385E-7</v>
       </c>
       <c r="F51" t="n">
-        <v>1.20709940613002E-6</v>
+        <v>0.00332097448261142</v>
       </c>
       <c r="G51" t="n">
-        <v>0.10399571180009</v>
+        <v>0.0779827079465992</v>
       </c>
       <c r="H51" t="n">
-        <v>2.07984739437134E-4</v>
+        <v>3.41441716566067E-5</v>
       </c>
       <c r="I51" t="n">
-        <v>3.73918354495524E-4</v>
+        <v>0.0103090306058761</v>
       </c>
       <c r="J51" t="n">
-        <v>2.51267818621089E-4</v>
+        <v>0.0189427732366675</v>
       </c>
       <c r="K51" t="n">
-        <v>2.40313710005627E-5</v>
+        <v>3.56871742596759E-4</v>
       </c>
       <c r="L51" t="n">
-        <v>1.49936124075707E-4</v>
+        <v>2.09635413900274E-5</v>
       </c>
       <c r="M51" t="n">
-        <v>0.0671541624716613</v>
+        <v>0.297005132754885</v>
       </c>
     </row>
     <row r="52">
@@ -2524,37 +2524,37 @@
         <v>6</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0597430389260075</v>
+        <v>0.124407182221583</v>
       </c>
       <c r="D52" t="n">
-        <v>0.574815051794415</v>
+        <v>0.824721669529594</v>
       </c>
       <c r="E52" t="n">
-        <v>2.78232389148385E-7</v>
+        <v>2.08443164458338E-4</v>
       </c>
       <c r="F52" t="n">
-        <v>0.00332097448261142</v>
+        <v>1.20709940613002E-6</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0779827079465992</v>
+        <v>0.10399571180009</v>
       </c>
       <c r="H52" t="n">
-        <v>3.41441716566067E-5</v>
+        <v>2.07984739437134E-4</v>
       </c>
       <c r="I52" t="n">
-        <v>0.0103090306058761</v>
+        <v>3.73918354495524E-4</v>
       </c>
       <c r="J52" t="n">
-        <v>0.0189427732366675</v>
+        <v>2.51267818621089E-4</v>
       </c>
       <c r="K52" t="n">
-        <v>3.56871742596759E-4</v>
+        <v>2.40313710005627E-5</v>
       </c>
       <c r="L52" t="n">
-        <v>2.09635413900274E-5</v>
+        <v>1.49936124075707E-4</v>
       </c>
       <c r="M52" t="n">
-        <v>0.297005132754885</v>
+        <v>0.0671541624716613</v>
       </c>
     </row>
     <row r="53">

--- a/table_replication_pve.xlsx
+++ b/table_replication_pve.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="126">
   <si>
     <t>cg</t>
   </si>
@@ -59,12 +59,33 @@
     <t>cg01062937</t>
   </si>
   <si>
+    <t>cg00502509</t>
+  </si>
+  <si>
     <t>cg08202399</t>
   </si>
   <si>
     <t>cg11866719</t>
   </si>
   <si>
+    <t>cg16988611</t>
+  </si>
+  <si>
+    <t>cg12234455</t>
+  </si>
+  <si>
+    <t>cg25819441</t>
+  </si>
+  <si>
+    <t>cg08781728</t>
+  </si>
+  <si>
+    <t>cg22400703</t>
+  </si>
+  <si>
+    <t>cg06275642</t>
+  </si>
+  <si>
     <t>cg18871253</t>
   </si>
   <si>
@@ -122,52 +143,88 @@
     <t>cg01132696</t>
   </si>
   <si>
-    <t>cg25819441</t>
-  </si>
-  <si>
-    <t>cg12234455</t>
-  </si>
-  <si>
-    <t>cg16988611</t>
-  </si>
-  <si>
-    <t>cg06275642</t>
-  </si>
-  <si>
-    <t>cg22400703</t>
+    <t>cg05800416</t>
+  </si>
+  <si>
+    <t>cg24104128</t>
+  </si>
+  <si>
+    <t>cg14620572</t>
+  </si>
+  <si>
+    <t>cg21217577</t>
+  </si>
+  <si>
+    <t>cg06379876</t>
   </si>
   <si>
     <t>cg07499899</t>
   </si>
   <si>
-    <t>cg21217577</t>
-  </si>
-  <si>
-    <t>cg14620572</t>
-  </si>
-  <si>
-    <t>cg24104128</t>
-  </si>
-  <si>
-    <t>cg05800416</t>
+    <t>cg15698244</t>
+  </si>
+  <si>
+    <t>cg02884024</t>
+  </si>
+  <si>
+    <t>cg14094347</t>
   </si>
   <si>
     <t>cg13775495</t>
   </si>
   <si>
+    <t>cg20666917</t>
+  </si>
+  <si>
     <t>cg11636504</t>
   </si>
   <si>
-    <t>cg20666917</t>
-  </si>
-  <si>
-    <t>cg02884024</t>
-  </si>
-  <si>
-    <t>cg15698244</t>
-  </si>
-  <si>
-    <t>cg14094347</t>
+    <t>cg12075586</t>
+  </si>
+  <si>
+    <t>cg01967934</t>
+  </si>
+  <si>
+    <t>cg05046717</t>
+  </si>
+  <si>
+    <t>cg20143758</t>
+  </si>
+  <si>
+    <t>cg16275483</t>
+  </si>
+  <si>
+    <t>cg07621645</t>
+  </si>
+  <si>
+    <t>cg07037057</t>
+  </si>
+  <si>
+    <t>cg08684361</t>
+  </si>
+  <si>
+    <t>cg18450582</t>
+  </si>
+  <si>
+    <t>cg02181309</t>
+  </si>
+  <si>
+    <t>cg18423210</t>
+  </si>
+  <si>
+    <t>cg23273221</t>
+  </si>
+  <si>
+    <t>cg13845133</t>
+  </si>
+  <si>
+    <t>cg21703750</t>
+  </si>
+  <si>
+    <t>cg14346208</t>
+  </si>
+  <si>
+    <t>cg10004882</t>
   </si>
   <si>
     <t>cg02509232</t>
@@ -176,148 +233,106 @@
     <t>cg24328054</t>
   </si>
   <si>
+    <t>cg09383172</t>
+  </si>
+  <si>
     <t>cg15642758</t>
   </si>
   <si>
-    <t>cg13845133</t>
-  </si>
-  <si>
-    <t>cg10004882</t>
-  </si>
-  <si>
-    <t>cg14346208</t>
-  </si>
-  <si>
-    <t>cg21703750</t>
-  </si>
-  <si>
-    <t>cg23273221</t>
-  </si>
-  <si>
-    <t>cg18423210</t>
-  </si>
-  <si>
-    <t>cg02181309</t>
-  </si>
-  <si>
-    <t>cg18450582</t>
-  </si>
-  <si>
-    <t>cg08684361</t>
-  </si>
-  <si>
-    <t>cg07037057</t>
-  </si>
-  <si>
-    <t>cg07621645</t>
-  </si>
-  <si>
-    <t>cg16275483</t>
-  </si>
-  <si>
-    <t>cg20143758</t>
-  </si>
-  <si>
-    <t>cg05046717</t>
-  </si>
-  <si>
-    <t>cg01967934</t>
-  </si>
-  <si>
-    <t>cg12075586</t>
-  </si>
-  <si>
     <t>cg26077811</t>
   </si>
   <si>
     <t>cg00219303</t>
   </si>
   <si>
+    <t>cg00135497</t>
+  </si>
+  <si>
+    <t>cg26332552</t>
+  </si>
+  <si>
+    <t>cg07436701</t>
+  </si>
+  <si>
+    <t>cg03411376</t>
+  </si>
+  <si>
+    <t>cg03942471</t>
+  </si>
+  <si>
+    <t>cg14759277</t>
+  </si>
+  <si>
+    <t>cg24480695</t>
+  </si>
+  <si>
     <t>cg00447052</t>
   </si>
   <si>
     <t>cg08239103</t>
   </si>
   <si>
-    <t>cg14759277</t>
-  </si>
-  <si>
-    <t>cg24480695</t>
-  </si>
-  <si>
-    <t>cg03942471</t>
-  </si>
-  <si>
-    <t>cg03411376</t>
-  </si>
-  <si>
-    <t>cg07436701</t>
-  </si>
-  <si>
-    <t>cg26332552</t>
+    <t>cg26313511</t>
+  </si>
+  <si>
+    <t>cg16611278</t>
+  </si>
+  <si>
+    <t>cg16843243</t>
+  </si>
+  <si>
+    <t>cg12343363</t>
+  </si>
+  <si>
+    <t>cg17781710</t>
+  </si>
+  <si>
+    <t>cg24686153</t>
+  </si>
+  <si>
+    <t>cg24500959</t>
+  </si>
+  <si>
+    <t>cg11480762</t>
+  </si>
+  <si>
+    <t>cg16576895</t>
+  </si>
+  <si>
+    <t>cg04625338</t>
+  </si>
+  <si>
+    <t>cg06841192</t>
+  </si>
+  <si>
+    <t>cg18483404</t>
+  </si>
+  <si>
+    <t>cg04330884</t>
+  </si>
+  <si>
+    <t>cg01749702</t>
+  </si>
+  <si>
+    <t>cg15684702</t>
+  </si>
+  <si>
+    <t>cg12702981</t>
+  </si>
+  <si>
+    <t>cg03798942</t>
   </si>
   <si>
     <t>cg12044923</t>
   </si>
   <si>
-    <t>cg03798942</t>
-  </si>
-  <si>
-    <t>cg12702981</t>
-  </si>
-  <si>
-    <t>cg15684702</t>
-  </si>
-  <si>
-    <t>cg01749702</t>
-  </si>
-  <si>
-    <t>cg06841192</t>
-  </si>
-  <si>
-    <t>cg18483404</t>
-  </si>
-  <si>
-    <t>cg04330884</t>
-  </si>
-  <si>
-    <t>cg16843243</t>
-  </si>
-  <si>
-    <t>cg16611278</t>
-  </si>
-  <si>
-    <t>cg26313511</t>
-  </si>
-  <si>
-    <t>cg24686153</t>
-  </si>
-  <si>
-    <t>cg17781710</t>
-  </si>
-  <si>
-    <t>cg12343363</t>
-  </si>
-  <si>
-    <t>cg04625338</t>
-  </si>
-  <si>
-    <t>cg16576895</t>
-  </si>
-  <si>
-    <t>cg24500959</t>
-  </si>
-  <si>
-    <t>cg11480762</t>
+    <t>cg07935902</t>
   </si>
   <si>
     <t>cg02269797</t>
   </si>
   <si>
     <t>cg07580479</t>
-  </si>
-  <si>
-    <t>cg07935902</t>
   </si>
   <si>
     <t>cg04926361</t>
@@ -556,37 +571,37 @@
         <v>5</v>
       </c>
       <c r="C4" t="n">
-        <v>0.105445673158617</v>
+        <v>0.112071395886061</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0391297210767434</v>
+        <v>0.496170702292417</v>
       </c>
       <c r="E4" t="n">
-        <v>2.92250204390845E-4</v>
+        <v>3.2257858760749E-5</v>
       </c>
       <c r="F4" t="n">
-        <v>0.263876359646204</v>
+        <v>0.0862509232618012</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0713261443895179</v>
+        <v>0.116851287985428</v>
       </c>
       <c r="H4" t="n">
-        <v>0.375922205608136</v>
+        <v>0.153994996640643</v>
       </c>
       <c r="I4" t="n">
-        <v>1.83316439029642E-4</v>
+        <v>6.73307530192042E-5</v>
       </c>
       <c r="J4" t="n">
-        <v>2.33603572380165E-6</v>
+        <v>1.58802599249028E-8</v>
       </c>
       <c r="K4" t="n">
-        <v>1.02923056579571E-4</v>
+        <v>3.00907143414741E-5</v>
       </c>
       <c r="L4" t="n">
-        <v>0.00783359617334098</v>
+        <v>1.82291127590061E-4</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0709194632361532</v>
+        <v>0.114896993532619</v>
       </c>
     </row>
     <row r="5">
@@ -594,40 +609,40 @@
         <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0815316997807809</v>
+        <v>0.105445673158617</v>
       </c>
       <c r="D5" t="n">
-        <v>0.848365771538396</v>
+        <v>0.0391297210767434</v>
       </c>
       <c r="E5" t="n">
-        <v>2.65809705590844E-5</v>
+        <v>2.92250204390845E-4</v>
       </c>
       <c r="F5" t="n">
-        <v>7.96839896089366E-5</v>
+        <v>0.263876359646204</v>
       </c>
       <c r="G5" t="n">
-        <v>0.025741329359055</v>
+        <v>0.0713261443895179</v>
       </c>
       <c r="H5" t="n">
-        <v>0.210208283630286</v>
+        <v>0.375922205608136</v>
       </c>
       <c r="I5" t="n">
-        <v>6.05409233827905E-9</v>
+        <v>1.83316439029642E-4</v>
       </c>
       <c r="J5" t="n">
-        <v>1.72343138667834E-8</v>
+        <v>2.33603572380165E-6</v>
       </c>
       <c r="K5" t="n">
-        <v>6.63810608282278E-7</v>
+        <v>1.02923056579571E-4</v>
       </c>
       <c r="L5" t="n">
-        <v>7.27725588549222E-6</v>
+        <v>0.00783359617334098</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0135205974566463</v>
+        <v>0.0709194632361532</v>
       </c>
     </row>
     <row r="6">
@@ -635,40 +650,40 @@
         <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C6" t="n">
-        <v>0.106166064234434</v>
+        <v>0.0815316997807809</v>
       </c>
       <c r="D6" t="n">
-        <v>0.83494512885379</v>
+        <v>0.848365771538396</v>
       </c>
       <c r="E6" t="n">
-        <v>2.97481124524462E-5</v>
+        <v>2.65809705590844E-5</v>
       </c>
       <c r="F6" t="n">
-        <v>0.152002626412231</v>
+        <v>7.96839896089366E-5</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0061478698061722</v>
+        <v>0.025741329359055</v>
       </c>
       <c r="H6" t="n">
-        <v>0.00199195397784023</v>
+        <v>0.210208283630286</v>
       </c>
       <c r="I6" t="n">
-        <v>1.27793991794585E-4</v>
+        <v>6.05409233827905E-9</v>
       </c>
       <c r="J6" t="n">
-        <v>8.89266021188655E-5</v>
+        <v>1.72343138667834E-8</v>
       </c>
       <c r="K6" t="n">
-        <v>1.71010740972128E-4</v>
+        <v>6.63810608282278E-7</v>
       </c>
       <c r="L6" t="n">
-        <v>5.83247289137186E-4</v>
+        <v>7.27725588549222E-6</v>
       </c>
       <c r="M6" t="n">
-        <v>0.0246591850690197</v>
+        <v>0.0135205974566463</v>
       </c>
     </row>
     <row r="7">
@@ -679,37 +694,37 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0670757551896137</v>
+        <v>0.100589212085821</v>
       </c>
       <c r="D7" t="n">
-        <v>0.831046929512064</v>
+        <v>0.397721471983862</v>
       </c>
       <c r="E7" t="n">
-        <v>1.42085058362308E-8</v>
+        <v>5.53559084589965E-4</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0187638461298819</v>
+        <v>0.181351738953723</v>
       </c>
       <c r="G7" t="n">
-        <v>1.62246112069218E-4</v>
+        <v>0.175244075314155</v>
       </c>
       <c r="H7" t="n">
-        <v>1.48545992760319E-4</v>
+        <v>0.0986147911021485</v>
       </c>
       <c r="I7" t="n">
-        <v>2.23714043646854E-5</v>
+        <v>1.22050793022359E-7</v>
       </c>
       <c r="J7" t="n">
-        <v>1.33435627163087E-4</v>
+        <v>4.57933112622296E-7</v>
       </c>
       <c r="K7" t="n">
-        <v>1.48010024636245E-5</v>
+        <v>0.00104696863969861</v>
       </c>
       <c r="L7" t="n">
-        <v>4.89821644807827E-4</v>
+        <v>1.07230899075935E-5</v>
       </c>
       <c r="M7" t="n">
-        <v>0.164092619692049</v>
+        <v>0.0615182902546109</v>
       </c>
     </row>
     <row r="8">
@@ -720,37 +735,37 @@
         <v>5</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0300518319251443</v>
+        <v>0.105462369672998</v>
       </c>
       <c r="D8" t="n">
-        <v>0.126023909224416</v>
+        <v>0.883229382847972</v>
       </c>
       <c r="E8" t="n">
-        <v>3.30882896684586E-4</v>
+        <v>1.6298289945217E-4</v>
       </c>
       <c r="F8" t="n">
-        <v>0.602605364022017</v>
+        <v>0.140080657444105</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0120276718361903</v>
+        <v>0.00183641739001854</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0223789295571484</v>
+        <v>0.00206200274514469</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0770303153454738</v>
+        <v>2.35635617476145E-7</v>
       </c>
       <c r="J8" t="n">
-        <v>2.88379535028605E-4</v>
+        <v>3.26245805603792E-6</v>
       </c>
       <c r="K8" t="n">
-        <v>0.00297978536003282</v>
+        <v>1.20067568487514E-4</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0426577962511474</v>
+        <v>2.84390809997667E-5</v>
       </c>
       <c r="M8" t="n">
-        <v>0.202657615679146</v>
+        <v>0.00396363089284364</v>
       </c>
     </row>
     <row r="9">
@@ -761,37 +776,37 @@
         <v>5</v>
       </c>
       <c r="C9" t="n">
-        <v>0.147516131759971</v>
+        <v>0.0993545176896418</v>
       </c>
       <c r="D9" t="n">
-        <v>0.615487719698771</v>
+        <v>0.878242882931958</v>
       </c>
       <c r="E9" t="n">
-        <v>1.09311190812665E-6</v>
+        <v>2.03054937587994E-5</v>
       </c>
       <c r="F9" t="n">
-        <v>0.201144899600686</v>
+        <v>0.163130868393949</v>
       </c>
       <c r="G9" t="n">
-        <v>1.10858937040679E-6</v>
+        <v>2.94970728370773E-4</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0950804544839165</v>
+        <v>0.00107449860054764</v>
       </c>
       <c r="I9" t="n">
-        <v>7.27297784954565E-4</v>
+        <v>4.92541874699606E-8</v>
       </c>
       <c r="J9" t="n">
-        <v>1.71394937842896E-6</v>
+        <v>5.83384395447067E-6</v>
       </c>
       <c r="K9" t="n">
-        <v>8.00263059184004E-5</v>
+        <v>5.75700700878256E-4</v>
       </c>
       <c r="L9" t="n">
-        <v>1.98413122604388E-4</v>
+        <v>9.17904728769867E-5</v>
       </c>
       <c r="M9" t="n">
-        <v>0.111441686270995</v>
+        <v>0.0179671859503118</v>
       </c>
     </row>
     <row r="10">
@@ -802,37 +817,37 @@
         <v>5</v>
       </c>
       <c r="C10" t="n">
-        <v>0.087458768428265</v>
+        <v>0.0520368281281901</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0638988381998967</v>
+        <v>0.287355816619395</v>
       </c>
       <c r="E10" t="n">
-        <v>4.02632896502973E-6</v>
+        <v>5.27744128641911E-6</v>
       </c>
       <c r="F10" t="n">
-        <v>0.400185169505626</v>
+        <v>0.304815070844386</v>
       </c>
       <c r="G10" t="n">
-        <v>7.63412164231405E-7</v>
+        <v>0.0314236640553422</v>
       </c>
       <c r="H10" t="n">
-        <v>0.199437421352188</v>
+        <v>0.15066546773305</v>
       </c>
       <c r="I10" t="n">
-        <v>1.01670353148377E-4</v>
+        <v>5.18574918603093E-6</v>
       </c>
       <c r="J10" t="n">
-        <v>8.72876455782626E-7</v>
+        <v>7.74118964649768E-7</v>
       </c>
       <c r="K10" t="n">
-        <v>5.39205275628807E-7</v>
+        <v>4.26646221241545E-4</v>
       </c>
       <c r="L10" t="n">
-        <v>5.15590659941009E-4</v>
+        <v>4.45744331528751E-5</v>
       </c>
       <c r="M10" t="n">
-        <v>0.232692184121889</v>
+        <v>0.0785703736465215</v>
       </c>
     </row>
     <row r="11">
@@ -843,37 +858,37 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>0.042098948637386</v>
+        <v>0.13382692791922</v>
       </c>
       <c r="D11" t="n">
-        <v>0.637570118429467</v>
+        <v>0.545540885076218</v>
       </c>
       <c r="E11" t="n">
-        <v>2.55638544231365E-5</v>
+        <v>1.39178262842721E-7</v>
       </c>
       <c r="F11" t="n">
-        <v>0.388192153969797</v>
+        <v>0.120807810136199</v>
       </c>
       <c r="G11" t="n">
-        <v>8.41698573340015E-5</v>
+        <v>0.0039971772884727</v>
       </c>
       <c r="H11" t="n">
-        <v>2.79699411092965E-4</v>
+        <v>0.252486369659828</v>
       </c>
       <c r="I11" t="n">
-        <v>5.60015880480264E-4</v>
+        <v>3.21628211362922E-4</v>
       </c>
       <c r="J11" t="n">
-        <v>8.23148767378953E-4</v>
+        <v>0.00223878619795054</v>
       </c>
       <c r="K11" t="n">
-        <v>3.15401046782301E-6</v>
+        <v>0.04893520059462</v>
       </c>
       <c r="L11" t="n">
-        <v>1.03176872030259E-5</v>
+        <v>0.00227814208183936</v>
       </c>
       <c r="M11" t="n">
-        <v>0.00244757170361594</v>
+        <v>0.0497463647517701</v>
       </c>
     </row>
     <row r="12">
@@ -884,37 +899,37 @@
         <v>5</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0599690111461756</v>
+        <v>0.132164102750697</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0179964963407941</v>
+        <v>0.81702214798608</v>
       </c>
       <c r="E12" t="n">
-        <v>3.95916026303165E-6</v>
+        <v>2.49383368603355E-6</v>
       </c>
       <c r="F12" t="n">
-        <v>0.201519800796639</v>
+        <v>0.0734658271499186</v>
       </c>
       <c r="G12" t="n">
-        <v>0.00289061493852985</v>
+        <v>8.68084308817518E-5</v>
       </c>
       <c r="H12" t="n">
-        <v>0.00303430339127962</v>
+        <v>0.16195896344754</v>
       </c>
       <c r="I12" t="n">
-        <v>4.45300835750838E-5</v>
+        <v>4.42271892053331E-6</v>
       </c>
       <c r="J12" t="n">
-        <v>0.0507946701091478</v>
+        <v>6.06779422978625E-8</v>
       </c>
       <c r="K12" t="n">
-        <v>4.23963628236638E-5</v>
+        <v>2.17736926829378E-5</v>
       </c>
       <c r="L12" t="n">
-        <v>3.47004631811982E-4</v>
+        <v>2.0369759211391E-4</v>
       </c>
       <c r="M12" t="n">
-        <v>0.762481056442314</v>
+        <v>0.00256939529818816</v>
       </c>
     </row>
     <row r="13">
@@ -925,37 +940,37 @@
         <v>5</v>
       </c>
       <c r="C13" t="n">
-        <v>0.111674066432473</v>
+        <v>0.106166064234434</v>
       </c>
       <c r="D13" t="n">
-        <v>0.969442113552421</v>
+        <v>0.83494512885379</v>
       </c>
       <c r="E13" t="n">
-        <v>8.62166383434634E-8</v>
+        <v>2.97481124524462E-5</v>
       </c>
       <c r="F13" t="n">
-        <v>0.00525604046473436</v>
+        <v>0.152002626412231</v>
       </c>
       <c r="G13" t="n">
-        <v>2.00491154220009E-8</v>
+        <v>0.0061478698061722</v>
       </c>
       <c r="H13" t="n">
-        <v>9.56096769809519E-6</v>
+        <v>0.00199195397784023</v>
       </c>
       <c r="I13" t="n">
-        <v>5.36745094469417E-6</v>
+        <v>1.27793991794585E-4</v>
       </c>
       <c r="J13" t="n">
-        <v>2.70697056943474E-4</v>
+        <v>8.89266021188655E-5</v>
       </c>
       <c r="K13" t="n">
-        <v>4.86846408550379E-5</v>
+        <v>1.71010740972128E-4</v>
       </c>
       <c r="L13" t="n">
-        <v>6.42764485698592E-5</v>
+        <v>5.83247289137186E-4</v>
       </c>
       <c r="M13" t="n">
-        <v>0.0572663592996982</v>
+        <v>0.0246591850690197</v>
       </c>
     </row>
     <row r="14">
@@ -966,37 +981,37 @@
         <v>5</v>
       </c>
       <c r="C14" t="n">
-        <v>0.105276934773088</v>
+        <v>0.0670757551896137</v>
       </c>
       <c r="D14" t="n">
-        <v>0.739089019160422</v>
+        <v>0.831046929512064</v>
       </c>
       <c r="E14" t="n">
-        <v>1.26970816424949E-5</v>
+        <v>1.42085058362308E-8</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0687399208284045</v>
+        <v>0.0187638461298819</v>
       </c>
       <c r="G14" t="n">
-        <v>3.99714108112015E-9</v>
+        <v>1.62246112069218E-4</v>
       </c>
       <c r="H14" t="n">
-        <v>2.35576088210338E-4</v>
+        <v>1.48545992760319E-4</v>
       </c>
       <c r="I14" t="n">
-        <v>3.35924230805147E-7</v>
+        <v>2.23714043646854E-5</v>
       </c>
       <c r="J14" t="n">
-        <v>1.93320652480257E-6</v>
+        <v>1.33435627163087E-4</v>
       </c>
       <c r="K14" t="n">
-        <v>1.18428102261652E-4</v>
+        <v>1.48010024636245E-5</v>
       </c>
       <c r="L14" t="n">
-        <v>3.68600997430679E-4</v>
+        <v>4.89821644807827E-4</v>
       </c>
       <c r="M14" t="n">
-        <v>0.115423745718229</v>
+        <v>0.164092619692049</v>
       </c>
     </row>
     <row r="15">
@@ -1007,37 +1022,37 @@
         <v>5</v>
       </c>
       <c r="C15" t="n">
-        <v>0.129845599751969</v>
+        <v>0.0300518319251443</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0601772604950289</v>
+        <v>0.126023909224416</v>
       </c>
       <c r="E15" t="n">
-        <v>2.56115694358989E-6</v>
+        <v>3.30882896684586E-4</v>
       </c>
       <c r="F15" t="n">
-        <v>0.362952511092878</v>
+        <v>0.602605364022017</v>
       </c>
       <c r="G15" t="n">
-        <v>1.5182286366084E-6</v>
+        <v>0.0120276718361903</v>
       </c>
       <c r="H15" t="n">
-        <v>0.172720912182444</v>
+        <v>0.0223789295571484</v>
       </c>
       <c r="I15" t="n">
-        <v>1.9107779704357E-6</v>
+        <v>0.0770303153454738</v>
       </c>
       <c r="J15" t="n">
-        <v>1.40019178952939E-5</v>
+        <v>2.88379535028605E-4</v>
       </c>
       <c r="K15" t="n">
-        <v>0.219742244336939</v>
+        <v>0.00297978536003282</v>
       </c>
       <c r="L15" t="n">
-        <v>0.00139377895176507</v>
+        <v>0.0426577962511474</v>
       </c>
       <c r="M15" t="n">
-        <v>0.00100750622388602</v>
+        <v>0.202657615679146</v>
       </c>
     </row>
     <row r="16">
@@ -1048,37 +1063,37 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>0.109592232902201</v>
+        <v>0.147516131759971</v>
       </c>
       <c r="D16" t="n">
-        <v>0.781128337640882</v>
+        <v>0.615487719698771</v>
       </c>
       <c r="E16" t="n">
-        <v>3.36414395476004E-6</v>
+        <v>1.09311190812665E-6</v>
       </c>
       <c r="F16" t="n">
-        <v>0.129971625503722</v>
+        <v>0.201144899600686</v>
       </c>
       <c r="G16" t="n">
-        <v>2.37564692750893E-6</v>
+        <v>1.10858937040679E-6</v>
       </c>
       <c r="H16" t="n">
-        <v>0.157998691572305</v>
+        <v>0.0950804544839165</v>
       </c>
       <c r="I16" t="n">
-        <v>1.20805989771473E-7</v>
+        <v>7.27297784954565E-4</v>
       </c>
       <c r="J16" t="n">
-        <v>4.22698159935696E-5</v>
+        <v>1.71394937842896E-6</v>
       </c>
       <c r="K16" t="n">
-        <v>3.10463600056821E-4</v>
+        <v>8.00263059184004E-5</v>
       </c>
       <c r="L16" t="n">
-        <v>1.48995061464662E-5</v>
+        <v>1.98413122604388E-4</v>
       </c>
       <c r="M16" t="n">
-        <v>4.52226925038538E-5</v>
+        <v>0.111441686270995</v>
       </c>
     </row>
     <row r="17">
@@ -1089,37 +1104,37 @@
         <v>5</v>
       </c>
       <c r="C17" t="n">
-        <v>0.10270184014566</v>
+        <v>0.087458768428265</v>
       </c>
       <c r="D17" t="n">
-        <v>0.652846181348396</v>
+        <v>0.0638988381998967</v>
       </c>
       <c r="E17" t="n">
-        <v>1.48282024245602E-7</v>
+        <v>4.02632896502973E-6</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0153975780124544</v>
+        <v>0.400185169505626</v>
       </c>
       <c r="G17" t="n">
-        <v>1.57963874433464E-8</v>
+        <v>7.63412164231405E-7</v>
       </c>
       <c r="H17" t="n">
-        <v>0.00615164876714343</v>
+        <v>0.199437421352188</v>
       </c>
       <c r="I17" t="n">
-        <v>1.69621473727634E-6</v>
+        <v>1.01670353148377E-4</v>
       </c>
       <c r="J17" t="n">
-        <v>4.20527791476358E-5</v>
+        <v>8.72876455782626E-7</v>
       </c>
       <c r="K17" t="n">
-        <v>0.436089825998081</v>
+        <v>5.39205275628807E-7</v>
       </c>
       <c r="L17" t="n">
-        <v>1.97790054868409E-6</v>
+        <v>5.15590659941009E-4</v>
       </c>
       <c r="M17" t="n">
-        <v>0.0187079849681856</v>
+        <v>0.232692184121889</v>
       </c>
     </row>
     <row r="18">
@@ -1130,37 +1145,37 @@
         <v>5</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0394864612128763</v>
+        <v>0.042098948637386</v>
       </c>
       <c r="D18" t="n">
-        <v>0.416151417975617</v>
+        <v>0.637570118429467</v>
       </c>
       <c r="E18" t="n">
-        <v>9.36103700817968E-8</v>
+        <v>2.55638544231365E-5</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0349815799452309</v>
+        <v>0.388192153969797</v>
       </c>
       <c r="G18" t="n">
-        <v>7.70850880917252E-8</v>
+        <v>8.41698573340015E-5</v>
       </c>
       <c r="H18" t="n">
-        <v>1.2108895447035E-4</v>
+        <v>2.79699411092965E-4</v>
       </c>
       <c r="I18" t="n">
-        <v>2.84556124754352E-5</v>
+        <v>5.60015880480264E-4</v>
       </c>
       <c r="J18" t="n">
-        <v>4.26814489413356E-5</v>
+        <v>8.23148767378953E-4</v>
       </c>
       <c r="K18" t="n">
-        <v>0.395844180426777</v>
+        <v>3.15401046782301E-6</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0129109053159041</v>
+        <v>1.03176872030259E-5</v>
       </c>
       <c r="M18" t="n">
-        <v>0.0764467231905693</v>
+        <v>0.00244757170361594</v>
       </c>
     </row>
     <row r="19">
@@ -1171,37 +1186,37 @@
         <v>5</v>
       </c>
       <c r="C19" t="n">
-        <v>0.110432376034259</v>
+        <v>0.0599690111461756</v>
       </c>
       <c r="D19" t="n">
-        <v>0.653614374703198</v>
+        <v>0.0179964963407941</v>
       </c>
       <c r="E19" t="n">
-        <v>2.09049421660368E-6</v>
+        <v>3.95916026303165E-6</v>
       </c>
       <c r="F19" t="n">
-        <v>0.113222074787256</v>
+        <v>0.201519800796639</v>
       </c>
       <c r="G19" t="n">
-        <v>1.89472916635882E-6</v>
+        <v>0.00289061493852985</v>
       </c>
       <c r="H19" t="n">
-        <v>1.49099200651622E-5</v>
+        <v>0.00303430339127962</v>
       </c>
       <c r="I19" t="n">
-        <v>0.00186018792869217</v>
+        <v>4.45300835750838E-5</v>
       </c>
       <c r="J19" t="n">
-        <v>2.46131768232796E-6</v>
+        <v>0.0507946701091478</v>
       </c>
       <c r="K19" t="n">
-        <v>0.175927310426216</v>
+        <v>4.23963628236638E-5</v>
       </c>
       <c r="L19" t="n">
-        <v>4.23132773879438E-5</v>
+        <v>3.47004631811982E-4</v>
       </c>
       <c r="M19" t="n">
-        <v>0.0291245775158746</v>
+        <v>0.762481056442314</v>
       </c>
     </row>
     <row r="20">
@@ -1212,37 +1227,37 @@
         <v>5</v>
       </c>
       <c r="C20" t="n">
-        <v>0.35089028625375</v>
+        <v>0.111674066432473</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0107045852472919</v>
+        <v>0.969442113552421</v>
       </c>
       <c r="E20" t="n">
-        <v>3.36493210013585E-8</v>
+        <v>8.62166383434634E-8</v>
       </c>
       <c r="F20" t="n">
-        <v>0.10942626491884</v>
+        <v>0.00525604046473436</v>
       </c>
       <c r="G20" t="n">
-        <v>1.51486140258199E-7</v>
+        <v>2.00491154220009E-8</v>
       </c>
       <c r="H20" t="n">
-        <v>0.00409896648893494</v>
+        <v>9.56096769809519E-6</v>
       </c>
       <c r="I20" t="n">
-        <v>0.0179453434908205</v>
+        <v>5.36745094469417E-6</v>
       </c>
       <c r="J20" t="n">
-        <v>4.94036775689237E-4</v>
+        <v>2.70697056943474E-4</v>
       </c>
       <c r="K20" t="n">
-        <v>0.26993395025897</v>
+        <v>4.86846408550379E-5</v>
       </c>
       <c r="L20" t="n">
-        <v>3.90367453642079E-5</v>
+        <v>6.42764485698592E-5</v>
       </c>
       <c r="M20" t="n">
-        <v>0.524955599569475</v>
+        <v>0.0572663592996982</v>
       </c>
     </row>
     <row r="21">
@@ -1253,37 +1268,37 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>0.110599406827402</v>
+        <v>0.105276934773088</v>
       </c>
       <c r="D21" t="n">
-        <v>0.95334864320275</v>
+        <v>0.739089019160422</v>
       </c>
       <c r="E21" t="n">
-        <v>2.969153610698E-9</v>
+        <v>1.26970816424949E-5</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0271988480678543</v>
+        <v>0.0687399208284045</v>
       </c>
       <c r="G21" t="n">
-        <v>1.66063190854035E-7</v>
+        <v>3.99714108112015E-9</v>
       </c>
       <c r="H21" t="n">
-        <v>1.26291544700201E-6</v>
+        <v>2.35576088210338E-4</v>
       </c>
       <c r="I21" t="n">
-        <v>6.03367182723615E-6</v>
+        <v>3.35924230805147E-7</v>
       </c>
       <c r="J21" t="n">
-        <v>1.33388424085032E-7</v>
+        <v>1.93320652480257E-6</v>
       </c>
       <c r="K21" t="n">
-        <v>7.86475649769729E-5</v>
+        <v>1.18428102261652E-4</v>
       </c>
       <c r="L21" t="n">
-        <v>9.69608472987113E-6</v>
+        <v>3.68600997430679E-4</v>
       </c>
       <c r="M21" t="n">
-        <v>0.0687088362329147</v>
+        <v>0.115423745718229</v>
       </c>
     </row>
     <row r="22">
@@ -1294,37 +1309,37 @@
         <v>5</v>
       </c>
       <c r="C22" t="n">
-        <v>0.24128095860369</v>
+        <v>0.129845599751969</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0520529266046138</v>
+        <v>0.0601772604950289</v>
       </c>
       <c r="E22" t="n">
-        <v>9.72451569301143E-7</v>
+        <v>2.56115694358989E-6</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0579772486930579</v>
+        <v>0.362952511092878</v>
       </c>
       <c r="G22" t="n">
-        <v>0.00403501257448746</v>
+        <v>1.5182286366084E-6</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0140852620283022</v>
+        <v>0.172720912182444</v>
       </c>
       <c r="I22" t="n">
-        <v>5.88677445345142E-6</v>
+        <v>1.9107779704357E-6</v>
       </c>
       <c r="J22" t="n">
-        <v>6.38484871273964E-8</v>
+        <v>1.40019178952939E-5</v>
       </c>
       <c r="K22" t="n">
-        <v>0.788336084659901</v>
+        <v>0.219742244336939</v>
       </c>
       <c r="L22" t="n">
-        <v>9.83205925634483E-6</v>
+        <v>0.00139377895176507</v>
       </c>
       <c r="M22" t="n">
-        <v>0.0571102221710609</v>
+        <v>0.00100750622388602</v>
       </c>
     </row>
     <row r="23">
@@ -1332,40 +1347,40 @@
         <v>34</v>
       </c>
       <c r="B23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C23" t="n">
-        <v>0.14409967625638</v>
+        <v>0.109592232902201</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0953005771771478</v>
+        <v>0.781128337640882</v>
       </c>
       <c r="E23" t="n">
-        <v>5.14532947880286E-5</v>
+        <v>3.36414395476004E-6</v>
       </c>
       <c r="F23" t="n">
-        <v>9.85243855035337E-4</v>
+        <v>0.129971625503722</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0906455766464646</v>
+        <v>2.37564692750893E-6</v>
       </c>
       <c r="H23" t="n">
-        <v>5.84372258456145E-5</v>
+        <v>0.157998691572305</v>
       </c>
       <c r="I23" t="n">
-        <v>8.03487529726993E-7</v>
+        <v>1.20805989771473E-7</v>
       </c>
       <c r="J23" t="n">
-        <v>1.93784301629495E-5</v>
+        <v>4.22698159935696E-5</v>
       </c>
       <c r="K23" t="n">
-        <v>0.689896597180677</v>
+        <v>3.10463600056821E-4</v>
       </c>
       <c r="L23" t="n">
-        <v>3.22579761162876E-4</v>
+        <v>1.48995061464662E-5</v>
       </c>
       <c r="M23" t="n">
-        <v>0.125058565860539</v>
+        <v>4.52226925038538E-5</v>
       </c>
     </row>
     <row r="24">
@@ -1376,37 +1391,37 @@
         <v>5</v>
       </c>
       <c r="C24" t="n">
-        <v>0.202300775960861</v>
+        <v>0.10270184014566</v>
       </c>
       <c r="D24" t="n">
-        <v>0.710998284327609</v>
+        <v>0.652846181348396</v>
       </c>
       <c r="E24" t="n">
-        <v>6.0227355219378E-7</v>
+        <v>1.48282024245602E-7</v>
       </c>
       <c r="F24" t="n">
-        <v>0.00743816234932262</v>
+        <v>0.0153975780124544</v>
       </c>
       <c r="G24" t="n">
-        <v>6.27357514346972E-6</v>
+        <v>1.57963874433464E-8</v>
       </c>
       <c r="H24" t="n">
-        <v>5.86645449632843E-5</v>
+        <v>0.00615164876714343</v>
       </c>
       <c r="I24" t="n">
-        <v>5.32840178333177E-9</v>
+        <v>1.69621473727634E-6</v>
       </c>
       <c r="J24" t="n">
-        <v>1.41066950436262E-6</v>
+        <v>4.20527791476358E-5</v>
       </c>
       <c r="K24" t="n">
-        <v>8.30324074179945E-4</v>
+        <v>0.436089825998081</v>
       </c>
       <c r="L24" t="n">
-        <v>1.21991771895163E-6</v>
+        <v>1.97790054868409E-6</v>
       </c>
       <c r="M24" t="n">
-        <v>0.678307117873012</v>
+        <v>0.0187079849681856</v>
       </c>
     </row>
     <row r="25">
@@ -1417,37 +1432,37 @@
         <v>5</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0993545176896418</v>
+        <v>0.0394864612128763</v>
       </c>
       <c r="D25" t="n">
-        <v>0.878242882931958</v>
+        <v>0.416151417975617</v>
       </c>
       <c r="E25" t="n">
-        <v>2.03054937587994E-5</v>
+        <v>9.36103700817968E-8</v>
       </c>
       <c r="F25" t="n">
-        <v>0.163130868393949</v>
+        <v>0.0349815799452309</v>
       </c>
       <c r="G25" t="n">
-        <v>2.94970728370773E-4</v>
+        <v>7.70850880917252E-8</v>
       </c>
       <c r="H25" t="n">
-        <v>0.00107449860054764</v>
+        <v>1.2108895447035E-4</v>
       </c>
       <c r="I25" t="n">
-        <v>4.92541874699606E-8</v>
+        <v>2.84556124754352E-5</v>
       </c>
       <c r="J25" t="n">
-        <v>5.83384395447067E-6</v>
+        <v>4.26814489413356E-5</v>
       </c>
       <c r="K25" t="n">
-        <v>5.75700700878256E-4</v>
+        <v>0.395844180426777</v>
       </c>
       <c r="L25" t="n">
-        <v>9.17904728769867E-5</v>
+        <v>0.0129109053159041</v>
       </c>
       <c r="M25" t="n">
-        <v>0.0179671859503118</v>
+        <v>0.0764467231905693</v>
       </c>
     </row>
     <row r="26">
@@ -1458,37 +1473,37 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>0.105462369672998</v>
+        <v>0.110432376034259</v>
       </c>
       <c r="D26" t="n">
-        <v>0.883229382847972</v>
+        <v>0.653614374703198</v>
       </c>
       <c r="E26" t="n">
-        <v>1.6298289945217E-4</v>
+        <v>2.09049421660368E-6</v>
       </c>
       <c r="F26" t="n">
-        <v>0.140080657444105</v>
+        <v>0.113222074787256</v>
       </c>
       <c r="G26" t="n">
-        <v>0.00183641739001854</v>
+        <v>1.89472916635882E-6</v>
       </c>
       <c r="H26" t="n">
-        <v>0.00206200274514469</v>
+        <v>1.49099200651622E-5</v>
       </c>
       <c r="I26" t="n">
-        <v>2.35635617476145E-7</v>
+        <v>0.00186018792869217</v>
       </c>
       <c r="J26" t="n">
-        <v>3.26245805603792E-6</v>
+        <v>2.46131768232796E-6</v>
       </c>
       <c r="K26" t="n">
-        <v>1.20067568487514E-4</v>
+        <v>0.175927310426216</v>
       </c>
       <c r="L26" t="n">
-        <v>2.84390809997667E-5</v>
+        <v>4.23132773879438E-5</v>
       </c>
       <c r="M26" t="n">
-        <v>0.00396363089284364</v>
+        <v>0.0291245775158746</v>
       </c>
     </row>
     <row r="27">
@@ -1499,37 +1514,37 @@
         <v>5</v>
       </c>
       <c r="C27" t="n">
-        <v>0.100589212085821</v>
+        <v>0.35089028625375</v>
       </c>
       <c r="D27" t="n">
-        <v>0.397721471983862</v>
+        <v>0.0107045852472919</v>
       </c>
       <c r="E27" t="n">
-        <v>5.53559084589965E-4</v>
+        <v>3.36493210013585E-8</v>
       </c>
       <c r="F27" t="n">
-        <v>0.181351738953723</v>
+        <v>0.10942626491884</v>
       </c>
       <c r="G27" t="n">
-        <v>0.175244075314155</v>
+        <v>1.51486140258199E-7</v>
       </c>
       <c r="H27" t="n">
-        <v>0.0986147911021485</v>
+        <v>0.00409896648893494</v>
       </c>
       <c r="I27" t="n">
-        <v>1.22050793022359E-7</v>
+        <v>0.0179453434908205</v>
       </c>
       <c r="J27" t="n">
-        <v>4.57933112622296E-7</v>
+        <v>4.94036775689237E-4</v>
       </c>
       <c r="K27" t="n">
-        <v>0.00104696863969861</v>
+        <v>0.26993395025897</v>
       </c>
       <c r="L27" t="n">
-        <v>1.07230899075935E-5</v>
+        <v>3.90367453642079E-5</v>
       </c>
       <c r="M27" t="n">
-        <v>0.0615182902546109</v>
+        <v>0.524955599569475</v>
       </c>
     </row>
     <row r="28">
@@ -1540,37 +1555,37 @@
         <v>5</v>
       </c>
       <c r="C28" t="n">
-        <v>0.132164102750697</v>
+        <v>0.110599406827402</v>
       </c>
       <c r="D28" t="n">
-        <v>0.81702214798608</v>
+        <v>0.95334864320275</v>
       </c>
       <c r="E28" t="n">
-        <v>2.49383368603355E-6</v>
+        <v>2.969153610698E-9</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0734658271499186</v>
+        <v>0.0271988480678543</v>
       </c>
       <c r="G28" t="n">
-        <v>8.68084308817518E-5</v>
+        <v>1.66063190854035E-7</v>
       </c>
       <c r="H28" t="n">
-        <v>0.16195896344754</v>
+        <v>1.26291544700201E-6</v>
       </c>
       <c r="I28" t="n">
-        <v>4.42271892053331E-6</v>
+        <v>6.03367182723615E-6</v>
       </c>
       <c r="J28" t="n">
-        <v>6.06779422978625E-8</v>
+        <v>1.33388424085032E-7</v>
       </c>
       <c r="K28" t="n">
-        <v>2.17736926829378E-5</v>
+        <v>7.86475649769729E-5</v>
       </c>
       <c r="L28" t="n">
-        <v>2.0369759211391E-4</v>
+        <v>9.69608472987113E-6</v>
       </c>
       <c r="M28" t="n">
-        <v>0.00256939529818816</v>
+        <v>0.0687088362329147</v>
       </c>
     </row>
     <row r="29">
@@ -1581,37 +1596,37 @@
         <v>5</v>
       </c>
       <c r="C29" t="n">
-        <v>0.13382692791922</v>
+        <v>0.24128095860369</v>
       </c>
       <c r="D29" t="n">
-        <v>0.545540885076218</v>
+        <v>0.0520529266046138</v>
       </c>
       <c r="E29" t="n">
-        <v>1.39178262842721E-7</v>
+        <v>9.72451569301143E-7</v>
       </c>
       <c r="F29" t="n">
-        <v>0.120807810136199</v>
+        <v>0.0579772486930579</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0039971772884727</v>
+        <v>0.00403501257448746</v>
       </c>
       <c r="H29" t="n">
-        <v>0.252486369659828</v>
+        <v>0.0140852620283022</v>
       </c>
       <c r="I29" t="n">
-        <v>3.21628211362922E-4</v>
+        <v>5.88677445345142E-6</v>
       </c>
       <c r="J29" t="n">
-        <v>0.00223878619795054</v>
+        <v>6.38484871273964E-8</v>
       </c>
       <c r="K29" t="n">
-        <v>0.04893520059462</v>
+        <v>0.788336084659901</v>
       </c>
       <c r="L29" t="n">
-        <v>0.00227814208183936</v>
+        <v>9.83205925634483E-6</v>
       </c>
       <c r="M29" t="n">
-        <v>0.0497463647517701</v>
+        <v>0.0571102221710609</v>
       </c>
     </row>
     <row r="30">
@@ -1622,37 +1637,37 @@
         <v>6</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0893198732733493</v>
+        <v>0.14409967625638</v>
       </c>
       <c r="D30" t="n">
-        <v>0.148616903590278</v>
+        <v>0.0953005771771478</v>
       </c>
       <c r="E30" t="n">
-        <v>1.29970195801942E-6</v>
+        <v>5.14532947880286E-5</v>
       </c>
       <c r="F30" t="n">
-        <v>3.50544123529407E-4</v>
+        <v>9.85243855035337E-4</v>
       </c>
       <c r="G30" t="n">
-        <v>8.02787477505275E-4</v>
+        <v>0.0906455766464646</v>
       </c>
       <c r="H30" t="n">
-        <v>0.257894768034889</v>
+        <v>5.84372258456145E-5</v>
       </c>
       <c r="I30" t="n">
-        <v>0.00695271558981932</v>
+        <v>8.03487529726993E-7</v>
       </c>
       <c r="J30" t="n">
-        <v>3.75056530566582E-6</v>
+        <v>1.93784301629495E-5</v>
       </c>
       <c r="K30" t="n">
-        <v>0.606152410636302</v>
+        <v>0.689896597180677</v>
       </c>
       <c r="L30" t="n">
-        <v>1.37038656891672E-7</v>
+        <v>3.22579761162876E-4</v>
       </c>
       <c r="M30" t="n">
-        <v>0.0350141072951369</v>
+        <v>0.125058565860539</v>
       </c>
     </row>
     <row r="31">
@@ -1660,40 +1675,40 @@
         <v>42</v>
       </c>
       <c r="B31" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>0.159356305006545</v>
+        <v>0.202300775960861</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0416859791453037</v>
+        <v>0.710998284327609</v>
       </c>
       <c r="E31" t="n">
-        <v>0.0481714742257271</v>
+        <v>6.0227355219378E-7</v>
       </c>
       <c r="F31" t="n">
-        <v>0.00113628059354197</v>
+        <v>0.00743816234932262</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0454411581058778</v>
+        <v>6.27357514346972E-6</v>
       </c>
       <c r="H31" t="n">
-        <v>0.290972173757142</v>
+        <v>5.86645449632843E-5</v>
       </c>
       <c r="I31" t="n">
-        <v>0.001042051908957</v>
+        <v>5.32840178333177E-9</v>
       </c>
       <c r="J31" t="n">
-        <v>1.48656795341465E-5</v>
+        <v>1.41066950436262E-6</v>
       </c>
       <c r="K31" t="n">
-        <v>0.411409780844136</v>
+        <v>8.30324074179945E-4</v>
       </c>
       <c r="L31" t="n">
-        <v>3.85299226109578E-5</v>
+        <v>1.21991771895163E-6</v>
       </c>
       <c r="M31" t="n">
-        <v>0.0303201049287615</v>
+        <v>0.678307117873012</v>
       </c>
     </row>
     <row r="32">
@@ -1704,37 +1719,37 @@
         <v>6</v>
       </c>
       <c r="C32" t="n">
-        <v>0.140257437920198</v>
+        <v>0.127544340103315</v>
       </c>
       <c r="D32" t="n">
-        <v>9.05656220070646E-4</v>
+        <v>0.0124672718082653</v>
       </c>
       <c r="E32" t="n">
-        <v>2.3417230042243E-4</v>
+        <v>1.71850116574368E-4</v>
       </c>
       <c r="F32" t="n">
-        <v>0.00613198826605588</v>
+        <v>0.054707666707963</v>
       </c>
       <c r="G32" t="n">
-        <v>0.271328757388446</v>
+        <v>0.061320030790206</v>
       </c>
       <c r="H32" t="n">
-        <v>0.662070926053881</v>
+        <v>0.407767323938051</v>
       </c>
       <c r="I32" t="n">
-        <v>4.56389585544912E-5</v>
+        <v>1.59738733580891E-6</v>
       </c>
       <c r="J32" t="n">
-        <v>5.53666296781273E-7</v>
+        <v>2.9503808796393E-5</v>
       </c>
       <c r="K32" t="n">
-        <v>0.258484394083362</v>
+        <v>0.0562548885584832</v>
       </c>
       <c r="L32" t="n">
-        <v>1.38252917842616E-7</v>
+        <v>1.01797128037505E-4</v>
       </c>
       <c r="M32" t="n">
-        <v>0.0191306583555665</v>
+        <v>0.377711803278556</v>
       </c>
     </row>
     <row r="33">
@@ -1786,37 +1801,37 @@
         <v>6</v>
       </c>
       <c r="C34" t="n">
-        <v>0.127544340103315</v>
+        <v>0.140257437920198</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0124672718082653</v>
+        <v>9.05656220070646E-4</v>
       </c>
       <c r="E34" t="n">
-        <v>1.71850116574368E-4</v>
+        <v>2.3417230042243E-4</v>
       </c>
       <c r="F34" t="n">
-        <v>0.054707666707963</v>
+        <v>0.00613198826605588</v>
       </c>
       <c r="G34" t="n">
-        <v>0.061320030790206</v>
+        <v>0.271328757388446</v>
       </c>
       <c r="H34" t="n">
-        <v>0.407767323938051</v>
+        <v>0.662070926053881</v>
       </c>
       <c r="I34" t="n">
-        <v>1.59738733580891E-6</v>
+        <v>4.56389585544912E-5</v>
       </c>
       <c r="J34" t="n">
-        <v>2.9503808796393E-5</v>
+        <v>5.53666296781273E-7</v>
       </c>
       <c r="K34" t="n">
-        <v>0.0562548885584832</v>
+        <v>0.258484394083362</v>
       </c>
       <c r="L34" t="n">
-        <v>1.01797128037505E-4</v>
+        <v>1.38252917842616E-7</v>
       </c>
       <c r="M34" t="n">
-        <v>0.377711803278556</v>
+        <v>0.0191306583555665</v>
       </c>
     </row>
     <row r="35">
@@ -1827,37 +1842,37 @@
         <v>6</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0836560643307167</v>
+        <v>0.159356305006545</v>
       </c>
       <c r="D35" t="n">
-        <v>0.781893587879233</v>
+        <v>0.0416859791453037</v>
       </c>
       <c r="E35" t="n">
-        <v>1.01934525848073E-5</v>
+        <v>0.0481714742257271</v>
       </c>
       <c r="F35" t="n">
-        <v>3.02010369826175E-6</v>
+        <v>0.00113628059354197</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0118736321740358</v>
+        <v>0.0454411581058778</v>
       </c>
       <c r="H35" t="n">
-        <v>0.183990124893389</v>
+        <v>0.290972173757142</v>
       </c>
       <c r="I35" t="n">
-        <v>6.97490062589005E-7</v>
+        <v>0.001042051908957</v>
       </c>
       <c r="J35" t="n">
-        <v>4.92504926180494E-5</v>
+        <v>1.48656795341465E-5</v>
       </c>
       <c r="K35" t="n">
-        <v>0.0259132926329859</v>
+        <v>0.411409780844136</v>
       </c>
       <c r="L35" t="n">
-        <v>0.00393897218469294</v>
+        <v>3.85299226109578E-5</v>
       </c>
       <c r="M35" t="n">
-        <v>0.00320998621024869</v>
+        <v>0.0303201049287615</v>
       </c>
     </row>
     <row r="36">
@@ -1868,37 +1883,37 @@
         <v>6</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0860232567172323</v>
+        <v>0.0768321446606497</v>
       </c>
       <c r="D36" t="n">
-        <v>0.845856664861609</v>
+        <v>0.190410314392878</v>
       </c>
       <c r="E36" t="n">
-        <v>2.07582962625162E-8</v>
+        <v>0.0272781234039028</v>
       </c>
       <c r="F36" t="n">
-        <v>4.3595945424163E-7</v>
+        <v>3.22878789804022E-5</v>
       </c>
       <c r="G36" t="n">
-        <v>0.120454429566229</v>
+        <v>0.150594387926751</v>
       </c>
       <c r="H36" t="n">
-        <v>0.165115104925878</v>
+        <v>0.217858010609633</v>
       </c>
       <c r="I36" t="n">
-        <v>4.0366545807051E-6</v>
+        <v>0.0255172125466873</v>
       </c>
       <c r="J36" t="n">
-        <v>2.34901467003262E-5</v>
+        <v>1.13841573333216E-5</v>
       </c>
       <c r="K36" t="n">
-        <v>5.91915675120459E-5</v>
+        <v>0.296624994171469</v>
       </c>
       <c r="L36" t="n">
-        <v>8.09749642899759E-5</v>
+        <v>0.00120642719576857</v>
       </c>
       <c r="M36" t="n">
-        <v>0.00800314695597124</v>
+        <v>0.110929707121255</v>
       </c>
     </row>
     <row r="37">
@@ -1909,37 +1924,37 @@
         <v>6</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0535569806843669</v>
+        <v>0.0893198732733493</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0775935189231354</v>
+        <v>0.148616903590278</v>
       </c>
       <c r="E37" t="n">
-        <v>1.2178578262912E-6</v>
+        <v>1.29970195801942E-6</v>
       </c>
       <c r="F37" t="n">
-        <v>3.4852657283005E-7</v>
+        <v>3.50544123529407E-4</v>
       </c>
       <c r="G37" t="n">
-        <v>0.626043712538609</v>
+        <v>8.02787477505275E-4</v>
       </c>
       <c r="H37" t="n">
-        <v>0.327575843178022</v>
+        <v>0.257894768034889</v>
       </c>
       <c r="I37" t="n">
-        <v>5.8901117175698E-4</v>
+        <v>0.00695271558981932</v>
       </c>
       <c r="J37" t="n">
-        <v>0.00148746603555514</v>
+        <v>3.75056530566582E-6</v>
       </c>
       <c r="K37" t="n">
-        <v>0.095719892626882</v>
+        <v>0.606152410636302</v>
       </c>
       <c r="L37" t="n">
-        <v>0.00200347705758241</v>
+        <v>1.37038656891672E-7</v>
       </c>
       <c r="M37" t="n">
-        <v>0.0892751805883587</v>
+        <v>0.0350141072951369</v>
       </c>
     </row>
     <row r="38">
@@ -1950,37 +1965,37 @@
         <v>6</v>
       </c>
       <c r="C38" t="n">
-        <v>0.154271893604505</v>
+        <v>0.0744779772693026</v>
       </c>
       <c r="D38" t="n">
-        <v>0.863245646566485</v>
+        <v>0.771755384574979</v>
       </c>
       <c r="E38" t="n">
-        <v>3.07372650865299E-8</v>
+        <v>1.2179704092315E-7</v>
       </c>
       <c r="F38" t="n">
-        <v>9.04072190971925E-10</v>
+        <v>4.10823817377496E-7</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0673392184930517</v>
+        <v>0.0470034946994811</v>
       </c>
       <c r="H38" t="n">
-        <v>0.00303725579865163</v>
+        <v>2.38650474340773E-5</v>
       </c>
       <c r="I38" t="n">
-        <v>2.31179852389982E-5</v>
+        <v>4.44871944909622E-6</v>
       </c>
       <c r="J38" t="n">
-        <v>2.38836450470053E-5</v>
+        <v>5.24963377808097E-6</v>
       </c>
       <c r="K38" t="n">
-        <v>0.0049608026610843</v>
+        <v>0.278697703182753</v>
       </c>
       <c r="L38" t="n">
-        <v>4.50649183399362E-6</v>
+        <v>6.85596927770894E-7</v>
       </c>
       <c r="M38" t="n">
-        <v>0.0361165963305653</v>
+        <v>1.4382901243294E-4</v>
       </c>
     </row>
     <row r="39">
@@ -1991,37 +2006,37 @@
         <v>6</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0744779772693026</v>
+        <v>0.154271893604505</v>
       </c>
       <c r="D39" t="n">
-        <v>0.771755384574979</v>
+        <v>0.863245646566485</v>
       </c>
       <c r="E39" t="n">
-        <v>1.2179704092315E-7</v>
+        <v>3.07372650865299E-8</v>
       </c>
       <c r="F39" t="n">
-        <v>4.10823817377496E-7</v>
+        <v>9.04072190971925E-10</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0470034946994811</v>
+        <v>0.0673392184930517</v>
       </c>
       <c r="H39" t="n">
-        <v>2.38650474340773E-5</v>
+        <v>0.00303725579865163</v>
       </c>
       <c r="I39" t="n">
-        <v>4.44871944909622E-6</v>
+        <v>2.31179852389982E-5</v>
       </c>
       <c r="J39" t="n">
-        <v>5.24963377808097E-6</v>
+        <v>2.38836450470053E-5</v>
       </c>
       <c r="K39" t="n">
-        <v>0.278697703182753</v>
+        <v>0.0049608026610843</v>
       </c>
       <c r="L39" t="n">
-        <v>6.85596927770894E-7</v>
+        <v>4.50649183399362E-6</v>
       </c>
       <c r="M39" t="n">
-        <v>1.4382901243294E-4</v>
+        <v>0.0361165963305653</v>
       </c>
     </row>
     <row r="40">
@@ -2073,37 +2088,37 @@
         <v>6</v>
       </c>
       <c r="C41" t="n">
-        <v>0.102615947828295</v>
+        <v>0.0836560643307167</v>
       </c>
       <c r="D41" t="n">
-        <v>0.331846213713622</v>
+        <v>0.781893587879233</v>
       </c>
       <c r="E41" t="n">
-        <v>3.61727499677799E-5</v>
+        <v>1.01934525848073E-5</v>
       </c>
       <c r="F41" t="n">
-        <v>2.72409968064426E-6</v>
+        <v>3.02010369826175E-6</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0260603268355363</v>
+        <v>0.0118736321740358</v>
       </c>
       <c r="H41" t="n">
-        <v>3.31621081004244E-5</v>
+        <v>0.183990124893389</v>
       </c>
       <c r="I41" t="n">
-        <v>5.19808951430388E-6</v>
+        <v>6.97490062589005E-7</v>
       </c>
       <c r="J41" t="n">
-        <v>0.00482517604717733</v>
+        <v>4.92504926180494E-5</v>
       </c>
       <c r="K41" t="n">
-        <v>0.456413978338525</v>
+        <v>0.0259132926329859</v>
       </c>
       <c r="L41" t="n">
-        <v>0.00923008868251602</v>
+        <v>0.00393897218469294</v>
       </c>
       <c r="M41" t="n">
-        <v>0.10131667126195</v>
+        <v>0.00320998621024869</v>
       </c>
     </row>
     <row r="42">
@@ -2114,37 +2129,37 @@
         <v>6</v>
       </c>
       <c r="C42" t="n">
-        <v>0.118037042081669</v>
+        <v>0.0535569806843669</v>
       </c>
       <c r="D42" t="n">
-        <v>0.683088194322711</v>
+        <v>0.0775935189231354</v>
       </c>
       <c r="E42" t="n">
-        <v>1.03186661311869E-5</v>
+        <v>1.2178578262912E-6</v>
       </c>
       <c r="F42" t="n">
-        <v>4.1928289488449E-6</v>
+        <v>3.4852657283005E-7</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0258483590619507</v>
+        <v>0.626043712538609</v>
       </c>
       <c r="H42" t="n">
-        <v>6.22894109974559E-7</v>
+        <v>0.327575843178022</v>
       </c>
       <c r="I42" t="n">
-        <v>5.0163944942324E-8</v>
+        <v>5.8901117175698E-4</v>
       </c>
       <c r="J42" t="n">
-        <v>1.48332808013523E-5</v>
+        <v>0.00148746603555514</v>
       </c>
       <c r="K42" t="n">
-        <v>0.178558492826402</v>
+        <v>0.095719892626882</v>
       </c>
       <c r="L42" t="n">
-        <v>5.81423298466857E-5</v>
+        <v>0.00200347705758241</v>
       </c>
       <c r="M42" t="n">
-        <v>0.164515067343522</v>
+        <v>0.0892751805883587</v>
       </c>
     </row>
     <row r="43">
@@ -2155,37 +2170,37 @@
         <v>6</v>
       </c>
       <c r="C43" t="n">
-        <v>0.231352772886249</v>
+        <v>0.0860232567172323</v>
       </c>
       <c r="D43" t="n">
-        <v>0.986011465466999</v>
+        <v>0.845856664861609</v>
       </c>
       <c r="E43" t="n">
-        <v>3.92213937422571E-6</v>
+        <v>2.07582962625162E-8</v>
       </c>
       <c r="F43" t="n">
-        <v>3.80507811625095E-6</v>
+        <v>4.3595945424163E-7</v>
       </c>
       <c r="G43" t="n">
-        <v>0.00861495435980517</v>
+        <v>0.120454429566229</v>
       </c>
       <c r="H43" t="n">
-        <v>8.30248882554823E-7</v>
+        <v>0.165115104925878</v>
       </c>
       <c r="I43" t="n">
-        <v>7.14613018270624E-7</v>
+        <v>4.0366545807051E-6</v>
       </c>
       <c r="J43" t="n">
-        <v>2.68812651129283E-4</v>
+        <v>2.34901467003262E-5</v>
       </c>
       <c r="K43" t="n">
-        <v>5.50114539865069E-6</v>
+        <v>5.91915675120459E-5</v>
       </c>
       <c r="L43" t="n">
-        <v>4.86525441048893E-4</v>
+        <v>8.09749642899759E-5</v>
       </c>
       <c r="M43" t="n">
-        <v>0.00275283938928664</v>
+        <v>0.00800314695597124</v>
       </c>
     </row>
     <row r="44">
@@ -2196,37 +2211,37 @@
         <v>6</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0924581929237477</v>
+        <v>0.120030418510517</v>
       </c>
       <c r="D44" t="n">
-        <v>0.809522465396158</v>
+        <v>0.815660982715606</v>
       </c>
       <c r="E44" t="n">
-        <v>4.44676044989875E-7</v>
+        <v>3.04287686586671E-8</v>
       </c>
       <c r="F44" t="n">
-        <v>4.24125211921983E-6</v>
+        <v>6.82332473169108E-7</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0633003341841528</v>
+        <v>0.158192355881837</v>
       </c>
       <c r="H44" t="n">
-        <v>1.10741030147373E-6</v>
+        <v>0.00107023045577914</v>
       </c>
       <c r="I44" t="n">
-        <v>1.28591794742192E-5</v>
+        <v>2.8537958296107E-5</v>
       </c>
       <c r="J44" t="n">
-        <v>2.56605888025412E-6</v>
+        <v>1.74906261537954E-4</v>
       </c>
       <c r="K44" t="n">
-        <v>2.47057742409077E-4</v>
+        <v>1.38039349322611E-5</v>
       </c>
       <c r="L44" t="n">
-        <v>0.00792868001430735</v>
+        <v>7.40282645600895E-4</v>
       </c>
       <c r="M44" t="n">
-        <v>0.0864900412286378</v>
+        <v>0.0284965977176703</v>
       </c>
     </row>
     <row r="45">
@@ -2237,37 +2252,37 @@
         <v>6</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0637411847922168</v>
+        <v>0.115980682966298</v>
       </c>
       <c r="D45" t="n">
-        <v>0.275283173987975</v>
+        <v>0.837609070118224</v>
       </c>
       <c r="E45" t="n">
-        <v>9.75549290471359E-6</v>
+        <v>2.62332103442507E-5</v>
       </c>
       <c r="F45" t="n">
-        <v>9.82666642060416E-7</v>
+        <v>3.95178826698479E-6</v>
       </c>
       <c r="G45" t="n">
-        <v>0.303988939322506</v>
+        <v>0.17122254972225</v>
       </c>
       <c r="H45" t="n">
-        <v>0.0068914147007272</v>
+        <v>0.0296649846185287</v>
       </c>
       <c r="I45" t="n">
-        <v>0.0050916980294501</v>
+        <v>0.0019466273335722</v>
       </c>
       <c r="J45" t="n">
-        <v>1.90139327267303E-4</v>
+        <v>9.51391750263993E-6</v>
       </c>
       <c r="K45" t="n">
-        <v>0.0327600358316388</v>
+        <v>2.1622143794025E-5</v>
       </c>
       <c r="L45" t="n">
-        <v>0.0379890815621037</v>
+        <v>0.00126993605020735</v>
       </c>
       <c r="M45" t="n">
-        <v>0.294489944727839</v>
+        <v>1.74333438608671E-4</v>
       </c>
     </row>
     <row r="46">
@@ -2278,37 +2293,37 @@
         <v>6</v>
       </c>
       <c r="C46" t="n">
-        <v>0.152974335175793</v>
+        <v>0.120863469693099</v>
       </c>
       <c r="D46" t="n">
-        <v>0.305303913032105</v>
+        <v>0.962169454490537</v>
       </c>
       <c r="E46" t="n">
-        <v>1.15358110364745E-5</v>
+        <v>4.7678011158295E-7</v>
       </c>
       <c r="F46" t="n">
-        <v>1.63254677288893E-5</v>
+        <v>4.27426160694473E-7</v>
       </c>
       <c r="G46" t="n">
-        <v>0.159782055366375</v>
+        <v>0.00707496807542814</v>
       </c>
       <c r="H46" t="n">
-        <v>0.00765749504521492</v>
+        <v>5.45148237781573E-5</v>
       </c>
       <c r="I46" t="n">
-        <v>2.2139985727975E-4</v>
+        <v>0.00890312754717134</v>
       </c>
       <c r="J46" t="n">
-        <v>2.50522955990984E-5</v>
+        <v>1.31752646583747E-6</v>
       </c>
       <c r="K46" t="n">
-        <v>0.0763551713474999</v>
+        <v>1.03710138858464E-5</v>
       </c>
       <c r="L46" t="n">
-        <v>0.00184218419772745</v>
+        <v>5.60788068602509E-4</v>
       </c>
       <c r="M46" t="n">
-        <v>0.360672581157799</v>
+        <v>0.010499153954095</v>
       </c>
     </row>
     <row r="47">
@@ -2319,37 +2334,37 @@
         <v>6</v>
       </c>
       <c r="C47" t="n">
-        <v>0.134892771395735</v>
+        <v>0.163909469665085</v>
       </c>
       <c r="D47" t="n">
-        <v>0.860426657119299</v>
+        <v>0.267208123357182</v>
       </c>
       <c r="E47" t="n">
-        <v>2.71841553786978E-10</v>
+        <v>1.30766063332929E-6</v>
       </c>
       <c r="F47" t="n">
-        <v>8.09112401304243E-7</v>
+        <v>1.13977376323163E-6</v>
       </c>
       <c r="G47" t="n">
-        <v>0.0379594352516106</v>
+        <v>0.138803637338201</v>
       </c>
       <c r="H47" t="n">
-        <v>2.32382834427101E-6</v>
+        <v>0.0144893574502833</v>
       </c>
       <c r="I47" t="n">
-        <v>1.29486696194874E-4</v>
+        <v>0.0518298945837684</v>
       </c>
       <c r="J47" t="n">
-        <v>2.28401635628111E-6</v>
+        <v>3.26963325645913E-8</v>
       </c>
       <c r="K47" t="n">
-        <v>0.00836479079900864</v>
+        <v>0.00624237518206614</v>
       </c>
       <c r="L47" t="n">
-        <v>8.21898322739715E-5</v>
+        <v>5.35218038042296E-6</v>
       </c>
       <c r="M47" t="n">
-        <v>0.0717353016396341</v>
+        <v>0.488356220917693</v>
       </c>
     </row>
     <row r="48">
@@ -2360,37 +2375,37 @@
         <v>6</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0971934387104891</v>
+        <v>0.0386081328428263</v>
       </c>
       <c r="D48" t="n">
-        <v>0.186460309705582</v>
+        <v>0.438587390316638</v>
       </c>
       <c r="E48" t="n">
-        <v>2.26351194628147E-6</v>
+        <v>5.9447227389014E-5</v>
       </c>
       <c r="F48" t="n">
-        <v>1.53415968061871E-8</v>
+        <v>3.25639193562669E-5</v>
       </c>
       <c r="G48" t="n">
-        <v>0.204214574559429</v>
+        <v>0.36093068664679</v>
       </c>
       <c r="H48" t="n">
-        <v>2.45177438786352E-7</v>
+        <v>0.0421527108419087</v>
       </c>
       <c r="I48" t="n">
-        <v>0.00281693272546881</v>
+        <v>0.0547471475547919</v>
       </c>
       <c r="J48" t="n">
-        <v>1.90513306596243E-5</v>
+        <v>1.88789124822768E-6</v>
       </c>
       <c r="K48" t="n">
-        <v>0.299871998506041</v>
+        <v>0.00385067136713787</v>
       </c>
       <c r="L48" t="n">
-        <v>9.9276166117285E-6</v>
+        <v>8.29142595141318E-5</v>
       </c>
       <c r="M48" t="n">
-        <v>0.349178241505865</v>
+        <v>0.168590747074358</v>
       </c>
     </row>
     <row r="49">
@@ -2401,37 +2416,37 @@
         <v>6</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0775603832733463</v>
+        <v>0.0729410484225033</v>
       </c>
       <c r="D49" t="n">
-        <v>0.619791287331234</v>
+        <v>0.249575161141431</v>
       </c>
       <c r="E49" t="n">
-        <v>1.40457263737309E-5</v>
+        <v>1.43768265365873E-4</v>
       </c>
       <c r="F49" t="n">
-        <v>2.43623849418304E-6</v>
+        <v>1.21073321092828E-4</v>
       </c>
       <c r="G49" t="n">
-        <v>0.142125995091995</v>
+        <v>0.369702238989909</v>
       </c>
       <c r="H49" t="n">
-        <v>1.72317601806916E-4</v>
+        <v>2.49277760092053E-6</v>
       </c>
       <c r="I49" t="n">
-        <v>0.00577617608334309</v>
+        <v>0.0302788503129016</v>
       </c>
       <c r="J49" t="n">
-        <v>0.00137187734582836</v>
+        <v>7.33573358820506E-7</v>
       </c>
       <c r="K49" t="n">
-        <v>0.0641922046316473</v>
+        <v>0.00587901198904193</v>
       </c>
       <c r="L49" t="n">
-        <v>8.28509039844405E-5</v>
+        <v>4.81071247756108E-5</v>
       </c>
       <c r="M49" t="n">
-        <v>0.114649259532808</v>
+        <v>0.324641595227086</v>
       </c>
     </row>
     <row r="50">
@@ -2442,37 +2457,37 @@
         <v>6</v>
       </c>
       <c r="C50" t="n">
-        <v>0.135883018783382</v>
+        <v>0.192619192727207</v>
       </c>
       <c r="D50" t="n">
-        <v>0.746090236729706</v>
+        <v>0.89502270364709</v>
       </c>
       <c r="E50" t="n">
-        <v>3.02095707673413E-7</v>
+        <v>4.98858123312647E-6</v>
       </c>
       <c r="F50" t="n">
-        <v>3.28562129934391E-8</v>
+        <v>0.00547280844110549</v>
       </c>
       <c r="G50" t="n">
-        <v>0.161825137662896</v>
+        <v>0.0660002167828165</v>
       </c>
       <c r="H50" t="n">
-        <v>2.13383421253024E-6</v>
+        <v>6.181924037586E-6</v>
       </c>
       <c r="I50" t="n">
-        <v>3.71299709454136E-4</v>
+        <v>0.00761895258785159</v>
       </c>
       <c r="J50" t="n">
-        <v>0.0112432529261334</v>
+        <v>9.04425361490973E-7</v>
       </c>
       <c r="K50" t="n">
-        <v>2.09044401526624E-5</v>
+        <v>5.62026111221152E-7</v>
       </c>
       <c r="L50" t="n">
-        <v>4.20505997837344E-6</v>
+        <v>7.92374625750635E-5</v>
       </c>
       <c r="M50" t="n">
-        <v>0.0526198953295075</v>
+        <v>0.0132576832960793</v>
       </c>
     </row>
     <row r="51">
@@ -2483,37 +2498,37 @@
         <v>6</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0597430389260075</v>
+        <v>0.124407182221583</v>
       </c>
       <c r="D51" t="n">
-        <v>0.574815051794415</v>
+        <v>0.824721669529594</v>
       </c>
       <c r="E51" t="n">
-        <v>2.78232389148385E-7</v>
+        <v>2.08443164458338E-4</v>
       </c>
       <c r="F51" t="n">
-        <v>0.00332097448261142</v>
+        <v>1.20709940613002E-6</v>
       </c>
       <c r="G51" t="n">
-        <v>0.0779827079465992</v>
+        <v>0.10399571180009</v>
       </c>
       <c r="H51" t="n">
-        <v>3.41441716566067E-5</v>
+        <v>2.07984739437134E-4</v>
       </c>
       <c r="I51" t="n">
-        <v>0.0103090306058761</v>
+        <v>3.73918354495524E-4</v>
       </c>
       <c r="J51" t="n">
-        <v>0.0189427732366675</v>
+        <v>2.51267818621089E-4</v>
       </c>
       <c r="K51" t="n">
-        <v>3.56871742596759E-4</v>
+        <v>2.40313710005627E-5</v>
       </c>
       <c r="L51" t="n">
-        <v>2.09635413900274E-5</v>
+        <v>1.49936124075707E-4</v>
       </c>
       <c r="M51" t="n">
-        <v>0.297005132754885</v>
+        <v>0.0671541624716613</v>
       </c>
     </row>
     <row r="52">
@@ -2524,37 +2539,37 @@
         <v>6</v>
       </c>
       <c r="C52" t="n">
-        <v>0.124407182221583</v>
+        <v>0.0597430389260075</v>
       </c>
       <c r="D52" t="n">
-        <v>0.824721669529594</v>
+        <v>0.574815051794415</v>
       </c>
       <c r="E52" t="n">
-        <v>2.08443164458338E-4</v>
+        <v>2.78232389148385E-7</v>
       </c>
       <c r="F52" t="n">
-        <v>1.20709940613002E-6</v>
+        <v>0.00332097448261142</v>
       </c>
       <c r="G52" t="n">
-        <v>0.10399571180009</v>
+        <v>0.0779827079465992</v>
       </c>
       <c r="H52" t="n">
-        <v>2.07984739437134E-4</v>
+        <v>3.41441716566067E-5</v>
       </c>
       <c r="I52" t="n">
-        <v>3.73918354495524E-4</v>
+        <v>0.0103090306058761</v>
       </c>
       <c r="J52" t="n">
-        <v>2.51267818621089E-4</v>
+        <v>0.0189427732366675</v>
       </c>
       <c r="K52" t="n">
-        <v>2.40313710005627E-5</v>
+        <v>3.56871742596759E-4</v>
       </c>
       <c r="L52" t="n">
-        <v>1.49936124075707E-4</v>
+        <v>2.09635413900274E-5</v>
       </c>
       <c r="M52" t="n">
-        <v>0.0671541624716613</v>
+        <v>0.297005132754885</v>
       </c>
     </row>
     <row r="53">
@@ -2565,37 +2580,37 @@
         <v>6</v>
       </c>
       <c r="C53" t="n">
-        <v>0.192619192727207</v>
+        <v>0.135883018783382</v>
       </c>
       <c r="D53" t="n">
-        <v>0.89502270364709</v>
+        <v>0.746090236729706</v>
       </c>
       <c r="E53" t="n">
-        <v>4.98858123312647E-6</v>
+        <v>3.02095707673413E-7</v>
       </c>
       <c r="F53" t="n">
-        <v>0.00547280844110549</v>
+        <v>3.28562129934391E-8</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0660002167828165</v>
+        <v>0.161825137662896</v>
       </c>
       <c r="H53" t="n">
-        <v>6.181924037586E-6</v>
+        <v>2.13383421253024E-6</v>
       </c>
       <c r="I53" t="n">
-        <v>0.00761895258785159</v>
+        <v>3.71299709454136E-4</v>
       </c>
       <c r="J53" t="n">
-        <v>9.04425361490973E-7</v>
+        <v>0.0112432529261334</v>
       </c>
       <c r="K53" t="n">
-        <v>5.62026111221152E-7</v>
+        <v>2.09044401526624E-5</v>
       </c>
       <c r="L53" t="n">
-        <v>7.92374625750635E-5</v>
+        <v>4.20505997837344E-6</v>
       </c>
       <c r="M53" t="n">
-        <v>0.0132576832960793</v>
+        <v>0.0526198953295075</v>
       </c>
     </row>
     <row r="54">
@@ -2606,37 +2621,37 @@
         <v>6</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0729410484225033</v>
+        <v>0.0775603832733463</v>
       </c>
       <c r="D54" t="n">
-        <v>0.249575161141431</v>
+        <v>0.619791287331234</v>
       </c>
       <c r="E54" t="n">
-        <v>1.43768265365873E-4</v>
+        <v>1.40457263737309E-5</v>
       </c>
       <c r="F54" t="n">
-        <v>1.21073321092828E-4</v>
+        <v>2.43623849418304E-6</v>
       </c>
       <c r="G54" t="n">
-        <v>0.369702238989909</v>
+        <v>0.142125995091995</v>
       </c>
       <c r="H54" t="n">
-        <v>2.49277760092053E-6</v>
+        <v>1.72317601806916E-4</v>
       </c>
       <c r="I54" t="n">
-        <v>0.0302788503129016</v>
+        <v>0.00577617608334309</v>
       </c>
       <c r="J54" t="n">
-        <v>7.33573358820506E-7</v>
+        <v>0.00137187734582836</v>
       </c>
       <c r="K54" t="n">
-        <v>0.00587901198904193</v>
+        <v>0.0641922046316473</v>
       </c>
       <c r="L54" t="n">
-        <v>4.81071247756108E-5</v>
+        <v>8.28509039844405E-5</v>
       </c>
       <c r="M54" t="n">
-        <v>0.324641595227086</v>
+        <v>0.114649259532808</v>
       </c>
     </row>
     <row r="55">
@@ -2647,37 +2662,37 @@
         <v>6</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0386081328428263</v>
+        <v>0.0971934387104891</v>
       </c>
       <c r="D55" t="n">
-        <v>0.438587390316638</v>
+        <v>0.186460309705582</v>
       </c>
       <c r="E55" t="n">
-        <v>5.9447227389014E-5</v>
+        <v>2.26351194628147E-6</v>
       </c>
       <c r="F55" t="n">
-        <v>3.25639193562669E-5</v>
+        <v>1.53415968061871E-8</v>
       </c>
       <c r="G55" t="n">
-        <v>0.36093068664679</v>
+        <v>0.204214574559429</v>
       </c>
       <c r="H55" t="n">
-        <v>0.0421527108419087</v>
+        <v>2.45177438786352E-7</v>
       </c>
       <c r="I55" t="n">
-        <v>0.0547471475547919</v>
+        <v>0.00281693272546881</v>
       </c>
       <c r="J55" t="n">
-        <v>1.88789124822768E-6</v>
+        <v>1.90513306596243E-5</v>
       </c>
       <c r="K55" t="n">
-        <v>0.00385067136713787</v>
+        <v>0.299871998506041</v>
       </c>
       <c r="L55" t="n">
-        <v>8.29142595141318E-5</v>
+        <v>9.9276166117285E-6</v>
       </c>
       <c r="M55" t="n">
-        <v>0.168590747074358</v>
+        <v>0.349178241505865</v>
       </c>
     </row>
     <row r="56">
@@ -2688,37 +2703,37 @@
         <v>6</v>
       </c>
       <c r="C56" t="n">
-        <v>0.163909469665085</v>
+        <v>0.0924581929237477</v>
       </c>
       <c r="D56" t="n">
-        <v>0.267208123357182</v>
+        <v>0.809522465396158</v>
       </c>
       <c r="E56" t="n">
-        <v>1.30766063332929E-6</v>
+        <v>4.44676044989875E-7</v>
       </c>
       <c r="F56" t="n">
-        <v>1.13977376323163E-6</v>
+        <v>4.24125211921983E-6</v>
       </c>
       <c r="G56" t="n">
-        <v>0.138803637338201</v>
+        <v>0.0633003341841528</v>
       </c>
       <c r="H56" t="n">
-        <v>0.0144893574502833</v>
+        <v>1.10741030147373E-6</v>
       </c>
       <c r="I56" t="n">
-        <v>0.0518298945837684</v>
+        <v>1.28591794742192E-5</v>
       </c>
       <c r="J56" t="n">
-        <v>3.26963325645913E-8</v>
+        <v>2.56605888025412E-6</v>
       </c>
       <c r="K56" t="n">
-        <v>0.00624237518206614</v>
+        <v>2.47057742409077E-4</v>
       </c>
       <c r="L56" t="n">
-        <v>5.35218038042296E-6</v>
+        <v>0.00792868001430735</v>
       </c>
       <c r="M56" t="n">
-        <v>0.488356220917693</v>
+        <v>0.0864900412286378</v>
       </c>
     </row>
     <row r="57">
@@ -2729,37 +2744,37 @@
         <v>6</v>
       </c>
       <c r="C57" t="n">
-        <v>0.120863469693099</v>
+        <v>0.134892771395735</v>
       </c>
       <c r="D57" t="n">
-        <v>0.962169454490537</v>
+        <v>0.860426657119299</v>
       </c>
       <c r="E57" t="n">
-        <v>4.7678011158295E-7</v>
+        <v>2.71841553786978E-10</v>
       </c>
       <c r="F57" t="n">
-        <v>4.27426160694473E-7</v>
+        <v>8.09112401304243E-7</v>
       </c>
       <c r="G57" t="n">
-        <v>0.00707496807542814</v>
+        <v>0.0379594352516106</v>
       </c>
       <c r="H57" t="n">
-        <v>5.45148237781573E-5</v>
+        <v>2.32382834427101E-6</v>
       </c>
       <c r="I57" t="n">
-        <v>0.00890312754717134</v>
+        <v>1.29486696194874E-4</v>
       </c>
       <c r="J57" t="n">
-        <v>1.31752646583747E-6</v>
+        <v>2.28401635628111E-6</v>
       </c>
       <c r="K57" t="n">
-        <v>1.03710138858464E-5</v>
+        <v>0.00836479079900864</v>
       </c>
       <c r="L57" t="n">
-        <v>5.60788068602509E-4</v>
+        <v>8.21898322739715E-5</v>
       </c>
       <c r="M57" t="n">
-        <v>0.010499153954095</v>
+        <v>0.0717353016396341</v>
       </c>
     </row>
     <row r="58">
@@ -2770,37 +2785,37 @@
         <v>6</v>
       </c>
       <c r="C58" t="n">
-        <v>0.115980682966298</v>
+        <v>0.152974335175793</v>
       </c>
       <c r="D58" t="n">
-        <v>0.837609070118224</v>
+        <v>0.305303913032105</v>
       </c>
       <c r="E58" t="n">
-        <v>2.62332103442507E-5</v>
+        <v>1.15358110364745E-5</v>
       </c>
       <c r="F58" t="n">
-        <v>3.95178826698479E-6</v>
+        <v>1.63254677288893E-5</v>
       </c>
       <c r="G58" t="n">
-        <v>0.17122254972225</v>
+        <v>0.159782055366375</v>
       </c>
       <c r="H58" t="n">
-        <v>0.0296649846185287</v>
+        <v>0.00765749504521492</v>
       </c>
       <c r="I58" t="n">
-        <v>0.0019466273335722</v>
+        <v>2.2139985727975E-4</v>
       </c>
       <c r="J58" t="n">
-        <v>9.51391750263993E-6</v>
+        <v>2.50522955990984E-5</v>
       </c>
       <c r="K58" t="n">
-        <v>2.1622143794025E-5</v>
+        <v>0.0763551713474999</v>
       </c>
       <c r="L58" t="n">
-        <v>0.00126993605020735</v>
+        <v>0.00184218419772745</v>
       </c>
       <c r="M58" t="n">
-        <v>1.74333438608671E-4</v>
+        <v>0.360672581157799</v>
       </c>
     </row>
     <row r="59">
@@ -2811,37 +2826,37 @@
         <v>6</v>
       </c>
       <c r="C59" t="n">
-        <v>0.120030418510517</v>
+        <v>0.0637411847922168</v>
       </c>
       <c r="D59" t="n">
-        <v>0.815660982715606</v>
+        <v>0.275283173987975</v>
       </c>
       <c r="E59" t="n">
-        <v>3.04287686586671E-8</v>
+        <v>9.75549290471359E-6</v>
       </c>
       <c r="F59" t="n">
-        <v>6.82332473169108E-7</v>
+        <v>9.82666642060416E-7</v>
       </c>
       <c r="G59" t="n">
-        <v>0.158192355881837</v>
+        <v>0.303988939322506</v>
       </c>
       <c r="H59" t="n">
-        <v>0.00107023045577914</v>
+        <v>0.0068914147007272</v>
       </c>
       <c r="I59" t="n">
-        <v>2.8537958296107E-5</v>
+        <v>0.0050916980294501</v>
       </c>
       <c r="J59" t="n">
-        <v>1.74906261537954E-4</v>
+        <v>1.90139327267303E-4</v>
       </c>
       <c r="K59" t="n">
-        <v>1.38039349322611E-5</v>
+        <v>0.0327600358316388</v>
       </c>
       <c r="L59" t="n">
-        <v>7.40282645600895E-4</v>
+        <v>0.0379890815621037</v>
       </c>
       <c r="M59" t="n">
-        <v>0.0284965977176703</v>
+        <v>0.294489944727839</v>
       </c>
     </row>
     <row r="60">
@@ -2852,37 +2867,37 @@
         <v>6</v>
       </c>
       <c r="C60" t="n">
-        <v>0.093425778470675</v>
+        <v>0.102615947828295</v>
       </c>
       <c r="D60" t="n">
-        <v>0.771734277390245</v>
+        <v>0.331846213713622</v>
       </c>
       <c r="E60" t="n">
-        <v>3.12228664892467E-4</v>
+        <v>3.61727499677799E-5</v>
       </c>
       <c r="F60" t="n">
-        <v>8.92803848237997E-6</v>
+        <v>2.72409968064426E-6</v>
       </c>
       <c r="G60" t="n">
-        <v>0.230177085085877</v>
+        <v>0.0260603268355363</v>
       </c>
       <c r="H60" t="n">
-        <v>5.14960858164186E-5</v>
+        <v>3.31621081004244E-5</v>
       </c>
       <c r="I60" t="n">
-        <v>7.73078760219036E-6</v>
+        <v>5.19808951430388E-6</v>
       </c>
       <c r="J60" t="n">
-        <v>1.21038829901025E-5</v>
+        <v>0.00482517604717733</v>
       </c>
       <c r="K60" t="n">
-        <v>2.11177955283314E-6</v>
+        <v>0.456413978338525</v>
       </c>
       <c r="L60" t="n">
-        <v>0.00104784968347662</v>
+        <v>0.00923008868251602</v>
       </c>
       <c r="M60" t="n">
-        <v>0.00401616424407034</v>
+        <v>0.10131667126195</v>
       </c>
     </row>
     <row r="61">
@@ -2890,40 +2905,40 @@
         <v>72</v>
       </c>
       <c r="B61" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0218912088248391</v>
+        <v>0.118037042081669</v>
       </c>
       <c r="D61" t="n">
-        <v>0.735793180496749</v>
+        <v>0.683088194322711</v>
       </c>
       <c r="E61" t="n">
-        <v>0.20448959480198</v>
+        <v>1.03186661311869E-5</v>
       </c>
       <c r="F61" t="n">
-        <v>2.0837680458386E-6</v>
+        <v>4.1928289488449E-6</v>
       </c>
       <c r="G61" t="n">
-        <v>6.44213003312815E-4</v>
+        <v>0.0258483590619507</v>
       </c>
       <c r="H61" t="n">
-        <v>2.32206662643508E-6</v>
+        <v>6.22894109974559E-7</v>
       </c>
       <c r="I61" t="n">
-        <v>1.68541036157285E-5</v>
+        <v>5.0163944942324E-8</v>
       </c>
       <c r="J61" t="n">
-        <v>2.79744536779987E-5</v>
+        <v>1.48332808013523E-5</v>
       </c>
       <c r="K61" t="n">
-        <v>4.04950435338894E-6</v>
+        <v>0.178558492826402</v>
       </c>
       <c r="L61" t="n">
-        <v>1.73293577507539E-4</v>
+        <v>5.81423298466857E-5</v>
       </c>
       <c r="M61" t="n">
-        <v>0.0315263177177226</v>
+        <v>0.164515067343522</v>
       </c>
     </row>
     <row r="62">
@@ -2931,40 +2946,40 @@
         <v>73</v>
       </c>
       <c r="B62" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0657493845330519</v>
+        <v>0.0791437211891458</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0615943571481762</v>
+        <v>0.161739686930268</v>
       </c>
       <c r="E62" t="n">
-        <v>0.512077219331177</v>
+        <v>3.36045830660744E-4</v>
       </c>
       <c r="F62" t="n">
-        <v>3.40690834209847E-7</v>
+        <v>5.31224611397404E-6</v>
       </c>
       <c r="G62" t="n">
-        <v>8.52369741908524E-5</v>
+        <v>0.116110611392965</v>
       </c>
       <c r="H62" t="n">
-        <v>0.00501677686300469</v>
+        <v>3.75196996462541E-6</v>
       </c>
       <c r="I62" t="n">
-        <v>6.38519162005219E-5</v>
+        <v>3.00163109341114E-6</v>
       </c>
       <c r="J62" t="n">
-        <v>0.071042290330106</v>
+        <v>3.51033867725567E-4</v>
       </c>
       <c r="K62" t="n">
-        <v>2.19419766073383E-5</v>
+        <v>0.0173044653046668</v>
       </c>
       <c r="L62" t="n">
-        <v>0.0542254840116972</v>
+        <v>0.0576554465347118</v>
       </c>
       <c r="M62" t="n">
-        <v>0.242241742569735</v>
+        <v>0.667877210359023</v>
       </c>
     </row>
     <row r="63">
@@ -2972,40 +2987,40 @@
         <v>74</v>
       </c>
       <c r="B63" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0717785758834171</v>
+        <v>0.231352772886249</v>
       </c>
       <c r="D63" t="n">
-        <v>0.868697768845833</v>
+        <v>0.986011465466999</v>
       </c>
       <c r="E63" t="n">
-        <v>0.0439659878089505</v>
+        <v>3.92213937422571E-6</v>
       </c>
       <c r="F63" t="n">
-        <v>3.17930156894628E-6</v>
+        <v>3.80507811625095E-6</v>
       </c>
       <c r="G63" t="n">
-        <v>1.21867919363476E-6</v>
+        <v>0.00861495435980517</v>
       </c>
       <c r="H63" t="n">
-        <v>6.370804390452E-6</v>
+        <v>8.30248882554823E-7</v>
       </c>
       <c r="I63" t="n">
-        <v>5.82707916371877E-6</v>
+        <v>7.14613018270624E-7</v>
       </c>
       <c r="J63" t="n">
-        <v>7.26681949845353E-6</v>
+        <v>2.68812651129283E-4</v>
       </c>
       <c r="K63" t="n">
-        <v>1.79209663891568E-8</v>
+        <v>5.50114539865069E-6</v>
       </c>
       <c r="L63" t="n">
-        <v>4.56852946447198E-4</v>
+        <v>4.86525441048893E-4</v>
       </c>
       <c r="M63" t="n">
-        <v>0.0587236314723949</v>
+        <v>0.00275283938928664</v>
       </c>
     </row>
     <row r="64">
@@ -3013,40 +3028,40 @@
         <v>75</v>
       </c>
       <c r="B64" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0913610868431327</v>
+        <v>0.093425778470675</v>
       </c>
       <c r="D64" t="n">
-        <v>0.65774328150071</v>
+        <v>0.771734277390245</v>
       </c>
       <c r="E64" t="n">
-        <v>0.0576847555534672</v>
+        <v>3.12228664892467E-4</v>
       </c>
       <c r="F64" t="n">
-        <v>2.09635972021317E-5</v>
+        <v>8.92803848237997E-6</v>
       </c>
       <c r="G64" t="n">
-        <v>3.58442505265E-4</v>
+        <v>0.230177085085877</v>
       </c>
       <c r="H64" t="n">
-        <v>0.0737196519516143</v>
+        <v>5.14960858164186E-5</v>
       </c>
       <c r="I64" t="n">
-        <v>0.00184229330425544</v>
+        <v>7.73078760219036E-6</v>
       </c>
       <c r="J64" t="n">
-        <v>0.010795464071578</v>
+        <v>1.21038829901025E-5</v>
       </c>
       <c r="K64" t="n">
-        <v>3.57377931782696E-6</v>
+        <v>2.11177955283314E-6</v>
       </c>
       <c r="L64" t="n">
-        <v>0.00199857754700772</v>
+        <v>0.00104784968347662</v>
       </c>
       <c r="M64" t="n">
-        <v>0.0908253457028837</v>
+        <v>0.00401616424407034</v>
       </c>
     </row>
     <row r="65">
@@ -3057,37 +3072,37 @@
         <v>4</v>
       </c>
       <c r="C65" t="n">
-        <v>0.133977600474138</v>
+        <v>0.0218912088248391</v>
       </c>
       <c r="D65" t="n">
-        <v>0.762289335398081</v>
+        <v>0.735793180496749</v>
       </c>
       <c r="E65" t="n">
-        <v>0.149169669848709</v>
+        <v>0.20448959480198</v>
       </c>
       <c r="F65" t="n">
-        <v>1.69292317206422E-7</v>
+        <v>2.0837680458386E-6</v>
       </c>
       <c r="G65" t="n">
-        <v>3.17087227364528E-5</v>
+        <v>6.44213003312815E-4</v>
       </c>
       <c r="H65" t="n">
-        <v>0.0213107640340521</v>
+        <v>2.32206662643508E-6</v>
       </c>
       <c r="I65" t="n">
-        <v>2.4612014096793E-4</v>
+        <v>1.68541036157285E-5</v>
       </c>
       <c r="J65" t="n">
-        <v>3.369852345823E-5</v>
+        <v>2.79744536779987E-5</v>
       </c>
       <c r="K65" t="n">
-        <v>1.06323748924437E-5</v>
+        <v>4.04950435338894E-6</v>
       </c>
       <c r="L65" t="n">
-        <v>3.40287218318058E-4</v>
+        <v>1.73293577507539E-4</v>
       </c>
       <c r="M65" t="n">
-        <v>0.0692411034362956</v>
+        <v>0.0315263177177226</v>
       </c>
     </row>
     <row r="66">
@@ -3098,37 +3113,37 @@
         <v>4</v>
       </c>
       <c r="C66" t="n">
-        <v>0.122360417810848</v>
+        <v>0.0976009903374781</v>
       </c>
       <c r="D66" t="n">
-        <v>0.734033817471539</v>
+        <v>0.181726078142662</v>
       </c>
       <c r="E66" t="n">
-        <v>0.149828105331425</v>
+        <v>0.507320549090627</v>
       </c>
       <c r="F66" t="n">
-        <v>9.62954948184397E-6</v>
+        <v>3.04615858534072E-4</v>
       </c>
       <c r="G66" t="n">
-        <v>4.24065503699888E-7</v>
+        <v>0.0337068878325066</v>
       </c>
       <c r="H66" t="n">
-        <v>1.45286874504469E-4</v>
+        <v>0.00384012930308166</v>
       </c>
       <c r="I66" t="n">
-        <v>0.00193214592354254</v>
+        <v>1.54598039308787E-5</v>
       </c>
       <c r="J66" t="n">
-        <v>2.16807262687737E-5</v>
+        <v>0.034398205109086</v>
       </c>
       <c r="K66" t="n">
-        <v>1.46244161487315E-8</v>
+        <v>0.00230766098512784</v>
       </c>
       <c r="L66" t="n">
-        <v>1.78533239688348E-8</v>
+        <v>0.00248658666388832</v>
       </c>
       <c r="M66" t="n">
-        <v>0.0291910478368175</v>
+        <v>0.0312964621314262</v>
       </c>
     </row>
     <row r="67">
@@ -3139,37 +3154,37 @@
         <v>4</v>
       </c>
       <c r="C67" t="n">
-        <v>0.104820003325479</v>
+        <v>0.063597567669791</v>
       </c>
       <c r="D67" t="n">
-        <v>0.470762482324013</v>
+        <v>0.683171197629097</v>
       </c>
       <c r="E67" t="n">
-        <v>0.25422700104062</v>
+        <v>0.319152497871985</v>
       </c>
       <c r="F67" t="n">
-        <v>2.52398481816545E-4</v>
+        <v>3.59015241060972E-7</v>
       </c>
       <c r="G67" t="n">
-        <v>0.00684992087427017</v>
+        <v>0.00337276827416258</v>
       </c>
       <c r="H67" t="n">
-        <v>0.00371667538651763</v>
+        <v>0.0319493423892283</v>
       </c>
       <c r="I67" t="n">
-        <v>2.65809771625488E-4</v>
+        <v>4.52660452539029E-8</v>
       </c>
       <c r="J67" t="n">
-        <v>0.0300862550447506</v>
+        <v>0.0108928512032446</v>
       </c>
       <c r="K67" t="n">
-        <v>1.833489193757E-4</v>
+        <v>3.04209817194612E-4</v>
       </c>
       <c r="L67" t="n">
-        <v>4.33745116598082E-6</v>
+        <v>8.29619445544808E-5</v>
       </c>
       <c r="M67" t="n">
-        <v>0.182735547021226</v>
+        <v>0.0279743579335484</v>
       </c>
     </row>
     <row r="68">
@@ -3221,37 +3236,37 @@
         <v>4</v>
       </c>
       <c r="C69" t="n">
-        <v>0.063597567669791</v>
+        <v>0.104820003325479</v>
       </c>
       <c r="D69" t="n">
-        <v>0.683171197629097</v>
+        <v>0.470762482324013</v>
       </c>
       <c r="E69" t="n">
-        <v>0.319152497871985</v>
+        <v>0.25422700104062</v>
       </c>
       <c r="F69" t="n">
-        <v>3.59015241060972E-7</v>
+        <v>2.52398481816545E-4</v>
       </c>
       <c r="G69" t="n">
-        <v>0.00337276827416258</v>
+        <v>0.00684992087427017</v>
       </c>
       <c r="H69" t="n">
-        <v>0.0319493423892283</v>
+        <v>0.00371667538651763</v>
       </c>
       <c r="I69" t="n">
-        <v>4.52660452539029E-8</v>
+        <v>2.65809771625488E-4</v>
       </c>
       <c r="J69" t="n">
-        <v>0.0108928512032446</v>
+        <v>0.0300862550447506</v>
       </c>
       <c r="K69" t="n">
-        <v>3.04209817194612E-4</v>
+        <v>1.833489193757E-4</v>
       </c>
       <c r="L69" t="n">
-        <v>8.29619445544808E-5</v>
+        <v>4.33745116598082E-6</v>
       </c>
       <c r="M69" t="n">
-        <v>0.0279743579335484</v>
+        <v>0.182735547021226</v>
       </c>
     </row>
     <row r="70">
@@ -3262,37 +3277,37 @@
         <v>4</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0674096113230841</v>
+        <v>0.122360417810848</v>
       </c>
       <c r="D70" t="n">
-        <v>0.964245874580068</v>
+        <v>0.734033817471539</v>
       </c>
       <c r="E70" t="n">
-        <v>0.0182099604557236</v>
+        <v>0.149828105331425</v>
       </c>
       <c r="F70" t="n">
-        <v>1.89301082254627E-7</v>
+        <v>9.62954948184397E-6</v>
       </c>
       <c r="G70" t="n">
-        <v>6.30677283979045E-7</v>
+        <v>4.24065503699888E-7</v>
       </c>
       <c r="H70" t="n">
-        <v>0.00464038653591642</v>
+        <v>1.45286874504469E-4</v>
       </c>
       <c r="I70" t="n">
-        <v>2.2855597487478E-6</v>
+        <v>0.00193214592354254</v>
       </c>
       <c r="J70" t="n">
-        <v>7.34435196827567E-4</v>
+        <v>2.16807262687737E-5</v>
       </c>
       <c r="K70" t="n">
-        <v>5.17078299007004E-5</v>
+        <v>1.46244161487315E-8</v>
       </c>
       <c r="L70" t="n">
-        <v>1.40285177133624E-5</v>
+        <v>1.78533239688348E-8</v>
       </c>
       <c r="M70" t="n">
-        <v>0.0370768336764644</v>
+        <v>0.0291910478368175</v>
       </c>
     </row>
     <row r="71">
@@ -3303,37 +3318,37 @@
         <v>4</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0671421927918262</v>
+        <v>0.0913610868431327</v>
       </c>
       <c r="D71" t="n">
-        <v>0.849446502478923</v>
+        <v>0.65774328150071</v>
       </c>
       <c r="E71" t="n">
-        <v>0.123668249093984</v>
+        <v>0.0576847555534672</v>
       </c>
       <c r="F71" t="n">
-        <v>4.03894981589316E-5</v>
+        <v>2.09635972021317E-5</v>
       </c>
       <c r="G71" t="n">
-        <v>2.17050769489426E-6</v>
+        <v>3.58442505265E-4</v>
       </c>
       <c r="H71" t="n">
-        <v>2.06344833154701E-4</v>
+        <v>0.0737196519516143</v>
       </c>
       <c r="I71" t="n">
-        <v>3.90097263574026E-6</v>
+        <v>0.00184229330425544</v>
       </c>
       <c r="J71" t="n">
-        <v>0.00277949789754662</v>
+        <v>0.010795464071578</v>
       </c>
       <c r="K71" t="n">
-        <v>0.00129029362058598</v>
+        <v>3.57377931782696E-6</v>
       </c>
       <c r="L71" t="n">
-        <v>1.51537345476281E-4</v>
+        <v>0.00199857754700772</v>
       </c>
       <c r="M71" t="n">
-        <v>0.0469372254483882</v>
+        <v>0.0908253457028837</v>
       </c>
     </row>
     <row r="72">
@@ -3344,37 +3359,37 @@
         <v>4</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0310204059226877</v>
+        <v>0.133977600474138</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0236704239723923</v>
+        <v>0.762289335398081</v>
       </c>
       <c r="E72" t="n">
-        <v>0.385866753669421</v>
+        <v>0.149169669848709</v>
       </c>
       <c r="F72" t="n">
-        <v>4.37214716344491E-6</v>
+        <v>1.69292317206422E-7</v>
       </c>
       <c r="G72" t="n">
-        <v>2.5571098578674E-4</v>
+        <v>3.17087227364528E-5</v>
       </c>
       <c r="H72" t="n">
-        <v>4.62914868977364E-5</v>
+        <v>0.0213107640340521</v>
       </c>
       <c r="I72" t="n">
-        <v>0.0293075281806833</v>
+        <v>2.4612014096793E-4</v>
       </c>
       <c r="J72" t="n">
-        <v>0.312699503390055</v>
+        <v>3.369852345823E-5</v>
       </c>
       <c r="K72" t="n">
-        <v>0.23525132440584</v>
+        <v>1.06323748924437E-5</v>
       </c>
       <c r="L72" t="n">
-        <v>0.00246677697075856</v>
+        <v>3.40287218318058E-4</v>
       </c>
       <c r="M72" t="n">
-        <v>0.0774414536341691</v>
+        <v>0.0692411034362956</v>
       </c>
     </row>
     <row r="73">
@@ -3385,37 +3400,37 @@
         <v>4</v>
       </c>
       <c r="C73" t="n">
-        <v>0.072111768482153</v>
+        <v>0.0657493845330519</v>
       </c>
       <c r="D73" t="n">
-        <v>0.345927207349241</v>
+        <v>0.0615943571481762</v>
       </c>
       <c r="E73" t="n">
-        <v>0.162816296879777</v>
+        <v>0.512077219331177</v>
       </c>
       <c r="F73" t="n">
-        <v>1.3874488983875E-9</v>
+        <v>3.40690834209847E-7</v>
       </c>
       <c r="G73" t="n">
-        <v>1.7063712312299E-5</v>
+        <v>8.52369741908524E-5</v>
       </c>
       <c r="H73" t="n">
-        <v>3.33754618492343E-7</v>
+        <v>0.00501677686300469</v>
       </c>
       <c r="I73" t="n">
-        <v>0.474320738547556</v>
+        <v>6.38519162005219E-5</v>
       </c>
       <c r="J73" t="n">
-        <v>2.73133107480425E-4</v>
+        <v>0.071042290330106</v>
       </c>
       <c r="K73" t="n">
-        <v>7.27797339658384E-5</v>
+        <v>2.19419766073383E-5</v>
       </c>
       <c r="L73" t="n">
-        <v>3.55983361123346E-5</v>
+        <v>0.0542254840116972</v>
       </c>
       <c r="M73" t="n">
-        <v>0.0978855450245713</v>
+        <v>0.242241742569735</v>
       </c>
     </row>
     <row r="74">
@@ -3426,37 +3441,37 @@
         <v>4</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0940674755764696</v>
+        <v>0.0717785758834171</v>
       </c>
       <c r="D74" t="n">
-        <v>0.162382961165555</v>
+        <v>0.868697768845833</v>
       </c>
       <c r="E74" t="n">
-        <v>0.245781048312687</v>
+        <v>0.0439659878089505</v>
       </c>
       <c r="F74" t="n">
-        <v>3.50437275554699E-7</v>
+        <v>3.17930156894628E-6</v>
       </c>
       <c r="G74" t="n">
-        <v>1.38388358517744E-5</v>
+        <v>1.21867919363476E-6</v>
       </c>
       <c r="H74" t="n">
-        <v>1.02349198270126E-5</v>
+        <v>6.370804390452E-6</v>
       </c>
       <c r="I74" t="n">
-        <v>0.0309813105412786</v>
+        <v>5.82707916371877E-6</v>
       </c>
       <c r="J74" t="n">
-        <v>0.00875273036064265</v>
+        <v>7.26681949845353E-6</v>
       </c>
       <c r="K74" t="n">
-        <v>3.71321098427299E-4</v>
+        <v>1.79209663891568E-8</v>
       </c>
       <c r="L74" t="n">
-        <v>2.70843906154201E-6</v>
+        <v>4.56852946447198E-4</v>
       </c>
       <c r="M74" t="n">
-        <v>0.606584533826781</v>
+        <v>0.0587236314723949</v>
       </c>
     </row>
     <row r="75">
@@ -3467,37 +3482,37 @@
         <v>4</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0917650600692849</v>
+        <v>0.0931921051530629</v>
       </c>
       <c r="D75" t="n">
-        <v>0.153372017929747</v>
+        <v>0.714979036234001</v>
       </c>
       <c r="E75" t="n">
-        <v>0.155917334603191</v>
+        <v>0.108358330431796</v>
       </c>
       <c r="F75" t="n">
-        <v>4.44279178859107E-7</v>
+        <v>1.31508455181521E-6</v>
       </c>
       <c r="G75" t="n">
-        <v>4.89643048871073E-5</v>
+        <v>1.75442505366199E-7</v>
       </c>
       <c r="H75" t="n">
-        <v>3.18066219832759E-8</v>
+        <v>3.29518580565454E-6</v>
       </c>
       <c r="I75" t="n">
-        <v>0.00484700535731028</v>
+        <v>3.15538840009226E-4</v>
       </c>
       <c r="J75" t="n">
-        <v>5.07428923401509E-5</v>
+        <v>1.78936176373167E-5</v>
       </c>
       <c r="K75" t="n">
-        <v>0.373071863684905</v>
+        <v>7.88383932944052E-6</v>
       </c>
       <c r="L75" t="n">
-        <v>2.56455340312648E-7</v>
+        <v>3.96714510671806E-5</v>
       </c>
       <c r="M75" t="n">
-        <v>0.24368075106019</v>
+        <v>0.137639406107927</v>
       </c>
     </row>
     <row r="76">
@@ -3508,37 +3523,37 @@
         <v>4</v>
       </c>
       <c r="C76" t="n">
-        <v>0.178376622065848</v>
+        <v>0.0792075473994062</v>
       </c>
       <c r="D76" t="n">
-        <v>0.310617238091455</v>
+        <v>0.63420748675253</v>
       </c>
       <c r="E76" t="n">
-        <v>0.0760918274098372</v>
+        <v>0.100820486348257</v>
       </c>
       <c r="F76" t="n">
-        <v>7.01139898964777E-7</v>
+        <v>3.78704178571634E-4</v>
       </c>
       <c r="G76" t="n">
-        <v>3.32604316117927E-7</v>
+        <v>3.46526490303689E-6</v>
       </c>
       <c r="H76" t="n">
-        <v>5.68418710113648E-9</v>
+        <v>0.00138639679792348</v>
       </c>
       <c r="I76" t="n">
-        <v>0.0184566260970741</v>
+        <v>0.0172422281864916</v>
       </c>
       <c r="J76" t="n">
-        <v>5.67045107130529E-7</v>
+        <v>8.04339335812536E-4</v>
       </c>
       <c r="K76" t="n">
-        <v>0.436215735206251</v>
+        <v>0.00209832243060128</v>
       </c>
       <c r="L76" t="n">
-        <v>3.38072141481269E-8</v>
+        <v>0.00160481895202862</v>
       </c>
       <c r="M76" t="n">
-        <v>0.00437695515946328</v>
+        <v>0.180522888819895</v>
       </c>
     </row>
     <row r="77">
@@ -3549,37 +3564,37 @@
         <v>4</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0824513510974496</v>
+        <v>0.0852418330367577</v>
       </c>
       <c r="D77" t="n">
-        <v>0.186448404104954</v>
+        <v>0.133967062621022</v>
       </c>
       <c r="E77" t="n">
-        <v>0.292654796302955</v>
+        <v>0.312078816249856</v>
       </c>
       <c r="F77" t="n">
-        <v>6.14655023786673E-6</v>
+        <v>7.7342239655655E-5</v>
       </c>
       <c r="G77" t="n">
-        <v>1.15715148286292E-5</v>
+        <v>1.14262443830221E-6</v>
       </c>
       <c r="H77" t="n">
-        <v>2.91200273909132E-8</v>
+        <v>6.54466548563369E-4</v>
       </c>
       <c r="I77" t="n">
-        <v>0.0317135212068526</v>
+        <v>0.0650136011629605</v>
       </c>
       <c r="J77" t="n">
-        <v>4.55069526646316E-7</v>
+        <v>3.82430320703728E-6</v>
       </c>
       <c r="K77" t="n">
-        <v>0.155399020294881</v>
+        <v>0.00392152594624878</v>
       </c>
       <c r="L77" t="n">
-        <v>1.7654683526289E-6</v>
+        <v>2.2143812632008E-5</v>
       </c>
       <c r="M77" t="n">
-        <v>0.260597286165988</v>
+        <v>0.45400331137852</v>
       </c>
     </row>
     <row r="78">
@@ -3590,37 +3605,37 @@
         <v>4</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0852418330367577</v>
+        <v>0.165892992127079</v>
       </c>
       <c r="D78" t="n">
-        <v>0.133967062621022</v>
+        <v>0.00111023737390921</v>
       </c>
       <c r="E78" t="n">
-        <v>0.312078816249856</v>
+        <v>0.0766850096697362</v>
       </c>
       <c r="F78" t="n">
-        <v>7.7342239655655E-5</v>
+        <v>2.7154971535446E-7</v>
       </c>
       <c r="G78" t="n">
-        <v>1.14262443830221E-6</v>
+        <v>6.67116073500401E-7</v>
       </c>
       <c r="H78" t="n">
-        <v>6.54466548563369E-4</v>
+        <v>7.72093728722577E-9</v>
       </c>
       <c r="I78" t="n">
-        <v>0.0650136011629605</v>
+        <v>0.0180626997228922</v>
       </c>
       <c r="J78" t="n">
-        <v>3.82430320703728E-6</v>
+        <v>1.82081421676341E-5</v>
       </c>
       <c r="K78" t="n">
-        <v>0.00392152594624878</v>
+        <v>0.598914589096863</v>
       </c>
       <c r="L78" t="n">
-        <v>2.2143812632008E-5</v>
+        <v>4.33125291079932E-4</v>
       </c>
       <c r="M78" t="n">
-        <v>0.45400331137852</v>
+        <v>0.329999538333165</v>
       </c>
     </row>
     <row r="79">
@@ -3631,37 +3646,37 @@
         <v>4</v>
       </c>
       <c r="C79" t="n">
-        <v>0.0792075473994062</v>
+        <v>0.288124955698627</v>
       </c>
       <c r="D79" t="n">
-        <v>0.63420748675253</v>
+        <v>0.00445175673048274</v>
       </c>
       <c r="E79" t="n">
-        <v>0.100820486348257</v>
+        <v>0.0665601665832476</v>
       </c>
       <c r="F79" t="n">
-        <v>3.78704178571634E-4</v>
+        <v>9.57008398610262E-7</v>
       </c>
       <c r="G79" t="n">
-        <v>3.46526490303689E-6</v>
+        <v>5.50406859126051E-6</v>
       </c>
       <c r="H79" t="n">
-        <v>0.00138639679792348</v>
+        <v>3.78040799367245E-6</v>
       </c>
       <c r="I79" t="n">
-        <v>0.0172422281864916</v>
+        <v>2.36862456630737E-4</v>
       </c>
       <c r="J79" t="n">
-        <v>8.04339335812536E-4</v>
+        <v>1.5138606651304E-4</v>
       </c>
       <c r="K79" t="n">
-        <v>0.00209832243060128</v>
+        <v>0.915545404338603</v>
       </c>
       <c r="L79" t="n">
-        <v>0.00160481895202862</v>
+        <v>6.04875416855363E-4</v>
       </c>
       <c r="M79" t="n">
-        <v>0.180522888819895</v>
+        <v>0.00769753231566842</v>
       </c>
     </row>
     <row r="80">
@@ -3672,37 +3687,37 @@
         <v>4</v>
       </c>
       <c r="C80" t="n">
-        <v>0.0931921051530629</v>
+        <v>0.0762136349047768</v>
       </c>
       <c r="D80" t="n">
-        <v>0.714979036234001</v>
+        <v>0.688763226509129</v>
       </c>
       <c r="E80" t="n">
-        <v>0.108358330431796</v>
+        <v>0.256419961147522</v>
       </c>
       <c r="F80" t="n">
-        <v>1.31508455181521E-6</v>
+        <v>1.55108181742882E-7</v>
       </c>
       <c r="G80" t="n">
-        <v>1.75442505366199E-7</v>
+        <v>8.22131744867167E-6</v>
       </c>
       <c r="H80" t="n">
-        <v>3.29518580565454E-6</v>
+        <v>1.0981544450338E-5</v>
       </c>
       <c r="I80" t="n">
-        <v>3.15538840009226E-4</v>
+        <v>1.61597022245384E-4</v>
       </c>
       <c r="J80" t="n">
-        <v>1.78936176373167E-5</v>
+        <v>9.01228595748131E-5</v>
       </c>
       <c r="K80" t="n">
-        <v>7.88383932944052E-6</v>
+        <v>0.0628560092620592</v>
       </c>
       <c r="L80" t="n">
-        <v>3.96714510671806E-5</v>
+        <v>0.0234354164856752</v>
       </c>
       <c r="M80" t="n">
-        <v>0.137639406107927</v>
+        <v>0.0141316527423137</v>
       </c>
     </row>
     <row r="81">
@@ -3713,37 +3728,37 @@
         <v>4</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0762136349047768</v>
+        <v>0.21617649901774</v>
       </c>
       <c r="D81" t="n">
-        <v>0.688763226509129</v>
+        <v>0.0129623722719702</v>
       </c>
       <c r="E81" t="n">
-        <v>0.256419961147522</v>
+        <v>0.0852067991346747</v>
       </c>
       <c r="F81" t="n">
-        <v>1.55108181742882E-7</v>
+        <v>4.75439425876684E-7</v>
       </c>
       <c r="G81" t="n">
-        <v>8.22131744867167E-6</v>
+        <v>7.10858861525021E-6</v>
       </c>
       <c r="H81" t="n">
-        <v>1.0981544450338E-5</v>
+        <v>0.00906006066832456</v>
       </c>
       <c r="I81" t="n">
-        <v>1.61597022245384E-4</v>
+        <v>6.33076288734664E-5</v>
       </c>
       <c r="J81" t="n">
-        <v>9.01228595748131E-5</v>
+        <v>0.0114280032263007</v>
       </c>
       <c r="K81" t="n">
-        <v>0.0628560092620592</v>
+        <v>0.696217689386959</v>
       </c>
       <c r="L81" t="n">
-        <v>0.0234354164856752</v>
+        <v>0.0343616255521415</v>
       </c>
       <c r="M81" t="n">
-        <v>0.0141316527423137</v>
+        <v>0.147601022641274</v>
       </c>
     </row>
     <row r="82">
@@ -3754,37 +3769,37 @@
         <v>4</v>
       </c>
       <c r="C82" t="n">
-        <v>0.288124955698627</v>
+        <v>0.129904203370781</v>
       </c>
       <c r="D82" t="n">
-        <v>0.00445175673048274</v>
+        <v>0.26383460845881</v>
       </c>
       <c r="E82" t="n">
-        <v>0.0665601665832476</v>
+        <v>0.148601428388196</v>
       </c>
       <c r="F82" t="n">
-        <v>9.57008398610262E-7</v>
+        <v>1.78597361758099E-6</v>
       </c>
       <c r="G82" t="n">
-        <v>5.50406859126051E-6</v>
+        <v>1.27924976629265E-5</v>
       </c>
       <c r="H82" t="n">
-        <v>3.78040799367245E-6</v>
+        <v>7.3588680024969E-5</v>
       </c>
       <c r="I82" t="n">
-        <v>2.36862456630737E-4</v>
+        <v>4.61268992942657E-5</v>
       </c>
       <c r="J82" t="n">
-        <v>1.5138606651304E-4</v>
+        <v>2.46449025380323E-4</v>
       </c>
       <c r="K82" t="n">
-        <v>0.915545404338603</v>
+        <v>0.508463711463225</v>
       </c>
       <c r="L82" t="n">
-        <v>6.04875416855363E-4</v>
+        <v>1.86638461805646E-4</v>
       </c>
       <c r="M82" t="n">
-        <v>0.00769753231566842</v>
+        <v>0.0145472615873596</v>
       </c>
     </row>
     <row r="83">
@@ -3795,37 +3810,37 @@
         <v>4</v>
       </c>
       <c r="C83" t="n">
-        <v>0.165892992127079</v>
+        <v>0.198807057782646</v>
       </c>
       <c r="D83" t="n">
-        <v>0.00111023737390921</v>
+        <v>0.342313960638937</v>
       </c>
       <c r="E83" t="n">
-        <v>0.0766850096697362</v>
+        <v>0.101479867700375</v>
       </c>
       <c r="F83" t="n">
-        <v>2.7154971535446E-7</v>
+        <v>4.46545702262329E-6</v>
       </c>
       <c r="G83" t="n">
-        <v>6.67116073500401E-7</v>
+        <v>7.20213088113138E-6</v>
       </c>
       <c r="H83" t="n">
-        <v>7.72093728722577E-9</v>
+        <v>3.07074786154806E-5</v>
       </c>
       <c r="I83" t="n">
-        <v>0.0180626997228922</v>
+        <v>4.70982481466962E-4</v>
       </c>
       <c r="J83" t="n">
-        <v>1.82081421676341E-5</v>
+        <v>0.00298077182093746</v>
       </c>
       <c r="K83" t="n">
-        <v>0.598914589096863</v>
+        <v>0.417346979620461</v>
       </c>
       <c r="L83" t="n">
-        <v>4.33125291079932E-4</v>
+        <v>3.44926483135249E-4</v>
       </c>
       <c r="M83" t="n">
-        <v>0.329999538333165</v>
+        <v>0.0125334626619434</v>
       </c>
     </row>
     <row r="84">
@@ -3877,37 +3892,37 @@
         <v>4</v>
       </c>
       <c r="C85" t="n">
-        <v>0.198807057782646</v>
+        <v>0.0917650600692849</v>
       </c>
       <c r="D85" t="n">
-        <v>0.342313960638937</v>
+        <v>0.153372017929747</v>
       </c>
       <c r="E85" t="n">
-        <v>0.101479867700375</v>
+        <v>0.155917334603191</v>
       </c>
       <c r="F85" t="n">
-        <v>4.46545702262329E-6</v>
+        <v>4.44279178859107E-7</v>
       </c>
       <c r="G85" t="n">
-        <v>7.20213088113138E-6</v>
+        <v>4.89643048871073E-5</v>
       </c>
       <c r="H85" t="n">
-        <v>3.07074786154806E-5</v>
+        <v>3.18066219832759E-8</v>
       </c>
       <c r="I85" t="n">
-        <v>4.70982481466962E-4</v>
+        <v>0.00484700535731028</v>
       </c>
       <c r="J85" t="n">
-        <v>0.00298077182093746</v>
+        <v>5.07428923401509E-5</v>
       </c>
       <c r="K85" t="n">
-        <v>0.417346979620461</v>
+        <v>0.373071863684905</v>
       </c>
       <c r="L85" t="n">
-        <v>3.44926483135249E-4</v>
+        <v>2.56455340312648E-7</v>
       </c>
       <c r="M85" t="n">
-        <v>0.0125334626619434</v>
+        <v>0.24368075106019</v>
       </c>
     </row>
     <row r="86">
@@ -3918,37 +3933,37 @@
         <v>4</v>
       </c>
       <c r="C86" t="n">
-        <v>0.21617649901774</v>
+        <v>0.178376622065848</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0129623722719702</v>
+        <v>0.310617238091455</v>
       </c>
       <c r="E86" t="n">
-        <v>0.0852067991346747</v>
+        <v>0.0760918274098372</v>
       </c>
       <c r="F86" t="n">
-        <v>4.75439425876684E-7</v>
+        <v>7.01139898964777E-7</v>
       </c>
       <c r="G86" t="n">
-        <v>7.10858861525021E-6</v>
+        <v>3.32604316117927E-7</v>
       </c>
       <c r="H86" t="n">
-        <v>0.00906006066832456</v>
+        <v>5.68418710113648E-9</v>
       </c>
       <c r="I86" t="n">
-        <v>6.33076288734664E-5</v>
+        <v>0.0184566260970741</v>
       </c>
       <c r="J86" t="n">
-        <v>0.0114280032263007</v>
+        <v>5.67045107130529E-7</v>
       </c>
       <c r="K86" t="n">
-        <v>0.696217689386959</v>
+        <v>0.436215735206251</v>
       </c>
       <c r="L86" t="n">
-        <v>0.0343616255521415</v>
+        <v>3.38072141481269E-8</v>
       </c>
       <c r="M86" t="n">
-        <v>0.147601022641274</v>
+        <v>0.00437695515946328</v>
       </c>
     </row>
     <row r="87">
@@ -3959,37 +3974,37 @@
         <v>4</v>
       </c>
       <c r="C87" t="n">
-        <v>0.129904203370781</v>
+        <v>0.0824513510974496</v>
       </c>
       <c r="D87" t="n">
-        <v>0.26383460845881</v>
+        <v>0.186448404104954</v>
       </c>
       <c r="E87" t="n">
-        <v>0.148601428388196</v>
+        <v>0.292654796302955</v>
       </c>
       <c r="F87" t="n">
-        <v>1.78597361758099E-6</v>
+        <v>6.14655023786673E-6</v>
       </c>
       <c r="G87" t="n">
-        <v>1.27924976629265E-5</v>
+        <v>1.15715148286292E-5</v>
       </c>
       <c r="H87" t="n">
-        <v>7.3588680024969E-5</v>
+        <v>2.91200273909132E-8</v>
       </c>
       <c r="I87" t="n">
-        <v>4.61268992942657E-5</v>
+        <v>0.0317135212068526</v>
       </c>
       <c r="J87" t="n">
-        <v>2.46449025380323E-4</v>
+        <v>4.55069526646316E-7</v>
       </c>
       <c r="K87" t="n">
-        <v>0.508463711463225</v>
+        <v>0.155399020294881</v>
       </c>
       <c r="L87" t="n">
-        <v>1.86638461805646E-4</v>
+        <v>1.7654683526289E-6</v>
       </c>
       <c r="M87" t="n">
-        <v>0.0145472615873596</v>
+        <v>0.260597286165988</v>
       </c>
     </row>
     <row r="88">
@@ -4000,37 +4015,37 @@
         <v>4</v>
       </c>
       <c r="C88" t="n">
-        <v>0.238989787971378</v>
+        <v>0.0940674755764696</v>
       </c>
       <c r="D88" t="n">
-        <v>0.263336305919043</v>
+        <v>0.162382961165555</v>
       </c>
       <c r="E88" t="n">
-        <v>0.0387713409625632</v>
+        <v>0.245781048312687</v>
       </c>
       <c r="F88" t="n">
-        <v>1.75074655370487E-7</v>
+        <v>3.50437275554699E-7</v>
       </c>
       <c r="G88" t="n">
-        <v>4.27075388063682E-14</v>
+        <v>1.38388358517744E-5</v>
       </c>
       <c r="H88" t="n">
-        <v>7.80706871111446E-6</v>
+        <v>1.02349198270126E-5</v>
       </c>
       <c r="I88" t="n">
-        <v>3.48644749318593E-6</v>
+        <v>0.0309813105412786</v>
       </c>
       <c r="J88" t="n">
-        <v>8.79239576501628E-5</v>
+        <v>0.00875273036064265</v>
       </c>
       <c r="K88" t="n">
-        <v>0.589423490790092</v>
+        <v>3.71321098427299E-4</v>
       </c>
       <c r="L88" t="n">
-        <v>2.66839572383308E-7</v>
+        <v>2.70843906154201E-6</v>
       </c>
       <c r="M88" t="n">
-        <v>0.00974152000811173</v>
+        <v>0.606584533826781</v>
       </c>
     </row>
     <row r="89">
@@ -4041,37 +4056,37 @@
         <v>4</v>
       </c>
       <c r="C89" t="n">
-        <v>0.124160042951112</v>
+        <v>0.072111768482153</v>
       </c>
       <c r="D89" t="n">
-        <v>0.565130920493059</v>
+        <v>0.345927207349241</v>
       </c>
       <c r="E89" t="n">
-        <v>0.145666581431455</v>
+        <v>0.162816296879777</v>
       </c>
       <c r="F89" t="n">
-        <v>1.51703731550466E-7</v>
+        <v>1.3874488983875E-9</v>
       </c>
       <c r="G89" t="n">
-        <v>2.46034576716917E-8</v>
+        <v>1.7063712312299E-5</v>
       </c>
       <c r="H89" t="n">
-        <v>0.00154948744279075</v>
+        <v>3.33754618492343E-7</v>
       </c>
       <c r="I89" t="n">
-        <v>3.84092367075615E-5</v>
+        <v>0.474320738547556</v>
       </c>
       <c r="J89" t="n">
-        <v>1.85658715537783E-5</v>
+        <v>2.73133107480425E-4</v>
       </c>
       <c r="K89" t="n">
-        <v>0.153351978124941</v>
+        <v>7.27797339658384E-5</v>
       </c>
       <c r="L89" t="n">
-        <v>2.03843498743829E-6</v>
+        <v>3.55983361123346E-5</v>
       </c>
       <c r="M89" t="n">
-        <v>0.00134521864223248</v>
+        <v>0.0978855450245713</v>
       </c>
     </row>
     <row r="90">
@@ -4082,37 +4097,37 @@
         <v>4</v>
       </c>
       <c r="C90" t="n">
-        <v>0.127091025508264</v>
+        <v>0.0310204059226877</v>
       </c>
       <c r="D90" t="n">
-        <v>0.255832058252138</v>
+        <v>0.0236704239723923</v>
       </c>
       <c r="E90" t="n">
-        <v>0.211910497903433</v>
+        <v>0.385866753669421</v>
       </c>
       <c r="F90" t="n">
-        <v>1.18823488213071E-5</v>
+        <v>4.37214716344491E-6</v>
       </c>
       <c r="G90" t="n">
-        <v>6.76885297133828E-6</v>
+        <v>2.5571098578674E-4</v>
       </c>
       <c r="H90" t="n">
-        <v>0.379988144797316</v>
+        <v>4.62914868977364E-5</v>
       </c>
       <c r="I90" t="n">
-        <v>4.62556661093328E-5</v>
+        <v>0.0293075281806833</v>
       </c>
       <c r="J90" t="n">
-        <v>0.0208491789398027</v>
+        <v>0.312699503390055</v>
       </c>
       <c r="K90" t="n">
-        <v>0.0351484325096609</v>
+        <v>0.23525132440584</v>
       </c>
       <c r="L90" t="n">
-        <v>1.40726340670566E-4</v>
+        <v>0.00246677697075856</v>
       </c>
       <c r="M90" t="n">
-        <v>6.29148918734108E-4</v>
+        <v>0.0774414536341691</v>
       </c>
     </row>
     <row r="91">
@@ -4123,37 +4138,37 @@
         <v>4</v>
       </c>
       <c r="C91" t="n">
-        <v>0.0714321439593577</v>
+        <v>0.0671421927918262</v>
       </c>
       <c r="D91" t="n">
-        <v>0.199569904867747</v>
+        <v>0.849446502478923</v>
       </c>
       <c r="E91" t="n">
-        <v>0.377781578574143</v>
+        <v>0.123668249093984</v>
       </c>
       <c r="F91" t="n">
-        <v>7.40465263524217E-5</v>
+        <v>4.03894981589316E-5</v>
       </c>
       <c r="G91" t="n">
-        <v>6.27396031851259E-5</v>
+        <v>2.17050769489426E-6</v>
       </c>
       <c r="H91" t="n">
-        <v>0.329937866088229</v>
+        <v>2.06344833154701E-4</v>
       </c>
       <c r="I91" t="n">
-        <v>0.00151868995199035</v>
+        <v>3.90097263574026E-6</v>
       </c>
       <c r="J91" t="n">
-        <v>7.55485053308467E-7</v>
+        <v>0.00277949789754662</v>
       </c>
       <c r="K91" t="n">
-        <v>3.59307335481837E-4</v>
+        <v>0.00129029362058598</v>
       </c>
       <c r="L91" t="n">
-        <v>3.48401806239316E-5</v>
+        <v>1.51537345476281E-4</v>
       </c>
       <c r="M91" t="n">
-        <v>0.0985415847161659</v>
+        <v>0.0469372254483882</v>
       </c>
     </row>
     <row r="92">
@@ -4164,37 +4179,37 @@
         <v>4</v>
       </c>
       <c r="C92" t="n">
-        <v>0.0247972116036577</v>
+        <v>0.0674096113230841</v>
       </c>
       <c r="D92" t="n">
-        <v>0.482067969441823</v>
+        <v>0.964245874580068</v>
       </c>
       <c r="E92" t="n">
-        <v>0.255303412882902</v>
+        <v>0.0182099604557236</v>
       </c>
       <c r="F92" t="n">
-        <v>4.63243472558238E-5</v>
+        <v>1.89301082254627E-7</v>
       </c>
       <c r="G92" t="n">
-        <v>5.14510881825316E-7</v>
+        <v>6.30677283979045E-7</v>
       </c>
       <c r="H92" t="n">
-        <v>0.00301330846616089</v>
+        <v>0.00464038653591642</v>
       </c>
       <c r="I92" t="n">
-        <v>1.19152643204831E-4</v>
+        <v>2.2855597487478E-6</v>
       </c>
       <c r="J92" t="n">
-        <v>2.51211878601179E-5</v>
+        <v>7.34435196827567E-4</v>
       </c>
       <c r="K92" t="n">
-        <v>0.00156462655977031</v>
+        <v>5.17078299007004E-5</v>
       </c>
       <c r="L92" t="n">
-        <v>6.06715176328054E-4</v>
+        <v>1.40285177133624E-5</v>
       </c>
       <c r="M92" t="n">
-        <v>0.235469051281475</v>
+        <v>0.0370768336764644</v>
       </c>
     </row>
     <row r="93">
@@ -4205,37 +4220,37 @@
         <v>4</v>
       </c>
       <c r="C93" t="n">
-        <v>0.102841386131509</v>
+        <v>0.127091025508264</v>
       </c>
       <c r="D93" t="n">
-        <v>0.918146818941441</v>
+        <v>0.255832058252138</v>
       </c>
       <c r="E93" t="n">
-        <v>0.0202649533994255</v>
+        <v>0.211910497903433</v>
       </c>
       <c r="F93" t="n">
-        <v>2.50709835937041E-5</v>
+        <v>1.18823488213071E-5</v>
       </c>
       <c r="G93" t="n">
-        <v>8.2516366039335E-5</v>
+        <v>6.76885297133828E-6</v>
       </c>
       <c r="H93" t="n">
-        <v>0.00606669268566208</v>
+        <v>0.379988144797316</v>
       </c>
       <c r="I93" t="n">
-        <v>1.39850880650086E-6</v>
+        <v>4.62556661093328E-5</v>
       </c>
       <c r="J93" t="n">
-        <v>6.01363602022317E-7</v>
+        <v>0.0208491789398027</v>
       </c>
       <c r="K93" t="n">
-        <v>2.81639157351608E-4</v>
+        <v>0.0351484325096609</v>
       </c>
       <c r="L93" t="n">
-        <v>1.22252211179861E-4</v>
+        <v>1.40726340670566E-4</v>
       </c>
       <c r="M93" t="n">
-        <v>0.00607052389019049</v>
+        <v>6.29148918734108E-4</v>
       </c>
     </row>
     <row r="94">
@@ -4246,37 +4261,37 @@
         <v>4</v>
       </c>
       <c r="C94" t="n">
-        <v>0.1123608739624</v>
+        <v>0.238989787971378</v>
       </c>
       <c r="D94" t="n">
-        <v>0.562684971074335</v>
+        <v>0.263336305919043</v>
       </c>
       <c r="E94" t="n">
-        <v>0.135841723431065</v>
+        <v>0.0387713409625632</v>
       </c>
       <c r="F94" t="n">
-        <v>4.07077522652815E-5</v>
+        <v>1.75074655370487E-7</v>
       </c>
       <c r="G94" t="n">
-        <v>1.4337524779692E-6</v>
+        <v>4.27075388063682E-14</v>
       </c>
       <c r="H94" t="n">
-        <v>0.0182803934385144</v>
+        <v>7.80706871111446E-6</v>
       </c>
       <c r="I94" t="n">
-        <v>3.10408739351154E-6</v>
+        <v>3.48644749318593E-6</v>
       </c>
       <c r="J94" t="n">
-        <v>9.98007370136721E-7</v>
+        <v>8.79239576501628E-5</v>
       </c>
       <c r="K94" t="n">
-        <v>0.133818307758583</v>
+        <v>0.589423490790092</v>
       </c>
       <c r="L94" t="n">
-        <v>0.00741183824553684</v>
+        <v>2.66839572383308E-7</v>
       </c>
       <c r="M94" t="n">
-        <v>0.00247665627735131</v>
+        <v>0.00974152000811173</v>
       </c>
     </row>
     <row r="95">
@@ -4287,37 +4302,37 @@
         <v>4</v>
       </c>
       <c r="C95" t="n">
-        <v>0.269421507193875</v>
+        <v>0.124160042951112</v>
       </c>
       <c r="D95" t="n">
-        <v>0.0236725743246808</v>
+        <v>0.565130920493059</v>
       </c>
       <c r="E95" t="n">
-        <v>0.104532328458597</v>
+        <v>0.145666581431455</v>
       </c>
       <c r="F95" t="n">
-        <v>1.47884710145796E-5</v>
+        <v>1.51703731550466E-7</v>
       </c>
       <c r="G95" t="n">
-        <v>1.20016094777462E-6</v>
+        <v>2.46034576716917E-8</v>
       </c>
       <c r="H95" t="n">
-        <v>6.23340023492997E-4</v>
+        <v>0.00154948744279075</v>
       </c>
       <c r="I95" t="n">
-        <v>3.74728235535857E-7</v>
+        <v>3.84092367075615E-5</v>
       </c>
       <c r="J95" t="n">
-        <v>5.50287334480336E-6</v>
+        <v>1.85658715537783E-5</v>
       </c>
       <c r="K95" t="n">
-        <v>0.890978856373056</v>
+        <v>0.153351978124941</v>
       </c>
       <c r="L95" t="n">
-        <v>0.00386514578422188</v>
+        <v>2.03843498743829E-6</v>
       </c>
       <c r="M95" t="n">
-        <v>0.00978051302888717</v>
+        <v>0.00134521864223248</v>
       </c>
     </row>
     <row r="96">
@@ -4328,37 +4343,37 @@
         <v>4</v>
       </c>
       <c r="C96" t="n">
-        <v>0.239882040520034</v>
+        <v>0.0714321439593577</v>
       </c>
       <c r="D96" t="n">
-        <v>0.0528797031630197</v>
+        <v>0.199569904867747</v>
       </c>
       <c r="E96" t="n">
-        <v>0.0329948698910859</v>
+        <v>0.377781578574143</v>
       </c>
       <c r="F96" t="n">
-        <v>7.6819402415854E-6</v>
+        <v>7.40465263524217E-5</v>
       </c>
       <c r="G96" t="n">
-        <v>3.11643985873445E-6</v>
+        <v>6.27396031851259E-5</v>
       </c>
       <c r="H96" t="n">
-        <v>2.26440212312619E-6</v>
+        <v>0.329937866088229</v>
       </c>
       <c r="I96" t="n">
-        <v>1.1084432748846E-7</v>
+        <v>0.00151868995199035</v>
       </c>
       <c r="J96" t="n">
-        <v>5.83471742480865E-9</v>
+        <v>7.55485053308467E-7</v>
       </c>
       <c r="K96" t="n">
-        <v>0.832473775532672</v>
+        <v>3.59307335481837E-4</v>
       </c>
       <c r="L96" t="n">
-        <v>0.0186748840811248</v>
+        <v>3.48401806239316E-5</v>
       </c>
       <c r="M96" t="n">
-        <v>0.0477183919695543</v>
+        <v>0.0985415847161659</v>
       </c>
     </row>
     <row r="97">
@@ -4369,37 +4384,37 @@
         <v>4</v>
       </c>
       <c r="C97" t="n">
-        <v>0.0885109677918246</v>
+        <v>0.0247972116036577</v>
       </c>
       <c r="D97" t="n">
-        <v>0.163007005969118</v>
+        <v>0.482067969441823</v>
       </c>
       <c r="E97" t="n">
-        <v>0.162759947947909</v>
+        <v>0.255303412882902</v>
       </c>
       <c r="F97" t="n">
-        <v>1.86557105938505E-6</v>
+        <v>4.63243472558238E-5</v>
       </c>
       <c r="G97" t="n">
-        <v>2.16792703666293E-4</v>
+        <v>5.14510881825316E-7</v>
       </c>
       <c r="H97" t="n">
-        <v>1.24862663282543E-5</v>
+        <v>0.00301330846616089</v>
       </c>
       <c r="I97" t="n">
-        <v>1.97729125528318E-7</v>
+        <v>1.19152643204831E-4</v>
       </c>
       <c r="J97" t="n">
-        <v>1.24379059008945E-6</v>
+        <v>2.51211878601179E-5</v>
       </c>
       <c r="K97" t="n">
-        <v>4.50188096791126E-4</v>
+        <v>0.00156462655977031</v>
       </c>
       <c r="L97" t="n">
-        <v>1.48512154893196E-5</v>
+        <v>6.06715176328054E-4</v>
       </c>
       <c r="M97" t="n">
-        <v>0.588365832802713</v>
+        <v>0.235469051281475</v>
       </c>
     </row>
     <row r="98">
@@ -4410,37 +4425,37 @@
         <v>4</v>
       </c>
       <c r="C98" t="n">
-        <v>0.0255586375388769</v>
+        <v>0.102841386131509</v>
       </c>
       <c r="D98" t="n">
-        <v>0.439222184064288</v>
+        <v>0.918146818941441</v>
       </c>
       <c r="E98" t="n">
-        <v>0.427650000164653</v>
+        <v>0.0202649533994255</v>
       </c>
       <c r="F98" t="n">
-        <v>1.84009850638265E-6</v>
+        <v>2.50709835937041E-5</v>
       </c>
       <c r="G98" t="n">
-        <v>0.00196829730670435</v>
+        <v>8.2516366039335E-5</v>
       </c>
       <c r="H98" t="n">
-        <v>1.82760351417799E-5</v>
+        <v>0.00606669268566208</v>
       </c>
       <c r="I98" t="n">
-        <v>1.35455514565369E-5</v>
+        <v>1.39850880650086E-6</v>
       </c>
       <c r="J98" t="n">
-        <v>1.38150378235376E-5</v>
+        <v>6.01363602022317E-7</v>
       </c>
       <c r="K98" t="n">
-        <v>0.00215157723645603</v>
+        <v>2.81639157351608E-4</v>
       </c>
       <c r="L98" t="n">
-        <v>0.00965730107987612</v>
+        <v>1.22252211179861E-4</v>
       </c>
       <c r="M98" t="n">
-        <v>0.0350089307624796</v>
+        <v>0.00607052389019049</v>
       </c>
     </row>
     <row r="99">
@@ -4451,37 +4466,37 @@
         <v>4</v>
       </c>
       <c r="C99" t="n">
-        <v>0.0580475852100544</v>
+        <v>0.1123608739624</v>
       </c>
       <c r="D99" t="n">
-        <v>0.686345647707369</v>
+        <v>0.562684971074335</v>
       </c>
       <c r="E99" t="n">
-        <v>0.143032702927607</v>
+        <v>0.135841723431065</v>
       </c>
       <c r="F99" t="n">
-        <v>7.75372392777242E-11</v>
+        <v>4.07077522652815E-5</v>
       </c>
       <c r="G99" t="n">
-        <v>0.031294343194673</v>
+        <v>1.4337524779692E-6</v>
       </c>
       <c r="H99" t="n">
-        <v>0.00110813023064889</v>
+        <v>0.0182803934385144</v>
       </c>
       <c r="I99" t="n">
-        <v>2.49192399047345E-6</v>
+        <v>3.10408739351154E-6</v>
       </c>
       <c r="J99" t="n">
-        <v>1.40786993992587E-7</v>
+        <v>9.98007370136721E-7</v>
       </c>
       <c r="K99" t="n">
-        <v>0.0416683517150293</v>
+        <v>0.133818307758583</v>
       </c>
       <c r="L99" t="n">
-        <v>3.05119624793593E-4</v>
+        <v>0.00741183824553684</v>
       </c>
       <c r="M99" t="n">
-        <v>0.022544446077308</v>
+        <v>0.00247665627735131</v>
       </c>
     </row>
     <row r="100">
@@ -4492,37 +4507,37 @@
         <v>4</v>
       </c>
       <c r="C100" t="n">
-        <v>0.429256321445234</v>
+        <v>0.269421507193875</v>
       </c>
       <c r="D100" t="n">
-        <v>0.0231973275446729</v>
+        <v>0.0236725743246808</v>
       </c>
       <c r="E100" t="n">
-        <v>0.0197828825438535</v>
+        <v>0.104532328458597</v>
       </c>
       <c r="F100" t="n">
-        <v>1.24209442897633E-6</v>
+        <v>1.47884710145796E-5</v>
       </c>
       <c r="G100" t="n">
-        <v>0.0091926062264078</v>
+        <v>1.20016094777462E-6</v>
       </c>
       <c r="H100" t="n">
-        <v>3.07807489975995E-4</v>
+        <v>6.23340023492997E-4</v>
       </c>
       <c r="I100" t="n">
-        <v>2.42114431582171E-6</v>
+        <v>3.74728235535857E-7</v>
       </c>
       <c r="J100" t="n">
-        <v>7.24530776015211E-6</v>
+        <v>5.50287334480336E-6</v>
       </c>
       <c r="K100" t="n">
-        <v>0.791264224214339</v>
+        <v>0.890978856373056</v>
       </c>
       <c r="L100" t="n">
-        <v>2.01234313137613E-5</v>
+        <v>0.00386514578422188</v>
       </c>
       <c r="M100" t="n">
-        <v>0.151927026158108</v>
+        <v>0.00978051302888717</v>
       </c>
     </row>
     <row r="101">
@@ -4533,37 +4548,37 @@
         <v>4</v>
       </c>
       <c r="C101" t="n">
-        <v>0.169568257242033</v>
+        <v>0.239882040520034</v>
       </c>
       <c r="D101" t="n">
-        <v>0.0337314599076848</v>
+        <v>0.0528797031630197</v>
       </c>
       <c r="E101" t="n">
-        <v>0.1817051547294</v>
+        <v>0.0329948698910859</v>
       </c>
       <c r="F101" t="n">
-        <v>4.40495985637651E-6</v>
+        <v>7.6819402415854E-6</v>
       </c>
       <c r="G101" t="n">
-        <v>6.30941418466949E-5</v>
+        <v>3.11643985873445E-6</v>
       </c>
       <c r="H101" t="n">
-        <v>0.204011493421193</v>
+        <v>2.26440212312619E-6</v>
       </c>
       <c r="I101" t="n">
-        <v>1.22421657070814E-5</v>
+        <v>1.1084432748846E-7</v>
       </c>
       <c r="J101" t="n">
-        <v>7.83694170106704E-6</v>
+        <v>5.83471742480865E-9</v>
       </c>
       <c r="K101" t="n">
-        <v>0.321725250037715</v>
+        <v>0.832473775532672</v>
       </c>
       <c r="L101" t="n">
-        <v>7.77866864752085E-5</v>
+        <v>0.0186748840811248</v>
       </c>
       <c r="M101" t="n">
-        <v>0.344872399605442</v>
+        <v>0.0477183919695543</v>
       </c>
     </row>
     <row r="102">
@@ -4574,37 +4589,37 @@
         <v>4</v>
       </c>
       <c r="C102" t="n">
-        <v>0.0911509596099482</v>
+        <v>0.0885109677918246</v>
       </c>
       <c r="D102" t="n">
-        <v>0.044774777489213</v>
+        <v>0.163007005969118</v>
       </c>
       <c r="E102" t="n">
-        <v>0.187376830180332</v>
+        <v>0.162759947947909</v>
       </c>
       <c r="F102" t="n">
-        <v>2.23988107429002E-7</v>
+        <v>1.86557105938505E-6</v>
       </c>
       <c r="G102" t="n">
-        <v>5.31442983131006E-6</v>
+        <v>2.16792703666293E-4</v>
       </c>
       <c r="H102" t="n">
-        <v>5.56307557806493E-4</v>
+        <v>1.24862663282543E-5</v>
       </c>
       <c r="I102" t="n">
-        <v>7.46457659926751E-5</v>
+        <v>1.97729125528318E-7</v>
       </c>
       <c r="J102" t="n">
-        <v>7.32171754945443E-7</v>
+        <v>1.24379059008945E-6</v>
       </c>
       <c r="K102" t="n">
-        <v>0.204802012172852</v>
+        <v>4.50188096791126E-4</v>
       </c>
       <c r="L102" t="n">
-        <v>1.03938602927753E-5</v>
+        <v>1.48512154893196E-5</v>
       </c>
       <c r="M102" t="n">
-        <v>0.522221499273339</v>
+        <v>0.588365832802713</v>
       </c>
     </row>
     <row r="103">
@@ -4615,37 +4630,37 @@
         <v>4</v>
       </c>
       <c r="C103" t="n">
-        <v>0.059850219676627</v>
+        <v>0.0255586375388769</v>
       </c>
       <c r="D103" t="n">
-        <v>0.838952144163235</v>
+        <v>0.439222184064288</v>
       </c>
       <c r="E103" t="n">
-        <v>0.0736705010936012</v>
+        <v>0.427650000164653</v>
       </c>
       <c r="F103" t="n">
-        <v>6.15284412295284E-7</v>
+        <v>1.84009850638265E-6</v>
       </c>
       <c r="G103" t="n">
-        <v>3.34351497969024E-6</v>
+        <v>0.00196829730670435</v>
       </c>
       <c r="H103" t="n">
-        <v>2.41940705650711E-5</v>
+        <v>1.82760351417799E-5</v>
       </c>
       <c r="I103" t="n">
-        <v>2.02469985373394E-5</v>
+        <v>1.35455514565369E-5</v>
       </c>
       <c r="J103" t="n">
-        <v>1.57898678886366E-5</v>
+        <v>1.38150378235376E-5</v>
       </c>
       <c r="K103" t="n">
-        <v>0.00534298882714311</v>
+        <v>0.00215157723645603</v>
       </c>
       <c r="L103" t="n">
-        <v>1.90177293135649E-5</v>
+        <v>0.00965730107987612</v>
       </c>
       <c r="M103" t="n">
-        <v>0.122744182961248</v>
+        <v>0.0350089307624796</v>
       </c>
     </row>
     <row r="104">
@@ -4656,37 +4671,37 @@
         <v>4</v>
       </c>
       <c r="C104" t="n">
-        <v>0.043523850409815</v>
+        <v>0.0580475852100544</v>
       </c>
       <c r="D104" t="n">
-        <v>0.203612342708557</v>
+        <v>0.686345647707369</v>
       </c>
       <c r="E104" t="n">
-        <v>0.208111193538208</v>
+        <v>0.143032702927607</v>
       </c>
       <c r="F104" t="n">
-        <v>1.62050653438951E-5</v>
+        <v>7.75372392777242E-11</v>
       </c>
       <c r="G104" t="n">
-        <v>0.00192861246826689</v>
+        <v>0.031294343194673</v>
       </c>
       <c r="H104" t="n">
-        <v>0.00213125052786259</v>
+        <v>0.00110813023064889</v>
       </c>
       <c r="I104" t="n">
-        <v>0.00285376138329922</v>
+        <v>2.49192399047345E-6</v>
       </c>
       <c r="J104" t="n">
-        <v>1.79696634815681E-6</v>
+        <v>1.40786993992587E-7</v>
       </c>
       <c r="K104" t="n">
-        <v>0.0301410782051947</v>
+        <v>0.0416683517150293</v>
       </c>
       <c r="L104" t="n">
-        <v>0.149090991441831</v>
+        <v>3.05119624793593E-4</v>
       </c>
       <c r="M104" t="n">
-        <v>0.351141547828691</v>
+        <v>0.022544446077308</v>
       </c>
     </row>
     <row r="105">
@@ -4697,37 +4712,37 @@
         <v>4</v>
       </c>
       <c r="C105" t="n">
-        <v>0.114552642419583</v>
+        <v>0.429256321445234</v>
       </c>
       <c r="D105" t="n">
-        <v>0.00392921905847888</v>
+        <v>0.0231973275446729</v>
       </c>
       <c r="E105" t="n">
-        <v>0.134332121111704</v>
+        <v>0.0197828825438535</v>
       </c>
       <c r="F105" t="n">
-        <v>1.7180142178831E-6</v>
+        <v>1.24209442897633E-6</v>
       </c>
       <c r="G105" t="n">
-        <v>1.91738018082286E-5</v>
+        <v>0.0091926062264078</v>
       </c>
       <c r="H105" t="n">
-        <v>8.18094768805895E-4</v>
+        <v>3.07807489975995E-4</v>
       </c>
       <c r="I105" t="n">
-        <v>4.18656892931109E-5</v>
+        <v>2.42114431582171E-6</v>
       </c>
       <c r="J105" t="n">
-        <v>6.01060966102871E-6</v>
+        <v>7.24530776015211E-6</v>
       </c>
       <c r="K105" t="n">
-        <v>0.550067073839111</v>
+        <v>0.791264224214339</v>
       </c>
       <c r="L105" t="n">
-        <v>0.0178109165472678</v>
+        <v>2.01234313137613E-5</v>
       </c>
       <c r="M105" t="n">
-        <v>0.322253778938716</v>
+        <v>0.151927026158108</v>
       </c>
     </row>
     <row r="106">
@@ -4738,37 +4753,37 @@
         <v>4</v>
       </c>
       <c r="C106" t="n">
-        <v>0.151584702602353</v>
+        <v>0.169568257242033</v>
       </c>
       <c r="D106" t="n">
-        <v>0.2409360062526</v>
+        <v>0.0337314599076848</v>
       </c>
       <c r="E106" t="n">
-        <v>0.147679140215956</v>
+        <v>0.1817051547294</v>
       </c>
       <c r="F106" t="n">
-        <v>6.76964488504529E-8</v>
+        <v>4.40495985637651E-6</v>
       </c>
       <c r="G106" t="n">
-        <v>3.42581738645779E-4</v>
+        <v>6.30941418466949E-5</v>
       </c>
       <c r="H106" t="n">
-        <v>3.04617611990748E-6</v>
+        <v>0.204011493421193</v>
       </c>
       <c r="I106" t="n">
-        <v>1.60786373115407E-5</v>
+        <v>1.22421657070814E-5</v>
       </c>
       <c r="J106" t="n">
-        <v>1.27194192725035E-6</v>
+        <v>7.83694170106704E-6</v>
       </c>
       <c r="K106" t="n">
-        <v>0.512550764540538</v>
+        <v>0.321725250037715</v>
       </c>
       <c r="L106" t="n">
-        <v>0.00411743581035417</v>
+        <v>7.77866864752085E-5</v>
       </c>
       <c r="M106" t="n">
-        <v>0.00791002539157453</v>
+        <v>0.344872399605442</v>
       </c>
     </row>
     <row r="107">
@@ -4779,37 +4794,37 @@
         <v>4</v>
       </c>
       <c r="C107" t="n">
-        <v>0.059750701818676</v>
+        <v>0.0911509596099482</v>
       </c>
       <c r="D107" t="n">
-        <v>0.0984593785298707</v>
+        <v>0.044774777489213</v>
       </c>
       <c r="E107" t="n">
-        <v>0.0809466274976345</v>
+        <v>0.187376830180332</v>
       </c>
       <c r="F107" t="n">
-        <v>4.7191128626825E-6</v>
+        <v>2.23988107429002E-7</v>
       </c>
       <c r="G107" t="n">
-        <v>2.20382459172309E-4</v>
+        <v>5.31442983131006E-6</v>
       </c>
       <c r="H107" t="n">
-        <v>0.0119158789693169</v>
+        <v>5.56307557806493E-4</v>
       </c>
       <c r="I107" t="n">
-        <v>1.76096679407403E-5</v>
+        <v>7.46457659926751E-5</v>
       </c>
       <c r="J107" t="n">
-        <v>3.11246920270091E-5</v>
+        <v>7.32171754945443E-7</v>
       </c>
       <c r="K107" t="n">
-        <v>0.72190037668767</v>
+        <v>0.204802012172852</v>
       </c>
       <c r="L107" t="n">
-        <v>0.0231725531783771</v>
+        <v>1.03938602927753E-5</v>
       </c>
       <c r="M107" t="n">
-        <v>0.0818357962532174</v>
+        <v>0.522221499273339</v>
       </c>
     </row>
     <row r="108">
@@ -4820,37 +4835,37 @@
         <v>4</v>
       </c>
       <c r="C108" t="n">
-        <v>0.0627127973702897</v>
+        <v>0.059850219676627</v>
       </c>
       <c r="D108" t="n">
-        <v>0.852810177468724</v>
+        <v>0.838952144163235</v>
       </c>
       <c r="E108" t="n">
-        <v>0.185313871996449</v>
+        <v>0.0736705010936012</v>
       </c>
       <c r="F108" t="n">
-        <v>3.53188441100386E-10</v>
+        <v>6.15284412295284E-7</v>
       </c>
       <c r="G108" t="n">
-        <v>3.76584766993616E-5</v>
+        <v>3.34351497969024E-6</v>
       </c>
       <c r="H108" t="n">
-        <v>1.73821685192564E-4</v>
+        <v>2.41940705650711E-5</v>
       </c>
       <c r="I108" t="n">
-        <v>3.09164919714124E-6</v>
+        <v>2.02469985373394E-5</v>
       </c>
       <c r="J108" t="n">
-        <v>3.10542224767003E-6</v>
+        <v>1.57898678886366E-5</v>
       </c>
       <c r="K108" t="n">
-        <v>0.00291509677222881</v>
+        <v>0.00534298882714311</v>
       </c>
       <c r="L108" t="n">
-        <v>3.60414259898769E-4</v>
+        <v>1.90177293135649E-5</v>
       </c>
       <c r="M108" t="n">
-        <v>0.00201839595708651</v>
+        <v>0.122744182961248</v>
       </c>
     </row>
     <row r="109">
@@ -4861,36 +4876,241 @@
         <v>4</v>
       </c>
       <c r="C109" t="n">
+        <v>0.043523850409815</v>
+      </c>
+      <c r="D109" t="n">
+        <v>0.203612342708557</v>
+      </c>
+      <c r="E109" t="n">
+        <v>0.208111193538208</v>
+      </c>
+      <c r="F109" t="n">
+        <v>1.62050653438951E-5</v>
+      </c>
+      <c r="G109" t="n">
+        <v>0.00192861246826689</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0.00213125052786259</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0.00285376138329922</v>
+      </c>
+      <c r="J109" t="n">
+        <v>1.79696634815681E-6</v>
+      </c>
+      <c r="K109" t="n">
+        <v>0.0301410782051947</v>
+      </c>
+      <c r="L109" t="n">
+        <v>0.149090991441831</v>
+      </c>
+      <c r="M109" t="n">
+        <v>0.351141547828691</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>121</v>
+      </c>
+      <c r="B110" t="s">
+        <v>4</v>
+      </c>
+      <c r="C110" t="n">
+        <v>0.114552642419583</v>
+      </c>
+      <c r="D110" t="n">
+        <v>0.00392921905847888</v>
+      </c>
+      <c r="E110" t="n">
+        <v>0.134332121111704</v>
+      </c>
+      <c r="F110" t="n">
+        <v>1.7180142178831E-6</v>
+      </c>
+      <c r="G110" t="n">
+        <v>1.91738018082286E-5</v>
+      </c>
+      <c r="H110" t="n">
+        <v>8.18094768805895E-4</v>
+      </c>
+      <c r="I110" t="n">
+        <v>4.18656892931109E-5</v>
+      </c>
+      <c r="J110" t="n">
+        <v>6.01060966102871E-6</v>
+      </c>
+      <c r="K110" t="n">
+        <v>0.550067073839111</v>
+      </c>
+      <c r="L110" t="n">
+        <v>0.0178109165472678</v>
+      </c>
+      <c r="M110" t="n">
+        <v>0.322253778938716</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>122</v>
+      </c>
+      <c r="B111" t="s">
+        <v>4</v>
+      </c>
+      <c r="C111" t="n">
+        <v>0.151584702602353</v>
+      </c>
+      <c r="D111" t="n">
+        <v>0.2409360062526</v>
+      </c>
+      <c r="E111" t="n">
+        <v>0.147679140215956</v>
+      </c>
+      <c r="F111" t="n">
+        <v>6.76964488504529E-8</v>
+      </c>
+      <c r="G111" t="n">
+        <v>3.42581738645779E-4</v>
+      </c>
+      <c r="H111" t="n">
+        <v>3.04617611990748E-6</v>
+      </c>
+      <c r="I111" t="n">
+        <v>1.60786373115407E-5</v>
+      </c>
+      <c r="J111" t="n">
+        <v>1.27194192725035E-6</v>
+      </c>
+      <c r="K111" t="n">
+        <v>0.512550764540538</v>
+      </c>
+      <c r="L111" t="n">
+        <v>0.00411743581035417</v>
+      </c>
+      <c r="M111" t="n">
+        <v>0.00791002539157453</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>123</v>
+      </c>
+      <c r="B112" t="s">
+        <v>4</v>
+      </c>
+      <c r="C112" t="n">
+        <v>0.059750701818676</v>
+      </c>
+      <c r="D112" t="n">
+        <v>0.0984593785298707</v>
+      </c>
+      <c r="E112" t="n">
+        <v>0.0809466274976345</v>
+      </c>
+      <c r="F112" t="n">
+        <v>4.7191128626825E-6</v>
+      </c>
+      <c r="G112" t="n">
+        <v>2.20382459172309E-4</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0.0119158789693169</v>
+      </c>
+      <c r="I112" t="n">
+        <v>1.76096679407403E-5</v>
+      </c>
+      <c r="J112" t="n">
+        <v>3.11246920270091E-5</v>
+      </c>
+      <c r="K112" t="n">
+        <v>0.72190037668767</v>
+      </c>
+      <c r="L112" t="n">
+        <v>0.0231725531783771</v>
+      </c>
+      <c r="M112" t="n">
+        <v>0.0818357962532174</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>124</v>
+      </c>
+      <c r="B113" t="s">
+        <v>4</v>
+      </c>
+      <c r="C113" t="n">
+        <v>0.0627127973702897</v>
+      </c>
+      <c r="D113" t="n">
+        <v>0.852810177468724</v>
+      </c>
+      <c r="E113" t="n">
+        <v>0.185313871996449</v>
+      </c>
+      <c r="F113" t="n">
+        <v>3.53188441100386E-10</v>
+      </c>
+      <c r="G113" t="n">
+        <v>3.76584766993616E-5</v>
+      </c>
+      <c r="H113" t="n">
+        <v>1.73821685192564E-4</v>
+      </c>
+      <c r="I113" t="n">
+        <v>3.09164919714124E-6</v>
+      </c>
+      <c r="J113" t="n">
+        <v>3.10542224767003E-6</v>
+      </c>
+      <c r="K113" t="n">
+        <v>0.00291509677222881</v>
+      </c>
+      <c r="L113" t="n">
+        <v>3.60414259898769E-4</v>
+      </c>
+      <c r="M113" t="n">
+        <v>0.00201839595708651</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>125</v>
+      </c>
+      <c r="B114" t="s">
+        <v>4</v>
+      </c>
+      <c r="C114" t="n">
         <v>0.118372036236627</v>
       </c>
-      <c r="D109" t="n">
+      <c r="D114" t="n">
         <v>0.462147520168284</v>
       </c>
-      <c r="E109" t="n">
+      <c r="E114" t="n">
         <v>0.0671583731007574</v>
       </c>
-      <c r="F109" t="n">
+      <c r="F114" t="n">
         <v>2.37595257646816E-8</v>
       </c>
-      <c r="G109" t="n">
+      <c r="G114" t="n">
         <v>8.06046422392932E-7</v>
       </c>
-      <c r="H109" t="n">
+      <c r="H114" t="n">
         <v>8.2951326377127E-5</v>
       </c>
-      <c r="I109" t="n">
+      <c r="I114" t="n">
         <v>1.91616281474058E-7</v>
       </c>
-      <c r="J109" t="n">
+      <c r="J114" t="n">
         <v>2.66489263788859E-7</v>
       </c>
-      <c r="K109" t="n">
+      <c r="K114" t="n">
         <v>0.374405886791564</v>
       </c>
-      <c r="L109" t="n">
+      <c r="L114" t="n">
         <v>3.83393939074942E-4</v>
       </c>
-      <c r="M109" t="n">
+      <c r="M114" t="n">
         <v>0.0</v>
       </c>
     </row>

--- a/table_replication_pve.xlsx
+++ b/table_replication_pve.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="112">
   <si>
     <t>cg</t>
   </si>
@@ -80,85 +80,109 @@
     <t>cg08781728</t>
   </si>
   <si>
+    <t>cg18871253</t>
+  </si>
+  <si>
+    <t>cg06275642</t>
+  </si>
+  <si>
     <t>cg22400703</t>
   </si>
   <si>
-    <t>cg06275642</t>
-  </si>
-  <si>
-    <t>cg18871253</t>
-  </si>
-  <si>
-    <t>cg14814062</t>
+    <t>cg05800416</t>
+  </si>
+  <si>
+    <t>cg24104128</t>
+  </si>
+  <si>
+    <t>cg14620572</t>
+  </si>
+  <si>
+    <t>cg06379876</t>
+  </si>
+  <si>
+    <t>cg21217577</t>
+  </si>
+  <si>
+    <t>cg12577372</t>
+  </si>
+  <si>
+    <t>cg23884175</t>
+  </si>
+  <si>
+    <t>cg10727812</t>
+  </si>
+  <si>
+    <t>cg15080939</t>
+  </si>
+  <si>
+    <t>cg24620905</t>
+  </si>
+  <si>
+    <t>cg23505644</t>
+  </si>
+  <si>
+    <t>cg18261909</t>
+  </si>
+  <si>
+    <t>cg14023009</t>
+  </si>
+  <si>
+    <t>cg18856478</t>
+  </si>
+  <si>
+    <t>cg27522367</t>
+  </si>
+  <si>
+    <t>cg06997549</t>
   </si>
   <si>
     <t>cg17024258</t>
   </si>
   <si>
-    <t>cg06997549</t>
-  </si>
-  <si>
-    <t>cg27522367</t>
-  </si>
-  <si>
-    <t>cg18856478</t>
-  </si>
-  <si>
-    <t>cg14023009</t>
-  </si>
-  <si>
-    <t>cg18261909</t>
-  </si>
-  <si>
-    <t>cg23505644</t>
-  </si>
-  <si>
-    <t>cg15080939</t>
-  </si>
-  <si>
-    <t>cg24620905</t>
-  </si>
-  <si>
-    <t>cg08544331</t>
-  </si>
-  <si>
-    <t>cg17390817</t>
-  </si>
-  <si>
-    <t>cg10727812</t>
-  </si>
-  <si>
-    <t>cg23884175</t>
-  </si>
-  <si>
-    <t>cg06168149</t>
-  </si>
-  <si>
-    <t>cg12577372</t>
-  </si>
-  <si>
-    <t>cg20010635</t>
-  </si>
-  <si>
-    <t>cg01132696</t>
-  </si>
-  <si>
-    <t>cg05800416</t>
-  </si>
-  <si>
-    <t>cg24104128</t>
-  </si>
-  <si>
-    <t>cg14620572</t>
-  </si>
-  <si>
-    <t>cg21217577</t>
-  </si>
-  <si>
-    <t>cg06379876</t>
-  </si>
-  <si>
-    <t>cg07499899</t>
+    <t>cg07037057</t>
+  </si>
+  <si>
+    <t>cg07621645</t>
+  </si>
+  <si>
+    <t>cg16275483</t>
+  </si>
+  <si>
+    <t>cg20143758</t>
+  </si>
+  <si>
+    <t>cg05046717</t>
+  </si>
+  <si>
+    <t>cg01967934</t>
+  </si>
+  <si>
+    <t>cg08684361</t>
+  </si>
+  <si>
+    <t>cg00219303</t>
+  </si>
+  <si>
+    <t>cg26077811</t>
+  </si>
+  <si>
+    <t>cg12075586</t>
+  </si>
+  <si>
+    <t>cg11636504</t>
+  </si>
+  <si>
+    <t>cg20666917</t>
+  </si>
+  <si>
+    <t>cg10004882</t>
+  </si>
+  <si>
+    <t>cg14346208</t>
+  </si>
+  <si>
+    <t>cg14094347</t>
   </si>
   <si>
     <t>cg15698244</t>
@@ -167,229 +191,163 @@
     <t>cg02884024</t>
   </si>
   <si>
-    <t>cg14094347</t>
-  </si>
-  <si>
-    <t>cg13775495</t>
-  </si>
-  <si>
-    <t>cg20666917</t>
-  </si>
-  <si>
-    <t>cg11636504</t>
-  </si>
-  <si>
-    <t>cg12075586</t>
-  </si>
-  <si>
-    <t>cg01967934</t>
-  </si>
-  <si>
-    <t>cg05046717</t>
-  </si>
-  <si>
-    <t>cg20143758</t>
-  </si>
-  <si>
-    <t>cg16275483</t>
-  </si>
-  <si>
-    <t>cg07621645</t>
-  </si>
-  <si>
-    <t>cg07037057</t>
-  </si>
-  <si>
-    <t>cg08684361</t>
-  </si>
-  <si>
-    <t>cg18450582</t>
+    <t>cg18423210</t>
   </si>
   <si>
     <t>cg02181309</t>
   </si>
   <si>
-    <t>cg18423210</t>
-  </si>
-  <si>
     <t>cg23273221</t>
   </si>
   <si>
     <t>cg13845133</t>
   </si>
   <si>
-    <t>cg21703750</t>
-  </si>
-  <si>
-    <t>cg14346208</t>
-  </si>
-  <si>
-    <t>cg10004882</t>
+    <t>cg15642758</t>
+  </si>
+  <si>
+    <t>cg24328054</t>
   </si>
   <si>
     <t>cg02509232</t>
   </si>
   <si>
-    <t>cg24328054</t>
-  </si>
-  <si>
-    <t>cg09383172</t>
-  </si>
-  <si>
-    <t>cg15642758</t>
-  </si>
-  <si>
-    <t>cg26077811</t>
-  </si>
-  <si>
-    <t>cg00219303</t>
+    <t>cg20371266</t>
+  </si>
+  <si>
+    <t>cg09026722</t>
+  </si>
+  <si>
+    <t>cg04635642</t>
+  </si>
+  <si>
+    <t>cg06616710</t>
+  </si>
+  <si>
+    <t>cg15459780</t>
+  </si>
+  <si>
+    <t>cg04330122</t>
+  </si>
+  <si>
+    <t>cg00456892</t>
+  </si>
+  <si>
+    <t>cg16134717</t>
+  </si>
+  <si>
+    <t>cg13969788</t>
+  </si>
+  <si>
+    <t>cg12317414</t>
+  </si>
+  <si>
+    <t>cg12588917</t>
+  </si>
+  <si>
+    <t>cg16919708</t>
+  </si>
+  <si>
+    <t>cg27467383</t>
+  </si>
+  <si>
+    <t>cg24500959</t>
+  </si>
+  <si>
+    <t>cg11480762</t>
+  </si>
+  <si>
+    <t>cg16576895</t>
+  </si>
+  <si>
+    <t>cg04625338</t>
+  </si>
+  <si>
+    <t>cg12343363</t>
+  </si>
+  <si>
+    <t>cg17781710</t>
+  </si>
+  <si>
+    <t>cg24686153</t>
+  </si>
+  <si>
+    <t>cg07262247</t>
+  </si>
+  <si>
+    <t>cg08570034</t>
+  </si>
+  <si>
+    <t>cg04907084</t>
+  </si>
+  <si>
+    <t>cg20914659</t>
+  </si>
+  <si>
+    <t>cg04926361</t>
+  </si>
+  <si>
+    <t>cg07580479</t>
+  </si>
+  <si>
+    <t>cg07935902</t>
+  </si>
+  <si>
+    <t>cg12044923</t>
+  </si>
+  <si>
+    <t>cg03798942</t>
+  </si>
+  <si>
+    <t>cg12702981</t>
+  </si>
+  <si>
+    <t>cg15684702</t>
+  </si>
+  <si>
+    <t>cg01749702</t>
+  </si>
+  <si>
+    <t>cg06841192</t>
+  </si>
+  <si>
+    <t>cg18483404</t>
+  </si>
+  <si>
+    <t>cg04330884</t>
+  </si>
+  <si>
+    <t>cg16843243</t>
+  </si>
+  <si>
+    <t>cg16611278</t>
+  </si>
+  <si>
+    <t>cg26313511</t>
+  </si>
+  <si>
+    <t>cg08239103</t>
+  </si>
+  <si>
+    <t>cg00447052</t>
+  </si>
+  <si>
+    <t>cg14759277</t>
+  </si>
+  <si>
+    <t>cg03942471</t>
+  </si>
+  <si>
+    <t>cg03411376</t>
+  </si>
+  <si>
+    <t>cg07436701</t>
+  </si>
+  <si>
+    <t>cg26332552</t>
   </si>
   <si>
     <t>cg00135497</t>
-  </si>
-  <si>
-    <t>cg26332552</t>
-  </si>
-  <si>
-    <t>cg07436701</t>
-  </si>
-  <si>
-    <t>cg03411376</t>
-  </si>
-  <si>
-    <t>cg03942471</t>
-  </si>
-  <si>
-    <t>cg14759277</t>
-  </si>
-  <si>
-    <t>cg24480695</t>
-  </si>
-  <si>
-    <t>cg00447052</t>
-  </si>
-  <si>
-    <t>cg08239103</t>
-  </si>
-  <si>
-    <t>cg26313511</t>
-  </si>
-  <si>
-    <t>cg16611278</t>
-  </si>
-  <si>
-    <t>cg16843243</t>
-  </si>
-  <si>
-    <t>cg12343363</t>
-  </si>
-  <si>
-    <t>cg17781710</t>
-  </si>
-  <si>
-    <t>cg24686153</t>
-  </si>
-  <si>
-    <t>cg24500959</t>
-  </si>
-  <si>
-    <t>cg11480762</t>
-  </si>
-  <si>
-    <t>cg16576895</t>
-  </si>
-  <si>
-    <t>cg04625338</t>
-  </si>
-  <si>
-    <t>cg06841192</t>
-  </si>
-  <si>
-    <t>cg18483404</t>
-  </si>
-  <si>
-    <t>cg04330884</t>
-  </si>
-  <si>
-    <t>cg01749702</t>
-  </si>
-  <si>
-    <t>cg15684702</t>
-  </si>
-  <si>
-    <t>cg12702981</t>
-  </si>
-  <si>
-    <t>cg03798942</t>
-  </si>
-  <si>
-    <t>cg12044923</t>
-  </si>
-  <si>
-    <t>cg07935902</t>
-  </si>
-  <si>
-    <t>cg02269797</t>
-  </si>
-  <si>
-    <t>cg07580479</t>
-  </si>
-  <si>
-    <t>cg04926361</t>
-  </si>
-  <si>
-    <t>cg20914659</t>
-  </si>
-  <si>
-    <t>cg04907084</t>
-  </si>
-  <si>
-    <t>cg08570034</t>
-  </si>
-  <si>
-    <t>cg27467383</t>
-  </si>
-  <si>
-    <t>cg16919708</t>
-  </si>
-  <si>
-    <t>cg22136383</t>
-  </si>
-  <si>
-    <t>cg00456892</t>
-  </si>
-  <si>
-    <t>cg09026722</t>
-  </si>
-  <si>
-    <t>cg20371266</t>
-  </si>
-  <si>
-    <t>cg12588917</t>
-  </si>
-  <si>
-    <t>cg12317414</t>
-  </si>
-  <si>
-    <t>cg13969788</t>
-  </si>
-  <si>
-    <t>cg16134717</t>
-  </si>
-  <si>
-    <t>cg06616710</t>
-  </si>
-  <si>
-    <t>cg04635642</t>
-  </si>
-  <si>
-    <t>cg15459780</t>
-  </si>
-  <si>
-    <t>cg04330122</t>
-  </si>
-  <si>
-    <t>cg07262247</t>
   </si>
 </sst>
 </file>
@@ -858,37 +816,37 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>0.13382692791922</v>
+        <v>0.106166064234434</v>
       </c>
       <c r="D11" t="n">
-        <v>0.545540885076218</v>
+        <v>0.83494512885379</v>
       </c>
       <c r="E11" t="n">
-        <v>1.39178262842721E-7</v>
+        <v>2.97481124524462E-5</v>
       </c>
       <c r="F11" t="n">
-        <v>0.120807810136199</v>
+        <v>0.152002626412231</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0039971772884727</v>
+        <v>0.0061478698061722</v>
       </c>
       <c r="H11" t="n">
-        <v>0.252486369659828</v>
+        <v>0.00199195397784023</v>
       </c>
       <c r="I11" t="n">
-        <v>3.21628211362922E-4</v>
+        <v>1.27793991794585E-4</v>
       </c>
       <c r="J11" t="n">
-        <v>0.00223878619795054</v>
+        <v>8.89266021188655E-5</v>
       </c>
       <c r="K11" t="n">
-        <v>0.04893520059462</v>
+        <v>1.71010740972128E-4</v>
       </c>
       <c r="L11" t="n">
-        <v>0.00227814208183936</v>
+        <v>5.83247289137186E-4</v>
       </c>
       <c r="M11" t="n">
-        <v>0.0497463647517701</v>
+        <v>0.0246591850690197</v>
       </c>
     </row>
     <row r="12">
@@ -940,37 +898,37 @@
         <v>5</v>
       </c>
       <c r="C13" t="n">
-        <v>0.106166064234434</v>
+        <v>0.13382692791922</v>
       </c>
       <c r="D13" t="n">
-        <v>0.83494512885379</v>
+        <v>0.545540885076218</v>
       </c>
       <c r="E13" t="n">
-        <v>2.97481124524462E-5</v>
+        <v>1.39178262842721E-7</v>
       </c>
       <c r="F13" t="n">
-        <v>0.152002626412231</v>
+        <v>0.120807810136199</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0061478698061722</v>
+        <v>0.0039971772884727</v>
       </c>
       <c r="H13" t="n">
-        <v>0.00199195397784023</v>
+        <v>0.252486369659828</v>
       </c>
       <c r="I13" t="n">
-        <v>1.27793991794585E-4</v>
+        <v>3.21628211362922E-4</v>
       </c>
       <c r="J13" t="n">
-        <v>8.89266021188655E-5</v>
+        <v>0.00223878619795054</v>
       </c>
       <c r="K13" t="n">
-        <v>1.71010740972128E-4</v>
+        <v>0.04893520059462</v>
       </c>
       <c r="L13" t="n">
-        <v>5.83247289137186E-4</v>
+        <v>0.00227814208183936</v>
       </c>
       <c r="M13" t="n">
-        <v>0.0246591850690197</v>
+        <v>0.0497463647517701</v>
       </c>
     </row>
     <row r="14">
@@ -978,40 +936,40 @@
         <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0670757551896137</v>
+        <v>0.127544340103315</v>
       </c>
       <c r="D14" t="n">
-        <v>0.831046929512064</v>
+        <v>0.0124672718082653</v>
       </c>
       <c r="E14" t="n">
-        <v>1.42085058362308E-8</v>
+        <v>1.71850116574368E-4</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0187638461298819</v>
+        <v>0.054707666707963</v>
       </c>
       <c r="G14" t="n">
-        <v>1.62246112069218E-4</v>
+        <v>0.061320030790206</v>
       </c>
       <c r="H14" t="n">
-        <v>1.48545992760319E-4</v>
+        <v>0.407767323938051</v>
       </c>
       <c r="I14" t="n">
-        <v>2.23714043646854E-5</v>
+        <v>1.59738733580891E-6</v>
       </c>
       <c r="J14" t="n">
-        <v>1.33435627163087E-4</v>
+        <v>2.9503808796393E-5</v>
       </c>
       <c r="K14" t="n">
-        <v>1.48010024636245E-5</v>
+        <v>0.0562548885584832</v>
       </c>
       <c r="L14" t="n">
-        <v>4.89821644807827E-4</v>
+        <v>1.01797128037505E-4</v>
       </c>
       <c r="M14" t="n">
-        <v>0.164092619692049</v>
+        <v>0.377711803278556</v>
       </c>
     </row>
     <row r="15">
@@ -1019,40 +977,40 @@
         <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0300518319251443</v>
+        <v>0.0319595406930359</v>
       </c>
       <c r="D15" t="n">
-        <v>0.126023909224416</v>
+        <v>0.110168697266545</v>
       </c>
       <c r="E15" t="n">
-        <v>3.30882896684586E-4</v>
+        <v>0.00359952851929247</v>
       </c>
       <c r="F15" t="n">
-        <v>0.602605364022017</v>
+        <v>0.00295816571911136</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0120276718361903</v>
+        <v>0.585971150930341</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0223789295571484</v>
+        <v>0.058351474178601</v>
       </c>
       <c r="I15" t="n">
-        <v>0.0770303153454738</v>
+        <v>1.4245482853115E-5</v>
       </c>
       <c r="J15" t="n">
-        <v>2.88379535028605E-4</v>
+        <v>1.16663126449967E-6</v>
       </c>
       <c r="K15" t="n">
-        <v>0.00297978536003282</v>
+        <v>0.0129421952485959</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0426577962511474</v>
+        <v>1.52772489877317E-4</v>
       </c>
       <c r="M15" t="n">
-        <v>0.202657615679146</v>
+        <v>0.187124495408923</v>
       </c>
     </row>
     <row r="16">
@@ -1060,40 +1018,40 @@
         <v>27</v>
       </c>
       <c r="B16" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C16" t="n">
-        <v>0.147516131759971</v>
+        <v>0.140257437920198</v>
       </c>
       <c r="D16" t="n">
-        <v>0.615487719698771</v>
+        <v>9.05656220070646E-4</v>
       </c>
       <c r="E16" t="n">
-        <v>1.09311190812665E-6</v>
+        <v>2.3417230042243E-4</v>
       </c>
       <c r="F16" t="n">
-        <v>0.201144899600686</v>
+        <v>0.00613198826605588</v>
       </c>
       <c r="G16" t="n">
-        <v>1.10858937040679E-6</v>
+        <v>0.271328757388446</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0950804544839165</v>
+        <v>0.662070926053881</v>
       </c>
       <c r="I16" t="n">
-        <v>7.27297784954565E-4</v>
+        <v>4.56389585544912E-5</v>
       </c>
       <c r="J16" t="n">
-        <v>1.71394937842896E-6</v>
+        <v>5.53666296781273E-7</v>
       </c>
       <c r="K16" t="n">
-        <v>8.00263059184004E-5</v>
+        <v>0.258484394083362</v>
       </c>
       <c r="L16" t="n">
-        <v>1.98413122604388E-4</v>
+        <v>1.38252917842616E-7</v>
       </c>
       <c r="M16" t="n">
-        <v>0.111441686270995</v>
+        <v>0.0191306583555665</v>
       </c>
     </row>
     <row r="17">
@@ -1101,40 +1059,40 @@
         <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C17" t="n">
-        <v>0.087458768428265</v>
+        <v>0.0768321446606497</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0638988381998967</v>
+        <v>0.190410314392878</v>
       </c>
       <c r="E17" t="n">
-        <v>4.02632896502973E-6</v>
+        <v>0.0272781234039028</v>
       </c>
       <c r="F17" t="n">
-        <v>0.400185169505626</v>
+        <v>3.22878789804022E-5</v>
       </c>
       <c r="G17" t="n">
-        <v>7.63412164231405E-7</v>
+        <v>0.150594387926751</v>
       </c>
       <c r="H17" t="n">
-        <v>0.199437421352188</v>
+        <v>0.217858010609633</v>
       </c>
       <c r="I17" t="n">
-        <v>1.01670353148377E-4</v>
+        <v>0.0255172125466873</v>
       </c>
       <c r="J17" t="n">
-        <v>8.72876455782626E-7</v>
+        <v>1.13841573333216E-5</v>
       </c>
       <c r="K17" t="n">
-        <v>5.39205275628807E-7</v>
+        <v>0.296624994171469</v>
       </c>
       <c r="L17" t="n">
-        <v>5.15590659941009E-4</v>
+        <v>0.00120642719576857</v>
       </c>
       <c r="M17" t="n">
-        <v>0.232692184121889</v>
+        <v>0.110929707121255</v>
       </c>
     </row>
     <row r="18">
@@ -1142,40 +1100,40 @@
         <v>29</v>
       </c>
       <c r="B18" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C18" t="n">
-        <v>0.042098948637386</v>
+        <v>0.159356305006545</v>
       </c>
       <c r="D18" t="n">
-        <v>0.637570118429467</v>
+        <v>0.0416859791453037</v>
       </c>
       <c r="E18" t="n">
-        <v>2.55638544231365E-5</v>
+        <v>0.0481714742257271</v>
       </c>
       <c r="F18" t="n">
-        <v>0.388192153969797</v>
+        <v>0.00113628059354197</v>
       </c>
       <c r="G18" t="n">
-        <v>8.41698573340015E-5</v>
+        <v>0.0454411581058778</v>
       </c>
       <c r="H18" t="n">
-        <v>2.79699411092965E-4</v>
+        <v>0.290972173757142</v>
       </c>
       <c r="I18" t="n">
-        <v>5.60015880480264E-4</v>
+        <v>0.001042051908957</v>
       </c>
       <c r="J18" t="n">
-        <v>8.23148767378953E-4</v>
+        <v>1.48656795341465E-5</v>
       </c>
       <c r="K18" t="n">
-        <v>3.15401046782301E-6</v>
+        <v>0.411409780844136</v>
       </c>
       <c r="L18" t="n">
-        <v>1.03176872030259E-5</v>
+        <v>3.85299226109578E-5</v>
       </c>
       <c r="M18" t="n">
-        <v>0.00244757170361594</v>
+        <v>0.0303201049287615</v>
       </c>
     </row>
     <row r="19">
@@ -1186,37 +1144,37 @@
         <v>5</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0599690111461756</v>
+        <v>0.24128095860369</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0179964963407941</v>
+        <v>0.0520529266046138</v>
       </c>
       <c r="E19" t="n">
-        <v>3.95916026303165E-6</v>
+        <v>9.72451569301143E-7</v>
       </c>
       <c r="F19" t="n">
-        <v>0.201519800796639</v>
+        <v>0.0579772486930579</v>
       </c>
       <c r="G19" t="n">
-        <v>0.00289061493852985</v>
+        <v>0.00403501257448746</v>
       </c>
       <c r="H19" t="n">
-        <v>0.00303430339127962</v>
+        <v>0.0140852620283022</v>
       </c>
       <c r="I19" t="n">
-        <v>4.45300835750838E-5</v>
+        <v>5.88677445345142E-6</v>
       </c>
       <c r="J19" t="n">
-        <v>0.0507946701091478</v>
+        <v>6.38484871273964E-8</v>
       </c>
       <c r="K19" t="n">
-        <v>4.23963628236638E-5</v>
+        <v>0.788336084659901</v>
       </c>
       <c r="L19" t="n">
-        <v>3.47004631811982E-4</v>
+        <v>9.83205925634483E-6</v>
       </c>
       <c r="M19" t="n">
-        <v>0.762481056442314</v>
+        <v>0.0571102221710609</v>
       </c>
     </row>
     <row r="20">
@@ -1227,37 +1185,37 @@
         <v>5</v>
       </c>
       <c r="C20" t="n">
-        <v>0.111674066432473</v>
+        <v>0.35089028625375</v>
       </c>
       <c r="D20" t="n">
-        <v>0.969442113552421</v>
+        <v>0.0107045852472919</v>
       </c>
       <c r="E20" t="n">
-        <v>8.62166383434634E-8</v>
+        <v>3.36493210013585E-8</v>
       </c>
       <c r="F20" t="n">
-        <v>0.00525604046473436</v>
+        <v>0.10942626491884</v>
       </c>
       <c r="G20" t="n">
-        <v>2.00491154220009E-8</v>
+        <v>1.51486140258199E-7</v>
       </c>
       <c r="H20" t="n">
-        <v>9.56096769809519E-6</v>
+        <v>0.00409896648893494</v>
       </c>
       <c r="I20" t="n">
-        <v>5.36745094469417E-6</v>
+        <v>0.0179453434908205</v>
       </c>
       <c r="J20" t="n">
-        <v>2.70697056943474E-4</v>
+        <v>4.94036775689237E-4</v>
       </c>
       <c r="K20" t="n">
-        <v>4.86846408550379E-5</v>
+        <v>0.26993395025897</v>
       </c>
       <c r="L20" t="n">
-        <v>6.42764485698592E-5</v>
+        <v>3.90367453642079E-5</v>
       </c>
       <c r="M20" t="n">
-        <v>0.0572663592996982</v>
+        <v>0.524955599569475</v>
       </c>
     </row>
     <row r="21">
@@ -1268,37 +1226,37 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>0.105276934773088</v>
+        <v>0.110432376034259</v>
       </c>
       <c r="D21" t="n">
-        <v>0.739089019160422</v>
+        <v>0.653614374703198</v>
       </c>
       <c r="E21" t="n">
-        <v>1.26970816424949E-5</v>
+        <v>2.09049421660368E-6</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0687399208284045</v>
+        <v>0.113222074787256</v>
       </c>
       <c r="G21" t="n">
-        <v>3.99714108112015E-9</v>
+        <v>1.89472916635882E-6</v>
       </c>
       <c r="H21" t="n">
-        <v>2.35576088210338E-4</v>
+        <v>1.49099200651622E-5</v>
       </c>
       <c r="I21" t="n">
-        <v>3.35924230805147E-7</v>
+        <v>0.00186018792869217</v>
       </c>
       <c r="J21" t="n">
-        <v>1.93320652480257E-6</v>
+        <v>2.46131768232796E-6</v>
       </c>
       <c r="K21" t="n">
-        <v>1.18428102261652E-4</v>
+        <v>0.175927310426216</v>
       </c>
       <c r="L21" t="n">
-        <v>3.68600997430679E-4</v>
+        <v>4.23132773879438E-5</v>
       </c>
       <c r="M21" t="n">
-        <v>0.115423745718229</v>
+        <v>0.0291245775158746</v>
       </c>
     </row>
     <row r="22">
@@ -1391,37 +1349,37 @@
         <v>5</v>
       </c>
       <c r="C24" t="n">
-        <v>0.10270184014566</v>
+        <v>0.105276934773088</v>
       </c>
       <c r="D24" t="n">
-        <v>0.652846181348396</v>
+        <v>0.739089019160422</v>
       </c>
       <c r="E24" t="n">
-        <v>1.48282024245602E-7</v>
+        <v>1.26970816424949E-5</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0153975780124544</v>
+        <v>0.0687399208284045</v>
       </c>
       <c r="G24" t="n">
-        <v>1.57963874433464E-8</v>
+        <v>3.99714108112015E-9</v>
       </c>
       <c r="H24" t="n">
-        <v>0.00615164876714343</v>
+        <v>2.35576088210338E-4</v>
       </c>
       <c r="I24" t="n">
-        <v>1.69621473727634E-6</v>
+        <v>3.35924230805147E-7</v>
       </c>
       <c r="J24" t="n">
-        <v>4.20527791476358E-5</v>
+        <v>1.93320652480257E-6</v>
       </c>
       <c r="K24" t="n">
-        <v>0.436089825998081</v>
+        <v>1.18428102261652E-4</v>
       </c>
       <c r="L24" t="n">
-        <v>1.97790054868409E-6</v>
+        <v>3.68600997430679E-4</v>
       </c>
       <c r="M24" t="n">
-        <v>0.0187079849681856</v>
+        <v>0.115423745718229</v>
       </c>
     </row>
     <row r="25">
@@ -1432,37 +1390,37 @@
         <v>5</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0394864612128763</v>
+        <v>0.111674066432473</v>
       </c>
       <c r="D25" t="n">
-        <v>0.416151417975617</v>
+        <v>0.969442113552421</v>
       </c>
       <c r="E25" t="n">
-        <v>9.36103700817968E-8</v>
+        <v>8.62166383434634E-8</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0349815799452309</v>
+        <v>0.00525604046473436</v>
       </c>
       <c r="G25" t="n">
-        <v>7.70850880917252E-8</v>
+        <v>2.00491154220009E-8</v>
       </c>
       <c r="H25" t="n">
-        <v>1.2108895447035E-4</v>
+        <v>9.56096769809519E-6</v>
       </c>
       <c r="I25" t="n">
-        <v>2.84556124754352E-5</v>
+        <v>5.36745094469417E-6</v>
       </c>
       <c r="J25" t="n">
-        <v>4.26814489413356E-5</v>
+        <v>2.70697056943474E-4</v>
       </c>
       <c r="K25" t="n">
-        <v>0.395844180426777</v>
+        <v>4.86846408550379E-5</v>
       </c>
       <c r="L25" t="n">
-        <v>0.0129109053159041</v>
+        <v>6.42764485698592E-5</v>
       </c>
       <c r="M25" t="n">
-        <v>0.0764467231905693</v>
+        <v>0.0572663592996982</v>
       </c>
     </row>
     <row r="26">
@@ -1473,37 +1431,37 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>0.110432376034259</v>
+        <v>0.0599690111461756</v>
       </c>
       <c r="D26" t="n">
-        <v>0.653614374703198</v>
+        <v>0.0179964963407941</v>
       </c>
       <c r="E26" t="n">
-        <v>2.09049421660368E-6</v>
+        <v>3.95916026303165E-6</v>
       </c>
       <c r="F26" t="n">
-        <v>0.113222074787256</v>
+        <v>0.201519800796639</v>
       </c>
       <c r="G26" t="n">
-        <v>1.89472916635882E-6</v>
+        <v>0.00289061493852985</v>
       </c>
       <c r="H26" t="n">
-        <v>1.49099200651622E-5</v>
+        <v>0.00303430339127962</v>
       </c>
       <c r="I26" t="n">
-        <v>0.00186018792869217</v>
+        <v>4.45300835750838E-5</v>
       </c>
       <c r="J26" t="n">
-        <v>2.46131768232796E-6</v>
+        <v>0.0507946701091478</v>
       </c>
       <c r="K26" t="n">
-        <v>0.175927310426216</v>
+        <v>4.23963628236638E-5</v>
       </c>
       <c r="L26" t="n">
-        <v>4.23132773879438E-5</v>
+        <v>3.47004631811982E-4</v>
       </c>
       <c r="M26" t="n">
-        <v>0.0291245775158746</v>
+        <v>0.762481056442314</v>
       </c>
     </row>
     <row r="27">
@@ -1514,37 +1472,37 @@
         <v>5</v>
       </c>
       <c r="C27" t="n">
-        <v>0.35089028625375</v>
+        <v>0.042098948637386</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0107045852472919</v>
+        <v>0.637570118429467</v>
       </c>
       <c r="E27" t="n">
-        <v>3.36493210013585E-8</v>
+        <v>2.55638544231365E-5</v>
       </c>
       <c r="F27" t="n">
-        <v>0.10942626491884</v>
+        <v>0.388192153969797</v>
       </c>
       <c r="G27" t="n">
-        <v>1.51486140258199E-7</v>
+        <v>8.41698573340015E-5</v>
       </c>
       <c r="H27" t="n">
-        <v>0.00409896648893494</v>
+        <v>2.79699411092965E-4</v>
       </c>
       <c r="I27" t="n">
-        <v>0.0179453434908205</v>
+        <v>5.60015880480264E-4</v>
       </c>
       <c r="J27" t="n">
-        <v>4.94036775689237E-4</v>
+        <v>8.23148767378953E-4</v>
       </c>
       <c r="K27" t="n">
-        <v>0.26993395025897</v>
+        <v>3.15401046782301E-6</v>
       </c>
       <c r="L27" t="n">
-        <v>3.90367453642079E-5</v>
+        <v>1.03176872030259E-5</v>
       </c>
       <c r="M27" t="n">
-        <v>0.524955599569475</v>
+        <v>0.00244757170361594</v>
       </c>
     </row>
     <row r="28">
@@ -1555,37 +1513,37 @@
         <v>5</v>
       </c>
       <c r="C28" t="n">
-        <v>0.110599406827402</v>
+        <v>0.087458768428265</v>
       </c>
       <c r="D28" t="n">
-        <v>0.95334864320275</v>
+        <v>0.0638988381998967</v>
       </c>
       <c r="E28" t="n">
-        <v>2.969153610698E-9</v>
+        <v>4.02632896502973E-6</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0271988480678543</v>
+        <v>0.400185169505626</v>
       </c>
       <c r="G28" t="n">
-        <v>1.66063190854035E-7</v>
+        <v>7.63412164231405E-7</v>
       </c>
       <c r="H28" t="n">
-        <v>1.26291544700201E-6</v>
+        <v>0.199437421352188</v>
       </c>
       <c r="I28" t="n">
-        <v>6.03367182723615E-6</v>
+        <v>1.01670353148377E-4</v>
       </c>
       <c r="J28" t="n">
-        <v>1.33388424085032E-7</v>
+        <v>8.72876455782626E-7</v>
       </c>
       <c r="K28" t="n">
-        <v>7.86475649769729E-5</v>
+        <v>5.39205275628807E-7</v>
       </c>
       <c r="L28" t="n">
-        <v>9.69608472987113E-6</v>
+        <v>5.15590659941009E-4</v>
       </c>
       <c r="M28" t="n">
-        <v>0.0687088362329147</v>
+        <v>0.232692184121889</v>
       </c>
     </row>
     <row r="29">
@@ -1596,37 +1554,37 @@
         <v>5</v>
       </c>
       <c r="C29" t="n">
-        <v>0.24128095860369</v>
+        <v>0.147516131759971</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0520529266046138</v>
+        <v>0.615487719698771</v>
       </c>
       <c r="E29" t="n">
-        <v>9.72451569301143E-7</v>
+        <v>1.09311190812665E-6</v>
       </c>
       <c r="F29" t="n">
-        <v>0.0579772486930579</v>
+        <v>0.201144899600686</v>
       </c>
       <c r="G29" t="n">
-        <v>0.00403501257448746</v>
+        <v>1.10858937040679E-6</v>
       </c>
       <c r="H29" t="n">
-        <v>0.0140852620283022</v>
+        <v>0.0950804544839165</v>
       </c>
       <c r="I29" t="n">
-        <v>5.88677445345142E-6</v>
+        <v>7.27297784954565E-4</v>
       </c>
       <c r="J29" t="n">
-        <v>6.38484871273964E-8</v>
+        <v>1.71394937842896E-6</v>
       </c>
       <c r="K29" t="n">
-        <v>0.788336084659901</v>
+        <v>8.00263059184004E-5</v>
       </c>
       <c r="L29" t="n">
-        <v>9.83205925634483E-6</v>
+        <v>1.98413122604388E-4</v>
       </c>
       <c r="M29" t="n">
-        <v>0.0571102221710609</v>
+        <v>0.111441686270995</v>
       </c>
     </row>
     <row r="30">
@@ -1634,40 +1592,40 @@
         <v>41</v>
       </c>
       <c r="B30" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C30" t="n">
-        <v>0.14409967625638</v>
+        <v>0.0300518319251443</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0953005771771478</v>
+        <v>0.126023909224416</v>
       </c>
       <c r="E30" t="n">
-        <v>5.14532947880286E-5</v>
+        <v>3.30882896684586E-4</v>
       </c>
       <c r="F30" t="n">
-        <v>9.85243855035337E-4</v>
+        <v>0.602605364022017</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0906455766464646</v>
+        <v>0.0120276718361903</v>
       </c>
       <c r="H30" t="n">
-        <v>5.84372258456145E-5</v>
+        <v>0.0223789295571484</v>
       </c>
       <c r="I30" t="n">
-        <v>8.03487529726993E-7</v>
+        <v>0.0770303153454738</v>
       </c>
       <c r="J30" t="n">
-        <v>1.93784301629495E-5</v>
+        <v>2.88379535028605E-4</v>
       </c>
       <c r="K30" t="n">
-        <v>0.689896597180677</v>
+        <v>0.00297978536003282</v>
       </c>
       <c r="L30" t="n">
-        <v>3.22579761162876E-4</v>
+        <v>0.0426577962511474</v>
       </c>
       <c r="M30" t="n">
-        <v>0.125058565860539</v>
+        <v>0.202657615679146</v>
       </c>
     </row>
     <row r="31">
@@ -1675,40 +1633,40 @@
         <v>42</v>
       </c>
       <c r="B31" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C31" t="n">
-        <v>0.202300775960861</v>
+        <v>0.192619192727207</v>
       </c>
       <c r="D31" t="n">
-        <v>0.710998284327609</v>
+        <v>0.89502270364709</v>
       </c>
       <c r="E31" t="n">
-        <v>6.0227355219378E-7</v>
+        <v>4.98858123312647E-6</v>
       </c>
       <c r="F31" t="n">
-        <v>0.00743816234932262</v>
+        <v>0.00547280844110549</v>
       </c>
       <c r="G31" t="n">
-        <v>6.27357514346972E-6</v>
+        <v>0.0660002167828165</v>
       </c>
       <c r="H31" t="n">
-        <v>5.86645449632843E-5</v>
+        <v>6.181924037586E-6</v>
       </c>
       <c r="I31" t="n">
-        <v>5.32840178333177E-9</v>
+        <v>0.00761895258785159</v>
       </c>
       <c r="J31" t="n">
-        <v>1.41066950436262E-6</v>
+        <v>9.04425361490973E-7</v>
       </c>
       <c r="K31" t="n">
-        <v>8.30324074179945E-4</v>
+        <v>5.62026111221152E-7</v>
       </c>
       <c r="L31" t="n">
-        <v>1.21991771895163E-6</v>
+        <v>7.92374625750635E-5</v>
       </c>
       <c r="M31" t="n">
-        <v>0.678307117873012</v>
+        <v>0.0132576832960793</v>
       </c>
     </row>
     <row r="32">
@@ -1719,37 +1677,37 @@
         <v>6</v>
       </c>
       <c r="C32" t="n">
-        <v>0.127544340103315</v>
+        <v>0.0729410484225033</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0124672718082653</v>
+        <v>0.249575161141431</v>
       </c>
       <c r="E32" t="n">
-        <v>1.71850116574368E-4</v>
+        <v>1.43768265365873E-4</v>
       </c>
       <c r="F32" t="n">
-        <v>0.054707666707963</v>
+        <v>1.21073321092828E-4</v>
       </c>
       <c r="G32" t="n">
-        <v>0.061320030790206</v>
+        <v>0.369702238989909</v>
       </c>
       <c r="H32" t="n">
-        <v>0.407767323938051</v>
+        <v>2.49277760092053E-6</v>
       </c>
       <c r="I32" t="n">
-        <v>1.59738733580891E-6</v>
+        <v>0.0302788503129016</v>
       </c>
       <c r="J32" t="n">
-        <v>2.9503808796393E-5</v>
+        <v>7.33573358820506E-7</v>
       </c>
       <c r="K32" t="n">
-        <v>0.0562548885584832</v>
+        <v>0.00587901198904193</v>
       </c>
       <c r="L32" t="n">
-        <v>1.01797128037505E-4</v>
+        <v>4.81071247756108E-5</v>
       </c>
       <c r="M32" t="n">
-        <v>0.377711803278556</v>
+        <v>0.324641595227086</v>
       </c>
     </row>
     <row r="33">
@@ -1760,37 +1718,37 @@
         <v>6</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0319595406930359</v>
+        <v>0.0386081328428263</v>
       </c>
       <c r="D33" t="n">
-        <v>0.110168697266545</v>
+        <v>0.438587390316638</v>
       </c>
       <c r="E33" t="n">
-        <v>0.00359952851929247</v>
+        <v>5.9447227389014E-5</v>
       </c>
       <c r="F33" t="n">
-        <v>0.00295816571911136</v>
+        <v>3.25639193562669E-5</v>
       </c>
       <c r="G33" t="n">
-        <v>0.585971150930341</v>
+        <v>0.36093068664679</v>
       </c>
       <c r="H33" t="n">
-        <v>0.058351474178601</v>
+        <v>0.0421527108419087</v>
       </c>
       <c r="I33" t="n">
-        <v>1.4245482853115E-5</v>
+        <v>0.0547471475547919</v>
       </c>
       <c r="J33" t="n">
-        <v>1.16663126449967E-6</v>
+        <v>1.88789124822768E-6</v>
       </c>
       <c r="K33" t="n">
-        <v>0.0129421952485959</v>
+        <v>0.00385067136713787</v>
       </c>
       <c r="L33" t="n">
-        <v>1.52772489877317E-4</v>
+        <v>8.29142595141318E-5</v>
       </c>
       <c r="M33" t="n">
-        <v>0.187124495408923</v>
+        <v>0.168590747074358</v>
       </c>
     </row>
     <row r="34">
@@ -1801,37 +1759,37 @@
         <v>6</v>
       </c>
       <c r="C34" t="n">
-        <v>0.140257437920198</v>
+        <v>0.163909469665085</v>
       </c>
       <c r="D34" t="n">
-        <v>9.05656220070646E-4</v>
+        <v>0.267208123357182</v>
       </c>
       <c r="E34" t="n">
-        <v>2.3417230042243E-4</v>
+        <v>1.30766063332929E-6</v>
       </c>
       <c r="F34" t="n">
-        <v>0.00613198826605588</v>
+        <v>1.13977376323163E-6</v>
       </c>
       <c r="G34" t="n">
-        <v>0.271328757388446</v>
+        <v>0.138803637338201</v>
       </c>
       <c r="H34" t="n">
-        <v>0.662070926053881</v>
+        <v>0.0144893574502833</v>
       </c>
       <c r="I34" t="n">
-        <v>4.56389585544912E-5</v>
+        <v>0.0518298945837684</v>
       </c>
       <c r="J34" t="n">
-        <v>5.53666296781273E-7</v>
+        <v>3.26963325645913E-8</v>
       </c>
       <c r="K34" t="n">
-        <v>0.258484394083362</v>
+        <v>0.00624237518206614</v>
       </c>
       <c r="L34" t="n">
-        <v>1.38252917842616E-7</v>
+        <v>5.35218038042296E-6</v>
       </c>
       <c r="M34" t="n">
-        <v>0.0191306583555665</v>
+        <v>0.488356220917693</v>
       </c>
     </row>
     <row r="35">
@@ -1842,37 +1800,37 @@
         <v>6</v>
       </c>
       <c r="C35" t="n">
-        <v>0.159356305006545</v>
+        <v>0.120863469693099</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0416859791453037</v>
+        <v>0.962169454490537</v>
       </c>
       <c r="E35" t="n">
-        <v>0.0481714742257271</v>
+        <v>4.7678011158295E-7</v>
       </c>
       <c r="F35" t="n">
-        <v>0.00113628059354197</v>
+        <v>4.27426160694473E-7</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0454411581058778</v>
+        <v>0.00707496807542814</v>
       </c>
       <c r="H35" t="n">
-        <v>0.290972173757142</v>
+        <v>5.45148237781573E-5</v>
       </c>
       <c r="I35" t="n">
-        <v>0.001042051908957</v>
+        <v>0.00890312754717134</v>
       </c>
       <c r="J35" t="n">
-        <v>1.48656795341465E-5</v>
+        <v>1.31752646583747E-6</v>
       </c>
       <c r="K35" t="n">
-        <v>0.411409780844136</v>
+        <v>1.03710138858464E-5</v>
       </c>
       <c r="L35" t="n">
-        <v>3.85299226109578E-5</v>
+        <v>5.60788068602509E-4</v>
       </c>
       <c r="M35" t="n">
-        <v>0.0303201049287615</v>
+        <v>0.010499153954095</v>
       </c>
     </row>
     <row r="36">
@@ -1883,37 +1841,37 @@
         <v>6</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0768321446606497</v>
+        <v>0.115980682966298</v>
       </c>
       <c r="D36" t="n">
-        <v>0.190410314392878</v>
+        <v>0.837609070118224</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0272781234039028</v>
+        <v>2.62332103442507E-5</v>
       </c>
       <c r="F36" t="n">
-        <v>3.22878789804022E-5</v>
+        <v>3.95178826698479E-6</v>
       </c>
       <c r="G36" t="n">
-        <v>0.150594387926751</v>
+        <v>0.17122254972225</v>
       </c>
       <c r="H36" t="n">
-        <v>0.217858010609633</v>
+        <v>0.0296649846185287</v>
       </c>
       <c r="I36" t="n">
-        <v>0.0255172125466873</v>
+        <v>0.0019466273335722</v>
       </c>
       <c r="J36" t="n">
-        <v>1.13841573333216E-5</v>
+        <v>9.51391750263993E-6</v>
       </c>
       <c r="K36" t="n">
-        <v>0.296624994171469</v>
+        <v>2.1622143794025E-5</v>
       </c>
       <c r="L36" t="n">
-        <v>0.00120642719576857</v>
+        <v>0.00126993605020735</v>
       </c>
       <c r="M36" t="n">
-        <v>0.110929707121255</v>
+        <v>1.74333438608671E-4</v>
       </c>
     </row>
     <row r="37">
@@ -1924,37 +1882,37 @@
         <v>6</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0893198732733493</v>
+        <v>0.124407182221583</v>
       </c>
       <c r="D37" t="n">
-        <v>0.148616903590278</v>
+        <v>0.824721669529594</v>
       </c>
       <c r="E37" t="n">
-        <v>1.29970195801942E-6</v>
+        <v>2.08443164458338E-4</v>
       </c>
       <c r="F37" t="n">
-        <v>3.50544123529407E-4</v>
+        <v>1.20709940613002E-6</v>
       </c>
       <c r="G37" t="n">
-        <v>8.02787477505275E-4</v>
+        <v>0.10399571180009</v>
       </c>
       <c r="H37" t="n">
-        <v>0.257894768034889</v>
+        <v>2.07984739437134E-4</v>
       </c>
       <c r="I37" t="n">
-        <v>0.00695271558981932</v>
+        <v>3.73918354495524E-4</v>
       </c>
       <c r="J37" t="n">
-        <v>3.75056530566582E-6</v>
+        <v>2.51267818621089E-4</v>
       </c>
       <c r="K37" t="n">
-        <v>0.606152410636302</v>
+        <v>2.40313710005627E-5</v>
       </c>
       <c r="L37" t="n">
-        <v>1.37038656891672E-7</v>
+        <v>1.49936124075707E-4</v>
       </c>
       <c r="M37" t="n">
-        <v>0.0350141072951369</v>
+        <v>0.0671541624716613</v>
       </c>
     </row>
     <row r="38">
@@ -1962,40 +1920,40 @@
         <v>49</v>
       </c>
       <c r="B38" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0744779772693026</v>
+        <v>0.0218912088248391</v>
       </c>
       <c r="D38" t="n">
-        <v>0.771755384574979</v>
+        <v>0.735793180496749</v>
       </c>
       <c r="E38" t="n">
-        <v>1.2179704092315E-7</v>
+        <v>0.20448959480198</v>
       </c>
       <c r="F38" t="n">
-        <v>4.10823817377496E-7</v>
+        <v>2.0837680458386E-6</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0470034946994811</v>
+        <v>6.44213003312815E-4</v>
       </c>
       <c r="H38" t="n">
-        <v>2.38650474340773E-5</v>
+        <v>2.32206662643508E-6</v>
       </c>
       <c r="I38" t="n">
-        <v>4.44871944909622E-6</v>
+        <v>1.68541036157285E-5</v>
       </c>
       <c r="J38" t="n">
-        <v>5.24963377808097E-6</v>
+        <v>2.79744536779987E-5</v>
       </c>
       <c r="K38" t="n">
-        <v>0.278697703182753</v>
+        <v>4.04950435338894E-6</v>
       </c>
       <c r="L38" t="n">
-        <v>6.85596927770894E-7</v>
+        <v>1.73293577507539E-4</v>
       </c>
       <c r="M38" t="n">
-        <v>1.4382901243294E-4</v>
+        <v>0.0315263177177226</v>
       </c>
     </row>
     <row r="39">
@@ -2006,37 +1964,37 @@
         <v>6</v>
       </c>
       <c r="C39" t="n">
-        <v>0.154271893604505</v>
+        <v>0.093425778470675</v>
       </c>
       <c r="D39" t="n">
-        <v>0.863245646566485</v>
+        <v>0.771734277390245</v>
       </c>
       <c r="E39" t="n">
-        <v>3.07372650865299E-8</v>
+        <v>3.12228664892467E-4</v>
       </c>
       <c r="F39" t="n">
-        <v>9.04072190971925E-10</v>
+        <v>8.92803848237997E-6</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0673392184930517</v>
+        <v>0.230177085085877</v>
       </c>
       <c r="H39" t="n">
-        <v>0.00303725579865163</v>
+        <v>5.14960858164186E-5</v>
       </c>
       <c r="I39" t="n">
-        <v>2.31179852389982E-5</v>
+        <v>7.73078760219036E-6</v>
       </c>
       <c r="J39" t="n">
-        <v>2.38836450470053E-5</v>
+        <v>1.21038829901025E-5</v>
       </c>
       <c r="K39" t="n">
-        <v>0.0049608026610843</v>
+        <v>2.11177955283314E-6</v>
       </c>
       <c r="L39" t="n">
-        <v>4.50649183399362E-6</v>
+        <v>0.00104784968347662</v>
       </c>
       <c r="M39" t="n">
-        <v>0.0361165963305653</v>
+        <v>0.00401616424407034</v>
       </c>
     </row>
     <row r="40">
@@ -2047,37 +2005,37 @@
         <v>6</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0576728392672413</v>
+        <v>0.120030418510517</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0171032745500561</v>
+        <v>0.815660982715606</v>
       </c>
       <c r="E40" t="n">
-        <v>4.24901243211984E-6</v>
+        <v>3.04287686586671E-8</v>
       </c>
       <c r="F40" t="n">
-        <v>1.59326730718624E-4</v>
+        <v>6.82332473169108E-7</v>
       </c>
       <c r="G40" t="n">
-        <v>0.508429462694897</v>
+        <v>0.158192355881837</v>
       </c>
       <c r="H40" t="n">
-        <v>8.27061164145289E-4</v>
+        <v>0.00107023045577914</v>
       </c>
       <c r="I40" t="n">
-        <v>3.85571702145033E-6</v>
+        <v>2.8537958296107E-5</v>
       </c>
       <c r="J40" t="n">
-        <v>0.00179757472969638</v>
+        <v>1.74906261537954E-4</v>
       </c>
       <c r="K40" t="n">
-        <v>0.438650937833874</v>
+        <v>1.38039349322611E-5</v>
       </c>
       <c r="L40" t="n">
-        <v>3.77347632518116E-5</v>
+        <v>7.40282645600895E-4</v>
       </c>
       <c r="M40" t="n">
-        <v>0.151118840681907</v>
+        <v>0.0284965977176703</v>
       </c>
     </row>
     <row r="41">
@@ -2088,37 +2046,37 @@
         <v>6</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0836560643307167</v>
+        <v>0.0860232567172323</v>
       </c>
       <c r="D41" t="n">
-        <v>0.781893587879233</v>
+        <v>0.845856664861609</v>
       </c>
       <c r="E41" t="n">
-        <v>1.01934525848073E-5</v>
+        <v>2.07582962625162E-8</v>
       </c>
       <c r="F41" t="n">
-        <v>3.02010369826175E-6</v>
+        <v>4.3595945424163E-7</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0118736321740358</v>
+        <v>0.120454429566229</v>
       </c>
       <c r="H41" t="n">
-        <v>0.183990124893389</v>
+        <v>0.165115104925878</v>
       </c>
       <c r="I41" t="n">
-        <v>6.97490062589005E-7</v>
+        <v>4.0366545807051E-6</v>
       </c>
       <c r="J41" t="n">
-        <v>4.92504926180494E-5</v>
+        <v>2.34901467003262E-5</v>
       </c>
       <c r="K41" t="n">
-        <v>0.0259132926329859</v>
+        <v>5.91915675120459E-5</v>
       </c>
       <c r="L41" t="n">
-        <v>0.00393897218469294</v>
+        <v>8.09749642899759E-5</v>
       </c>
       <c r="M41" t="n">
-        <v>0.00320998621024869</v>
+        <v>0.00800314695597124</v>
       </c>
     </row>
     <row r="42">
@@ -2170,37 +2128,37 @@
         <v>6</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0860232567172323</v>
+        <v>0.0637411847922168</v>
       </c>
       <c r="D43" t="n">
-        <v>0.845856664861609</v>
+        <v>0.275283173987975</v>
       </c>
       <c r="E43" t="n">
-        <v>2.07582962625162E-8</v>
+        <v>9.75549290471359E-6</v>
       </c>
       <c r="F43" t="n">
-        <v>4.3595945424163E-7</v>
+        <v>9.82666642060416E-7</v>
       </c>
       <c r="G43" t="n">
-        <v>0.120454429566229</v>
+        <v>0.303988939322506</v>
       </c>
       <c r="H43" t="n">
-        <v>0.165115104925878</v>
+        <v>0.0068914147007272</v>
       </c>
       <c r="I43" t="n">
-        <v>4.0366545807051E-6</v>
+        <v>0.0050916980294501</v>
       </c>
       <c r="J43" t="n">
-        <v>2.34901467003262E-5</v>
+        <v>1.90139327267303E-4</v>
       </c>
       <c r="K43" t="n">
-        <v>5.91915675120459E-5</v>
+        <v>0.0327600358316388</v>
       </c>
       <c r="L43" t="n">
-        <v>8.09749642899759E-5</v>
+        <v>0.0379890815621037</v>
       </c>
       <c r="M43" t="n">
-        <v>0.00800314695597124</v>
+        <v>0.294489944727839</v>
       </c>
     </row>
     <row r="44">
@@ -2211,37 +2169,37 @@
         <v>6</v>
       </c>
       <c r="C44" t="n">
-        <v>0.120030418510517</v>
+        <v>0.152974335175793</v>
       </c>
       <c r="D44" t="n">
-        <v>0.815660982715606</v>
+        <v>0.305303913032105</v>
       </c>
       <c r="E44" t="n">
-        <v>3.04287686586671E-8</v>
+        <v>1.15358110364745E-5</v>
       </c>
       <c r="F44" t="n">
-        <v>6.82332473169108E-7</v>
+        <v>1.63254677288893E-5</v>
       </c>
       <c r="G44" t="n">
-        <v>0.158192355881837</v>
+        <v>0.159782055366375</v>
       </c>
       <c r="H44" t="n">
-        <v>0.00107023045577914</v>
+        <v>0.00765749504521492</v>
       </c>
       <c r="I44" t="n">
-        <v>2.8537958296107E-5</v>
+        <v>2.2139985727975E-4</v>
       </c>
       <c r="J44" t="n">
-        <v>1.74906261537954E-4</v>
+        <v>2.50522955990984E-5</v>
       </c>
       <c r="K44" t="n">
-        <v>1.38039349322611E-5</v>
+        <v>0.0763551713474999</v>
       </c>
       <c r="L44" t="n">
-        <v>7.40282645600895E-4</v>
+        <v>0.00184218419772745</v>
       </c>
       <c r="M44" t="n">
-        <v>0.0284965977176703</v>
+        <v>0.360672581157799</v>
       </c>
     </row>
     <row r="45">
@@ -2252,37 +2210,37 @@
         <v>6</v>
       </c>
       <c r="C45" t="n">
-        <v>0.115980682966298</v>
+        <v>0.0576728392672413</v>
       </c>
       <c r="D45" t="n">
-        <v>0.837609070118224</v>
+        <v>0.0171032745500561</v>
       </c>
       <c r="E45" t="n">
-        <v>2.62332103442507E-5</v>
+        <v>4.24901243211984E-6</v>
       </c>
       <c r="F45" t="n">
-        <v>3.95178826698479E-6</v>
+        <v>1.59326730718624E-4</v>
       </c>
       <c r="G45" t="n">
-        <v>0.17122254972225</v>
+        <v>0.508429462694897</v>
       </c>
       <c r="H45" t="n">
-        <v>0.0296649846185287</v>
+        <v>8.27061164145289E-4</v>
       </c>
       <c r="I45" t="n">
-        <v>0.0019466273335722</v>
+        <v>3.85571702145033E-6</v>
       </c>
       <c r="J45" t="n">
-        <v>9.51391750263993E-6</v>
+        <v>0.00179757472969638</v>
       </c>
       <c r="K45" t="n">
-        <v>2.1622143794025E-5</v>
+        <v>0.438650937833874</v>
       </c>
       <c r="L45" t="n">
-        <v>0.00126993605020735</v>
+        <v>3.77347632518116E-5</v>
       </c>
       <c r="M45" t="n">
-        <v>1.74333438608671E-4</v>
+        <v>0.151118840681907</v>
       </c>
     </row>
     <row r="46">
@@ -2293,37 +2251,37 @@
         <v>6</v>
       </c>
       <c r="C46" t="n">
-        <v>0.120863469693099</v>
+        <v>0.0744779772693026</v>
       </c>
       <c r="D46" t="n">
-        <v>0.962169454490537</v>
+        <v>0.771755384574979</v>
       </c>
       <c r="E46" t="n">
-        <v>4.7678011158295E-7</v>
+        <v>1.2179704092315E-7</v>
       </c>
       <c r="F46" t="n">
-        <v>4.27426160694473E-7</v>
+        <v>4.10823817377496E-7</v>
       </c>
       <c r="G46" t="n">
-        <v>0.00707496807542814</v>
+        <v>0.0470034946994811</v>
       </c>
       <c r="H46" t="n">
-        <v>5.45148237781573E-5</v>
+        <v>2.38650474340773E-5</v>
       </c>
       <c r="I46" t="n">
-        <v>0.00890312754717134</v>
+        <v>4.44871944909622E-6</v>
       </c>
       <c r="J46" t="n">
-        <v>1.31752646583747E-6</v>
+        <v>5.24963377808097E-6</v>
       </c>
       <c r="K46" t="n">
-        <v>1.03710138858464E-5</v>
+        <v>0.278697703182753</v>
       </c>
       <c r="L46" t="n">
-        <v>5.60788068602509E-4</v>
+        <v>6.85596927770894E-7</v>
       </c>
       <c r="M46" t="n">
-        <v>0.010499153954095</v>
+        <v>1.4382901243294E-4</v>
       </c>
     </row>
     <row r="47">
@@ -2334,37 +2292,37 @@
         <v>6</v>
       </c>
       <c r="C47" t="n">
-        <v>0.163909469665085</v>
+        <v>0.154271893604505</v>
       </c>
       <c r="D47" t="n">
-        <v>0.267208123357182</v>
+        <v>0.863245646566485</v>
       </c>
       <c r="E47" t="n">
-        <v>1.30766063332929E-6</v>
+        <v>3.07372650865299E-8</v>
       </c>
       <c r="F47" t="n">
-        <v>1.13977376323163E-6</v>
+        <v>9.04072190971925E-10</v>
       </c>
       <c r="G47" t="n">
-        <v>0.138803637338201</v>
+        <v>0.0673392184930517</v>
       </c>
       <c r="H47" t="n">
-        <v>0.0144893574502833</v>
+        <v>0.00303725579865163</v>
       </c>
       <c r="I47" t="n">
-        <v>0.0518298945837684</v>
+        <v>2.31179852389982E-5</v>
       </c>
       <c r="J47" t="n">
-        <v>3.26963325645913E-8</v>
+        <v>2.38836450470053E-5</v>
       </c>
       <c r="K47" t="n">
-        <v>0.00624237518206614</v>
+        <v>0.0049608026610843</v>
       </c>
       <c r="L47" t="n">
-        <v>5.35218038042296E-6</v>
+        <v>4.50649183399362E-6</v>
       </c>
       <c r="M47" t="n">
-        <v>0.488356220917693</v>
+        <v>0.0361165963305653</v>
       </c>
     </row>
     <row r="48">
@@ -2375,37 +2333,37 @@
         <v>6</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0386081328428263</v>
+        <v>0.0775603832733463</v>
       </c>
       <c r="D48" t="n">
-        <v>0.438587390316638</v>
+        <v>0.619791287331234</v>
       </c>
       <c r="E48" t="n">
-        <v>5.9447227389014E-5</v>
+        <v>1.40457263737309E-5</v>
       </c>
       <c r="F48" t="n">
-        <v>3.25639193562669E-5</v>
+        <v>2.43623849418304E-6</v>
       </c>
       <c r="G48" t="n">
-        <v>0.36093068664679</v>
+        <v>0.142125995091995</v>
       </c>
       <c r="H48" t="n">
-        <v>0.0421527108419087</v>
+        <v>1.72317601806916E-4</v>
       </c>
       <c r="I48" t="n">
-        <v>0.0547471475547919</v>
+        <v>0.00577617608334309</v>
       </c>
       <c r="J48" t="n">
-        <v>1.88789124822768E-6</v>
+        <v>0.00137187734582836</v>
       </c>
       <c r="K48" t="n">
-        <v>0.00385067136713787</v>
+        <v>0.0641922046316473</v>
       </c>
       <c r="L48" t="n">
-        <v>8.29142595141318E-5</v>
+        <v>8.28509039844405E-5</v>
       </c>
       <c r="M48" t="n">
-        <v>0.168590747074358</v>
+        <v>0.114649259532808</v>
       </c>
     </row>
     <row r="49">
@@ -2416,37 +2374,37 @@
         <v>6</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0729410484225033</v>
+        <v>0.135883018783382</v>
       </c>
       <c r="D49" t="n">
-        <v>0.249575161141431</v>
+        <v>0.746090236729706</v>
       </c>
       <c r="E49" t="n">
-        <v>1.43768265365873E-4</v>
+        <v>3.02095707673413E-7</v>
       </c>
       <c r="F49" t="n">
-        <v>1.21073321092828E-4</v>
+        <v>3.28562129934391E-8</v>
       </c>
       <c r="G49" t="n">
-        <v>0.369702238989909</v>
+        <v>0.161825137662896</v>
       </c>
       <c r="H49" t="n">
-        <v>2.49277760092053E-6</v>
+        <v>2.13383421253024E-6</v>
       </c>
       <c r="I49" t="n">
-        <v>0.0302788503129016</v>
+        <v>3.71299709454136E-4</v>
       </c>
       <c r="J49" t="n">
-        <v>7.33573358820506E-7</v>
+        <v>0.0112432529261334</v>
       </c>
       <c r="K49" t="n">
-        <v>0.00587901198904193</v>
+        <v>2.09044401526624E-5</v>
       </c>
       <c r="L49" t="n">
-        <v>4.81071247756108E-5</v>
+        <v>4.20505997837344E-6</v>
       </c>
       <c r="M49" t="n">
-        <v>0.324641595227086</v>
+        <v>0.0526198953295075</v>
       </c>
     </row>
     <row r="50">
@@ -2457,37 +2415,37 @@
         <v>6</v>
       </c>
       <c r="C50" t="n">
-        <v>0.192619192727207</v>
+        <v>0.0971934387104891</v>
       </c>
       <c r="D50" t="n">
-        <v>0.89502270364709</v>
+        <v>0.186460309705582</v>
       </c>
       <c r="E50" t="n">
-        <v>4.98858123312647E-6</v>
+        <v>2.26351194628147E-6</v>
       </c>
       <c r="F50" t="n">
-        <v>0.00547280844110549</v>
+        <v>1.53415968061871E-8</v>
       </c>
       <c r="G50" t="n">
-        <v>0.0660002167828165</v>
+        <v>0.204214574559429</v>
       </c>
       <c r="H50" t="n">
-        <v>6.181924037586E-6</v>
+        <v>2.45177438786352E-7</v>
       </c>
       <c r="I50" t="n">
-        <v>0.00761895258785159</v>
+        <v>0.00281693272546881</v>
       </c>
       <c r="J50" t="n">
-        <v>9.04425361490973E-7</v>
+        <v>1.90513306596243E-5</v>
       </c>
       <c r="K50" t="n">
-        <v>5.62026111221152E-7</v>
+        <v>0.299871998506041</v>
       </c>
       <c r="L50" t="n">
-        <v>7.92374625750635E-5</v>
+        <v>9.9276166117285E-6</v>
       </c>
       <c r="M50" t="n">
-        <v>0.0132576832960793</v>
+        <v>0.349178241505865</v>
       </c>
     </row>
     <row r="51">
@@ -2498,37 +2456,37 @@
         <v>6</v>
       </c>
       <c r="C51" t="n">
-        <v>0.124407182221583</v>
+        <v>0.0924581929237477</v>
       </c>
       <c r="D51" t="n">
-        <v>0.824721669529594</v>
+        <v>0.809522465396158</v>
       </c>
       <c r="E51" t="n">
-        <v>2.08443164458338E-4</v>
+        <v>4.44676044989875E-7</v>
       </c>
       <c r="F51" t="n">
-        <v>1.20709940613002E-6</v>
+        <v>4.24125211921983E-6</v>
       </c>
       <c r="G51" t="n">
-        <v>0.10399571180009</v>
+        <v>0.0633003341841528</v>
       </c>
       <c r="H51" t="n">
-        <v>2.07984739437134E-4</v>
+        <v>1.10741030147373E-6</v>
       </c>
       <c r="I51" t="n">
-        <v>3.73918354495524E-4</v>
+        <v>1.28591794742192E-5</v>
       </c>
       <c r="J51" t="n">
-        <v>2.51267818621089E-4</v>
+        <v>2.56605888025412E-6</v>
       </c>
       <c r="K51" t="n">
-        <v>2.40313710005627E-5</v>
+        <v>2.47057742409077E-4</v>
       </c>
       <c r="L51" t="n">
-        <v>1.49936124075707E-4</v>
+        <v>0.00792868001430735</v>
       </c>
       <c r="M51" t="n">
-        <v>0.0671541624716613</v>
+        <v>0.0864900412286378</v>
       </c>
     </row>
     <row r="52">
@@ -2539,37 +2497,37 @@
         <v>6</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0597430389260075</v>
+        <v>0.231352772886249</v>
       </c>
       <c r="D52" t="n">
-        <v>0.574815051794415</v>
+        <v>0.986011465466999</v>
       </c>
       <c r="E52" t="n">
-        <v>2.78232389148385E-7</v>
+        <v>3.92213937422571E-6</v>
       </c>
       <c r="F52" t="n">
-        <v>0.00332097448261142</v>
+        <v>3.80507811625095E-6</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0779827079465992</v>
+        <v>0.00861495435980517</v>
       </c>
       <c r="H52" t="n">
-        <v>3.41441716566067E-5</v>
+        <v>8.30248882554823E-7</v>
       </c>
       <c r="I52" t="n">
-        <v>0.0103090306058761</v>
+        <v>7.14613018270624E-7</v>
       </c>
       <c r="J52" t="n">
-        <v>0.0189427732366675</v>
+        <v>2.68812651129283E-4</v>
       </c>
       <c r="K52" t="n">
-        <v>3.56871742596759E-4</v>
+        <v>5.50114539865069E-6</v>
       </c>
       <c r="L52" t="n">
-        <v>2.09635413900274E-5</v>
+        <v>4.86525441048893E-4</v>
       </c>
       <c r="M52" t="n">
-        <v>0.297005132754885</v>
+        <v>0.00275283938928664</v>
       </c>
     </row>
     <row r="53">
@@ -2580,37 +2538,37 @@
         <v>6</v>
       </c>
       <c r="C53" t="n">
-        <v>0.135883018783382</v>
+        <v>0.118037042081669</v>
       </c>
       <c r="D53" t="n">
-        <v>0.746090236729706</v>
+        <v>0.683088194322711</v>
       </c>
       <c r="E53" t="n">
-        <v>3.02095707673413E-7</v>
+        <v>1.03186661311869E-5</v>
       </c>
       <c r="F53" t="n">
-        <v>3.28562129934391E-8</v>
+        <v>4.1928289488449E-6</v>
       </c>
       <c r="G53" t="n">
-        <v>0.161825137662896</v>
+        <v>0.0258483590619507</v>
       </c>
       <c r="H53" t="n">
-        <v>2.13383421253024E-6</v>
+        <v>6.22894109974559E-7</v>
       </c>
       <c r="I53" t="n">
-        <v>3.71299709454136E-4</v>
+        <v>5.0163944942324E-8</v>
       </c>
       <c r="J53" t="n">
-        <v>0.0112432529261334</v>
+        <v>1.48332808013523E-5</v>
       </c>
       <c r="K53" t="n">
-        <v>2.09044401526624E-5</v>
+        <v>0.178558492826402</v>
       </c>
       <c r="L53" t="n">
-        <v>4.20505997837344E-6</v>
+        <v>5.81423298466857E-5</v>
       </c>
       <c r="M53" t="n">
-        <v>0.0526198953295075</v>
+        <v>0.164515067343522</v>
       </c>
     </row>
     <row r="54">
@@ -2621,37 +2579,37 @@
         <v>6</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0775603832733463</v>
+        <v>0.102615947828295</v>
       </c>
       <c r="D54" t="n">
-        <v>0.619791287331234</v>
+        <v>0.331846213713622</v>
       </c>
       <c r="E54" t="n">
-        <v>1.40457263737309E-5</v>
+        <v>3.61727499677799E-5</v>
       </c>
       <c r="F54" t="n">
-        <v>2.43623849418304E-6</v>
+        <v>2.72409968064426E-6</v>
       </c>
       <c r="G54" t="n">
-        <v>0.142125995091995</v>
+        <v>0.0260603268355363</v>
       </c>
       <c r="H54" t="n">
-        <v>1.72317601806916E-4</v>
+        <v>3.31621081004244E-5</v>
       </c>
       <c r="I54" t="n">
-        <v>0.00577617608334309</v>
+        <v>5.19808951430388E-6</v>
       </c>
       <c r="J54" t="n">
-        <v>0.00137187734582836</v>
+        <v>0.00482517604717733</v>
       </c>
       <c r="K54" t="n">
-        <v>0.0641922046316473</v>
+        <v>0.456413978338525</v>
       </c>
       <c r="L54" t="n">
-        <v>8.28509039844405E-5</v>
+        <v>0.00923008868251602</v>
       </c>
       <c r="M54" t="n">
-        <v>0.114649259532808</v>
+        <v>0.10131667126195</v>
       </c>
     </row>
     <row r="55">
@@ -2659,40 +2617,40 @@
         <v>66</v>
       </c>
       <c r="B55" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0971934387104891</v>
+        <v>0.429256321445234</v>
       </c>
       <c r="D55" t="n">
-        <v>0.186460309705582</v>
+        <v>0.0231973275446729</v>
       </c>
       <c r="E55" t="n">
-        <v>2.26351194628147E-6</v>
+        <v>0.0197828825438535</v>
       </c>
       <c r="F55" t="n">
-        <v>1.53415968061871E-8</v>
+        <v>1.24209442897633E-6</v>
       </c>
       <c r="G55" t="n">
-        <v>0.204214574559429</v>
+        <v>0.0091926062264078</v>
       </c>
       <c r="H55" t="n">
-        <v>2.45177438786352E-7</v>
+        <v>3.07807489975995E-4</v>
       </c>
       <c r="I55" t="n">
-        <v>0.00281693272546881</v>
+        <v>2.42114431582171E-6</v>
       </c>
       <c r="J55" t="n">
-        <v>1.90513306596243E-5</v>
+        <v>7.24530776015211E-6</v>
       </c>
       <c r="K55" t="n">
-        <v>0.299871998506041</v>
+        <v>0.791264224214339</v>
       </c>
       <c r="L55" t="n">
-        <v>9.9276166117285E-6</v>
+        <v>2.01234313137613E-5</v>
       </c>
       <c r="M55" t="n">
-        <v>0.349178241505865</v>
+        <v>0.151927026158108</v>
       </c>
     </row>
     <row r="56">
@@ -2700,40 +2658,40 @@
         <v>67</v>
       </c>
       <c r="B56" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0924581929237477</v>
+        <v>0.0580475852100544</v>
       </c>
       <c r="D56" t="n">
-        <v>0.809522465396158</v>
+        <v>0.686345647707369</v>
       </c>
       <c r="E56" t="n">
-        <v>4.44676044989875E-7</v>
+        <v>0.143032702927607</v>
       </c>
       <c r="F56" t="n">
-        <v>4.24125211921983E-6</v>
+        <v>7.75372392777242E-11</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0633003341841528</v>
+        <v>0.031294343194673</v>
       </c>
       <c r="H56" t="n">
-        <v>1.10741030147373E-6</v>
+        <v>0.00110813023064889</v>
       </c>
       <c r="I56" t="n">
-        <v>1.28591794742192E-5</v>
+        <v>2.49192399047345E-6</v>
       </c>
       <c r="J56" t="n">
-        <v>2.56605888025412E-6</v>
+        <v>1.40786993992587E-7</v>
       </c>
       <c r="K56" t="n">
-        <v>2.47057742409077E-4</v>
+        <v>0.0416683517150293</v>
       </c>
       <c r="L56" t="n">
-        <v>0.00792868001430735</v>
+        <v>3.05119624793593E-4</v>
       </c>
       <c r="M56" t="n">
-        <v>0.0864900412286378</v>
+        <v>0.022544446077308</v>
       </c>
     </row>
     <row r="57">
@@ -2741,40 +2699,40 @@
         <v>68</v>
       </c>
       <c r="B57" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C57" t="n">
-        <v>0.134892771395735</v>
+        <v>0.151584702602353</v>
       </c>
       <c r="D57" t="n">
-        <v>0.860426657119299</v>
+        <v>0.2409360062526</v>
       </c>
       <c r="E57" t="n">
-        <v>2.71841553786978E-10</v>
+        <v>0.147679140215956</v>
       </c>
       <c r="F57" t="n">
-        <v>8.09112401304243E-7</v>
+        <v>6.76964488504529E-8</v>
       </c>
       <c r="G57" t="n">
-        <v>0.0379594352516106</v>
+        <v>3.42581738645779E-4</v>
       </c>
       <c r="H57" t="n">
-        <v>2.32382834427101E-6</v>
+        <v>3.04617611990748E-6</v>
       </c>
       <c r="I57" t="n">
-        <v>1.29486696194874E-4</v>
+        <v>1.60786373115407E-5</v>
       </c>
       <c r="J57" t="n">
-        <v>2.28401635628111E-6</v>
+        <v>1.27194192725035E-6</v>
       </c>
       <c r="K57" t="n">
-        <v>0.00836479079900864</v>
+        <v>0.512550764540538</v>
       </c>
       <c r="L57" t="n">
-        <v>8.21898322739715E-5</v>
+        <v>0.00411743581035417</v>
       </c>
       <c r="M57" t="n">
-        <v>0.0717353016396341</v>
+        <v>0.00791002539157453</v>
       </c>
     </row>
     <row r="58">
@@ -2782,40 +2740,40 @@
         <v>69</v>
       </c>
       <c r="B58" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C58" t="n">
-        <v>0.152974335175793</v>
+        <v>0.114552642419583</v>
       </c>
       <c r="D58" t="n">
-        <v>0.305303913032105</v>
+        <v>0.00392921905847888</v>
       </c>
       <c r="E58" t="n">
-        <v>1.15358110364745E-5</v>
+        <v>0.134332121111704</v>
       </c>
       <c r="F58" t="n">
-        <v>1.63254677288893E-5</v>
+        <v>1.7180142178831E-6</v>
       </c>
       <c r="G58" t="n">
-        <v>0.159782055366375</v>
+        <v>1.91738018082286E-5</v>
       </c>
       <c r="H58" t="n">
-        <v>0.00765749504521492</v>
+        <v>8.18094768805895E-4</v>
       </c>
       <c r="I58" t="n">
-        <v>2.2139985727975E-4</v>
+        <v>4.18656892931109E-5</v>
       </c>
       <c r="J58" t="n">
-        <v>2.50522955990984E-5</v>
+        <v>6.01060966102871E-6</v>
       </c>
       <c r="K58" t="n">
-        <v>0.0763551713474999</v>
+        <v>0.550067073839111</v>
       </c>
       <c r="L58" t="n">
-        <v>0.00184218419772745</v>
+        <v>0.0178109165472678</v>
       </c>
       <c r="M58" t="n">
-        <v>0.360672581157799</v>
+        <v>0.322253778938716</v>
       </c>
     </row>
     <row r="59">
@@ -2823,40 +2781,40 @@
         <v>70</v>
       </c>
       <c r="B59" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0637411847922168</v>
+        <v>0.059750701818676</v>
       </c>
       <c r="D59" t="n">
-        <v>0.275283173987975</v>
+        <v>0.0984593785298707</v>
       </c>
       <c r="E59" t="n">
-        <v>9.75549290471359E-6</v>
+        <v>0.0809466274976345</v>
       </c>
       <c r="F59" t="n">
-        <v>9.82666642060416E-7</v>
+        <v>4.7191128626825E-6</v>
       </c>
       <c r="G59" t="n">
-        <v>0.303988939322506</v>
+        <v>2.20382459172309E-4</v>
       </c>
       <c r="H59" t="n">
-        <v>0.0068914147007272</v>
+        <v>0.0119158789693169</v>
       </c>
       <c r="I59" t="n">
-        <v>0.0050916980294501</v>
+        <v>1.76096679407403E-5</v>
       </c>
       <c r="J59" t="n">
-        <v>1.90139327267303E-4</v>
+        <v>3.11246920270091E-5</v>
       </c>
       <c r="K59" t="n">
-        <v>0.0327600358316388</v>
+        <v>0.72190037668767</v>
       </c>
       <c r="L59" t="n">
-        <v>0.0379890815621037</v>
+        <v>0.0231725531783771</v>
       </c>
       <c r="M59" t="n">
-        <v>0.294489944727839</v>
+        <v>0.0818357962532174</v>
       </c>
     </row>
     <row r="60">
@@ -2864,40 +2822,40 @@
         <v>71</v>
       </c>
       <c r="B60" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C60" t="n">
-        <v>0.102615947828295</v>
+        <v>0.0627127973702897</v>
       </c>
       <c r="D60" t="n">
-        <v>0.331846213713622</v>
+        <v>0.852810177468724</v>
       </c>
       <c r="E60" t="n">
-        <v>3.61727499677799E-5</v>
+        <v>0.185313871996449</v>
       </c>
       <c r="F60" t="n">
-        <v>2.72409968064426E-6</v>
+        <v>3.53188441100386E-10</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0260603268355363</v>
+        <v>3.76584766993616E-5</v>
       </c>
       <c r="H60" t="n">
-        <v>3.31621081004244E-5</v>
+        <v>1.73821685192564E-4</v>
       </c>
       <c r="I60" t="n">
-        <v>5.19808951430388E-6</v>
+        <v>3.09164919714124E-6</v>
       </c>
       <c r="J60" t="n">
-        <v>0.00482517604717733</v>
+        <v>3.10542224767003E-6</v>
       </c>
       <c r="K60" t="n">
-        <v>0.456413978338525</v>
+        <v>0.00291509677222881</v>
       </c>
       <c r="L60" t="n">
-        <v>0.00923008868251602</v>
+        <v>3.60414259898769E-4</v>
       </c>
       <c r="M60" t="n">
-        <v>0.10131667126195</v>
+        <v>0.00201839595708651</v>
       </c>
     </row>
     <row r="61">
@@ -2905,40 +2863,40 @@
         <v>72</v>
       </c>
       <c r="B61" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C61" t="n">
-        <v>0.118037042081669</v>
+        <v>0.0255586375388769</v>
       </c>
       <c r="D61" t="n">
-        <v>0.683088194322711</v>
+        <v>0.439222184064288</v>
       </c>
       <c r="E61" t="n">
-        <v>1.03186661311869E-5</v>
+        <v>0.427650000164653</v>
       </c>
       <c r="F61" t="n">
-        <v>4.1928289488449E-6</v>
+        <v>1.84009850638265E-6</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0258483590619507</v>
+        <v>0.00196829730670435</v>
       </c>
       <c r="H61" t="n">
-        <v>6.22894109974559E-7</v>
+        <v>1.82760351417799E-5</v>
       </c>
       <c r="I61" t="n">
-        <v>5.0163944942324E-8</v>
+        <v>1.35455514565369E-5</v>
       </c>
       <c r="J61" t="n">
-        <v>1.48332808013523E-5</v>
+        <v>1.38150378235376E-5</v>
       </c>
       <c r="K61" t="n">
-        <v>0.178558492826402</v>
+        <v>0.00215157723645603</v>
       </c>
       <c r="L61" t="n">
-        <v>5.81423298466857E-5</v>
+        <v>0.00965730107987612</v>
       </c>
       <c r="M61" t="n">
-        <v>0.164515067343522</v>
+        <v>0.0350089307624796</v>
       </c>
     </row>
     <row r="62">
@@ -2946,40 +2904,40 @@
         <v>73</v>
       </c>
       <c r="B62" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0791437211891458</v>
+        <v>0.043523850409815</v>
       </c>
       <c r="D62" t="n">
-        <v>0.161739686930268</v>
+        <v>0.203612342708557</v>
       </c>
       <c r="E62" t="n">
-        <v>3.36045830660744E-4</v>
+        <v>0.208111193538208</v>
       </c>
       <c r="F62" t="n">
-        <v>5.31224611397404E-6</v>
+        <v>1.62050653438951E-5</v>
       </c>
       <c r="G62" t="n">
-        <v>0.116110611392965</v>
+        <v>0.00192861246826689</v>
       </c>
       <c r="H62" t="n">
-        <v>3.75196996462541E-6</v>
+        <v>0.00213125052786259</v>
       </c>
       <c r="I62" t="n">
-        <v>3.00163109341114E-6</v>
+        <v>0.00285376138329922</v>
       </c>
       <c r="J62" t="n">
-        <v>3.51033867725567E-4</v>
+        <v>1.79696634815681E-6</v>
       </c>
       <c r="K62" t="n">
-        <v>0.0173044653046668</v>
+        <v>0.0301410782051947</v>
       </c>
       <c r="L62" t="n">
-        <v>0.0576554465347118</v>
+        <v>0.149090991441831</v>
       </c>
       <c r="M62" t="n">
-        <v>0.667877210359023</v>
+        <v>0.351141547828691</v>
       </c>
     </row>
     <row r="63">
@@ -2987,40 +2945,40 @@
         <v>74</v>
       </c>
       <c r="B63" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C63" t="n">
-        <v>0.231352772886249</v>
+        <v>0.059850219676627</v>
       </c>
       <c r="D63" t="n">
-        <v>0.986011465466999</v>
+        <v>0.838952144163235</v>
       </c>
       <c r="E63" t="n">
-        <v>3.92213937422571E-6</v>
+        <v>0.0736705010936012</v>
       </c>
       <c r="F63" t="n">
-        <v>3.80507811625095E-6</v>
+        <v>6.15284412295284E-7</v>
       </c>
       <c r="G63" t="n">
-        <v>0.00861495435980517</v>
+        <v>3.34351497969024E-6</v>
       </c>
       <c r="H63" t="n">
-        <v>8.30248882554823E-7</v>
+        <v>2.41940705650711E-5</v>
       </c>
       <c r="I63" t="n">
-        <v>7.14613018270624E-7</v>
+        <v>2.02469985373394E-5</v>
       </c>
       <c r="J63" t="n">
-        <v>2.68812651129283E-4</v>
+        <v>1.57898678886366E-5</v>
       </c>
       <c r="K63" t="n">
-        <v>5.50114539865069E-6</v>
+        <v>0.00534298882714311</v>
       </c>
       <c r="L63" t="n">
-        <v>4.86525441048893E-4</v>
+        <v>1.90177293135649E-5</v>
       </c>
       <c r="M63" t="n">
-        <v>0.00275283938928664</v>
+        <v>0.122744182961248</v>
       </c>
     </row>
     <row r="64">
@@ -3028,40 +2986,40 @@
         <v>75</v>
       </c>
       <c r="B64" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C64" t="n">
-        <v>0.093425778470675</v>
+        <v>0.0911509596099482</v>
       </c>
       <c r="D64" t="n">
-        <v>0.771734277390245</v>
+        <v>0.044774777489213</v>
       </c>
       <c r="E64" t="n">
-        <v>3.12228664892467E-4</v>
+        <v>0.187376830180332</v>
       </c>
       <c r="F64" t="n">
-        <v>8.92803848237997E-6</v>
+        <v>2.23988107429002E-7</v>
       </c>
       <c r="G64" t="n">
-        <v>0.230177085085877</v>
+        <v>5.31442983131006E-6</v>
       </c>
       <c r="H64" t="n">
-        <v>5.14960858164186E-5</v>
+        <v>5.56307557806493E-4</v>
       </c>
       <c r="I64" t="n">
-        <v>7.73078760219036E-6</v>
+        <v>7.46457659926751E-5</v>
       </c>
       <c r="J64" t="n">
-        <v>1.21038829901025E-5</v>
+        <v>7.32171754945443E-7</v>
       </c>
       <c r="K64" t="n">
-        <v>2.11177955283314E-6</v>
+        <v>0.204802012172852</v>
       </c>
       <c r="L64" t="n">
-        <v>0.00104784968347662</v>
+        <v>1.03938602927753E-5</v>
       </c>
       <c r="M64" t="n">
-        <v>0.00401616424407034</v>
+        <v>0.522221499273339</v>
       </c>
     </row>
     <row r="65">
@@ -3072,37 +3030,37 @@
         <v>4</v>
       </c>
       <c r="C65" t="n">
-        <v>0.0218912088248391</v>
+        <v>0.169568257242033</v>
       </c>
       <c r="D65" t="n">
-        <v>0.735793180496749</v>
+        <v>0.0337314599076848</v>
       </c>
       <c r="E65" t="n">
-        <v>0.20448959480198</v>
+        <v>0.1817051547294</v>
       </c>
       <c r="F65" t="n">
-        <v>2.0837680458386E-6</v>
+        <v>4.40495985637651E-6</v>
       </c>
       <c r="G65" t="n">
-        <v>6.44213003312815E-4</v>
+        <v>6.30941418466949E-5</v>
       </c>
       <c r="H65" t="n">
-        <v>2.32206662643508E-6</v>
+        <v>0.204011493421193</v>
       </c>
       <c r="I65" t="n">
-        <v>1.68541036157285E-5</v>
+        <v>1.22421657070814E-5</v>
       </c>
       <c r="J65" t="n">
-        <v>2.79744536779987E-5</v>
+        <v>7.83694170106704E-6</v>
       </c>
       <c r="K65" t="n">
-        <v>4.04950435338894E-6</v>
+        <v>0.321725250037715</v>
       </c>
       <c r="L65" t="n">
-        <v>1.73293577507539E-4</v>
+        <v>7.77866864752085E-5</v>
       </c>
       <c r="M65" t="n">
-        <v>0.0315263177177226</v>
+        <v>0.344872399605442</v>
       </c>
     </row>
     <row r="66">
@@ -3113,37 +3071,37 @@
         <v>4</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0976009903374781</v>
+        <v>0.239882040520034</v>
       </c>
       <c r="D66" t="n">
-        <v>0.181726078142662</v>
+        <v>0.0528797031630197</v>
       </c>
       <c r="E66" t="n">
-        <v>0.507320549090627</v>
+        <v>0.0329948698910859</v>
       </c>
       <c r="F66" t="n">
-        <v>3.04615858534072E-4</v>
+        <v>7.6819402415854E-6</v>
       </c>
       <c r="G66" t="n">
-        <v>0.0337068878325066</v>
+        <v>3.11643985873445E-6</v>
       </c>
       <c r="H66" t="n">
-        <v>0.00384012930308166</v>
+        <v>2.26440212312619E-6</v>
       </c>
       <c r="I66" t="n">
-        <v>1.54598039308787E-5</v>
+        <v>1.1084432748846E-7</v>
       </c>
       <c r="J66" t="n">
-        <v>0.034398205109086</v>
+        <v>5.83471742480865E-9</v>
       </c>
       <c r="K66" t="n">
-        <v>0.00230766098512784</v>
+        <v>0.832473775532672</v>
       </c>
       <c r="L66" t="n">
-        <v>0.00248658666388832</v>
+        <v>0.0186748840811248</v>
       </c>
       <c r="M66" t="n">
-        <v>0.0312964621314262</v>
+        <v>0.0477183919695543</v>
       </c>
     </row>
     <row r="67">
@@ -3154,37 +3112,37 @@
         <v>4</v>
       </c>
       <c r="C67" t="n">
-        <v>0.063597567669791</v>
+        <v>0.269421507193875</v>
       </c>
       <c r="D67" t="n">
-        <v>0.683171197629097</v>
+        <v>0.0236725743246808</v>
       </c>
       <c r="E67" t="n">
-        <v>0.319152497871985</v>
+        <v>0.104532328458597</v>
       </c>
       <c r="F67" t="n">
-        <v>3.59015241060972E-7</v>
+        <v>1.47884710145796E-5</v>
       </c>
       <c r="G67" t="n">
-        <v>0.00337276827416258</v>
+        <v>1.20016094777462E-6</v>
       </c>
       <c r="H67" t="n">
-        <v>0.0319493423892283</v>
+        <v>6.23340023492997E-4</v>
       </c>
       <c r="I67" t="n">
-        <v>4.52660452539029E-8</v>
+        <v>3.74728235535857E-7</v>
       </c>
       <c r="J67" t="n">
-        <v>0.0108928512032446</v>
+        <v>5.50287334480336E-6</v>
       </c>
       <c r="K67" t="n">
-        <v>3.04209817194612E-4</v>
+        <v>0.890978856373056</v>
       </c>
       <c r="L67" t="n">
-        <v>8.29619445544808E-5</v>
+        <v>0.00386514578422188</v>
       </c>
       <c r="M67" t="n">
-        <v>0.0279743579335484</v>
+        <v>0.00978051302888717</v>
       </c>
     </row>
     <row r="68">
@@ -3195,37 +3153,37 @@
         <v>4</v>
       </c>
       <c r="C68" t="n">
-        <v>0.102664036137559</v>
+        <v>0.21617649901774</v>
       </c>
       <c r="D68" t="n">
-        <v>0.873647973125162</v>
+        <v>0.0129623722719702</v>
       </c>
       <c r="E68" t="n">
-        <v>0.0898804663938364</v>
+        <v>0.0852067991346747</v>
       </c>
       <c r="F68" t="n">
-        <v>1.7082867221108E-8</v>
+        <v>4.75439425876684E-7</v>
       </c>
       <c r="G68" t="n">
-        <v>1.02920640397052E-5</v>
+        <v>7.10858861525021E-6</v>
       </c>
       <c r="H68" t="n">
-        <v>6.35676025962039E-4</v>
+        <v>0.00906006066832456</v>
       </c>
       <c r="I68" t="n">
-        <v>4.83514781335408E-6</v>
+        <v>6.33076288734664E-5</v>
       </c>
       <c r="J68" t="n">
-        <v>3.34508974189987E-5</v>
+        <v>0.0114280032263007</v>
       </c>
       <c r="K68" t="n">
-        <v>2.08130377966659E-6</v>
+        <v>0.696217689386959</v>
       </c>
       <c r="L68" t="n">
-        <v>1.72381523701769E-6</v>
+        <v>0.0343616255521415</v>
       </c>
       <c r="M68" t="n">
-        <v>0.0359361012888556</v>
+        <v>0.147601022641274</v>
       </c>
     </row>
     <row r="69">
@@ -3236,37 +3194,37 @@
         <v>4</v>
       </c>
       <c r="C69" t="n">
-        <v>0.104820003325479</v>
+        <v>0.129904203370781</v>
       </c>
       <c r="D69" t="n">
-        <v>0.470762482324013</v>
+        <v>0.26383460845881</v>
       </c>
       <c r="E69" t="n">
-        <v>0.25422700104062</v>
+        <v>0.148601428388196</v>
       </c>
       <c r="F69" t="n">
-        <v>2.52398481816545E-4</v>
+        <v>1.78597361758099E-6</v>
       </c>
       <c r="G69" t="n">
-        <v>0.00684992087427017</v>
+        <v>1.27924976629265E-5</v>
       </c>
       <c r="H69" t="n">
-        <v>0.00371667538651763</v>
+        <v>7.3588680024969E-5</v>
       </c>
       <c r="I69" t="n">
-        <v>2.65809771625488E-4</v>
+        <v>4.61268992942657E-5</v>
       </c>
       <c r="J69" t="n">
-        <v>0.0300862550447506</v>
+        <v>2.46449025380323E-4</v>
       </c>
       <c r="K69" t="n">
-        <v>1.833489193757E-4</v>
+        <v>0.508463711463225</v>
       </c>
       <c r="L69" t="n">
-        <v>4.33745116598082E-6</v>
+        <v>1.86638461805646E-4</v>
       </c>
       <c r="M69" t="n">
-        <v>0.182735547021226</v>
+        <v>0.0145472615873596</v>
       </c>
     </row>
     <row r="70">
@@ -3277,37 +3235,37 @@
         <v>4</v>
       </c>
       <c r="C70" t="n">
-        <v>0.122360417810848</v>
+        <v>0.198807057782646</v>
       </c>
       <c r="D70" t="n">
-        <v>0.734033817471539</v>
+        <v>0.342313960638937</v>
       </c>
       <c r="E70" t="n">
-        <v>0.149828105331425</v>
+        <v>0.101479867700375</v>
       </c>
       <c r="F70" t="n">
-        <v>9.62954948184397E-6</v>
+        <v>4.46545702262329E-6</v>
       </c>
       <c r="G70" t="n">
-        <v>4.24065503699888E-7</v>
+        <v>7.20213088113138E-6</v>
       </c>
       <c r="H70" t="n">
-        <v>1.45286874504469E-4</v>
+        <v>3.07074786154806E-5</v>
       </c>
       <c r="I70" t="n">
-        <v>0.00193214592354254</v>
+        <v>4.70982481466962E-4</v>
       </c>
       <c r="J70" t="n">
-        <v>2.16807262687737E-5</v>
+        <v>0.00298077182093746</v>
       </c>
       <c r="K70" t="n">
-        <v>1.46244161487315E-8</v>
+        <v>0.417346979620461</v>
       </c>
       <c r="L70" t="n">
-        <v>1.78533239688348E-8</v>
+        <v>3.44926483135249E-4</v>
       </c>
       <c r="M70" t="n">
-        <v>0.0291910478368175</v>
+        <v>0.0125334626619434</v>
       </c>
     </row>
     <row r="71">
@@ -3318,37 +3276,37 @@
         <v>4</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0913610868431327</v>
+        <v>0.111483948428099</v>
       </c>
       <c r="D71" t="n">
-        <v>0.65774328150071</v>
+        <v>0.0880849774167076</v>
       </c>
       <c r="E71" t="n">
-        <v>0.0576847555534672</v>
+        <v>0.1063615475281</v>
       </c>
       <c r="F71" t="n">
-        <v>2.09635972021317E-5</v>
+        <v>7.29690488523315E-7</v>
       </c>
       <c r="G71" t="n">
-        <v>3.58442505265E-4</v>
+        <v>1.25309799737743E-5</v>
       </c>
       <c r="H71" t="n">
-        <v>0.0737196519516143</v>
+        <v>4.5928862878368E-6</v>
       </c>
       <c r="I71" t="n">
-        <v>0.00184229330425544</v>
+        <v>6.45188609010511E-4</v>
       </c>
       <c r="J71" t="n">
-        <v>0.010795464071578</v>
+        <v>0.0083544932538361</v>
       </c>
       <c r="K71" t="n">
-        <v>3.57377931782696E-6</v>
+        <v>0.582979265192121</v>
       </c>
       <c r="L71" t="n">
-        <v>0.00199857754700772</v>
+        <v>1.97351158299651E-4</v>
       </c>
       <c r="M71" t="n">
-        <v>0.0908253457028837</v>
+        <v>0.168416522956143</v>
       </c>
     </row>
     <row r="72">
@@ -3359,37 +3317,37 @@
         <v>4</v>
       </c>
       <c r="C72" t="n">
-        <v>0.133977600474138</v>
+        <v>0.165892992127079</v>
       </c>
       <c r="D72" t="n">
-        <v>0.762289335398081</v>
+        <v>0.00111023737390921</v>
       </c>
       <c r="E72" t="n">
-        <v>0.149169669848709</v>
+        <v>0.0766850096697362</v>
       </c>
       <c r="F72" t="n">
-        <v>1.69292317206422E-7</v>
+        <v>2.7154971535446E-7</v>
       </c>
       <c r="G72" t="n">
-        <v>3.17087227364528E-5</v>
+        <v>6.67116073500401E-7</v>
       </c>
       <c r="H72" t="n">
-        <v>0.0213107640340521</v>
+        <v>7.72093728722577E-9</v>
       </c>
       <c r="I72" t="n">
-        <v>2.4612014096793E-4</v>
+        <v>0.0180626997228922</v>
       </c>
       <c r="J72" t="n">
-        <v>3.369852345823E-5</v>
+        <v>1.82081421676341E-5</v>
       </c>
       <c r="K72" t="n">
-        <v>1.06323748924437E-5</v>
+        <v>0.598914589096863</v>
       </c>
       <c r="L72" t="n">
-        <v>3.40287218318058E-4</v>
+        <v>4.33125291079932E-4</v>
       </c>
       <c r="M72" t="n">
-        <v>0.0692411034362956</v>
+        <v>0.329999538333165</v>
       </c>
     </row>
     <row r="73">
@@ -3400,37 +3358,37 @@
         <v>4</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0657493845330519</v>
+        <v>0.288124955698627</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0615943571481762</v>
+        <v>0.00445175673048274</v>
       </c>
       <c r="E73" t="n">
-        <v>0.512077219331177</v>
+        <v>0.0665601665832476</v>
       </c>
       <c r="F73" t="n">
-        <v>3.40690834209847E-7</v>
+        <v>9.57008398610262E-7</v>
       </c>
       <c r="G73" t="n">
-        <v>8.52369741908524E-5</v>
+        <v>5.50406859126051E-6</v>
       </c>
       <c r="H73" t="n">
-        <v>0.00501677686300469</v>
+        <v>3.78040799367245E-6</v>
       </c>
       <c r="I73" t="n">
-        <v>6.38519162005219E-5</v>
+        <v>2.36862456630737E-4</v>
       </c>
       <c r="J73" t="n">
-        <v>0.071042290330106</v>
+        <v>1.5138606651304E-4</v>
       </c>
       <c r="K73" t="n">
-        <v>2.19419766073383E-5</v>
+        <v>0.915545404338603</v>
       </c>
       <c r="L73" t="n">
-        <v>0.0542254840116972</v>
+        <v>6.04875416855363E-4</v>
       </c>
       <c r="M73" t="n">
-        <v>0.242241742569735</v>
+        <v>0.00769753231566842</v>
       </c>
     </row>
     <row r="74">
@@ -3441,37 +3399,37 @@
         <v>4</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0717785758834171</v>
+        <v>0.0762136349047768</v>
       </c>
       <c r="D74" t="n">
-        <v>0.868697768845833</v>
+        <v>0.688763226509129</v>
       </c>
       <c r="E74" t="n">
-        <v>0.0439659878089505</v>
+        <v>0.256419961147522</v>
       </c>
       <c r="F74" t="n">
-        <v>3.17930156894628E-6</v>
+        <v>1.55108181742882E-7</v>
       </c>
       <c r="G74" t="n">
-        <v>1.21867919363476E-6</v>
+        <v>8.22131744867167E-6</v>
       </c>
       <c r="H74" t="n">
-        <v>6.370804390452E-6</v>
+        <v>1.0981544450338E-5</v>
       </c>
       <c r="I74" t="n">
-        <v>5.82707916371877E-6</v>
+        <v>1.61597022245384E-4</v>
       </c>
       <c r="J74" t="n">
-        <v>7.26681949845353E-6</v>
+        <v>9.01228595748131E-5</v>
       </c>
       <c r="K74" t="n">
-        <v>1.79209663891568E-8</v>
+        <v>0.0628560092620592</v>
       </c>
       <c r="L74" t="n">
-        <v>4.56852946447198E-4</v>
+        <v>0.0234354164856752</v>
       </c>
       <c r="M74" t="n">
-        <v>0.0587236314723949</v>
+        <v>0.0141316527423137</v>
       </c>
     </row>
     <row r="75">
@@ -3482,37 +3440,37 @@
         <v>4</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0931921051530629</v>
+        <v>0.118372036236627</v>
       </c>
       <c r="D75" t="n">
-        <v>0.714979036234001</v>
+        <v>0.462147520168284</v>
       </c>
       <c r="E75" t="n">
-        <v>0.108358330431796</v>
+        <v>0.0671583731007574</v>
       </c>
       <c r="F75" t="n">
-        <v>1.31508455181521E-6</v>
+        <v>2.37595257646816E-8</v>
       </c>
       <c r="G75" t="n">
-        <v>1.75442505366199E-7</v>
+        <v>8.06046422392932E-7</v>
       </c>
       <c r="H75" t="n">
-        <v>3.29518580565454E-6</v>
+        <v>8.2951326377127E-5</v>
       </c>
       <c r="I75" t="n">
-        <v>3.15538840009226E-4</v>
+        <v>1.91616281474058E-7</v>
       </c>
       <c r="J75" t="n">
-        <v>1.78936176373167E-5</v>
+        <v>2.66489263788859E-7</v>
       </c>
       <c r="K75" t="n">
-        <v>7.88383932944052E-6</v>
+        <v>0.374405886791564</v>
       </c>
       <c r="L75" t="n">
-        <v>3.96714510671806E-5</v>
+        <v>3.83393939074942E-4</v>
       </c>
       <c r="M75" t="n">
-        <v>0.137639406107927</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="76">
@@ -3523,37 +3481,37 @@
         <v>4</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0792075473994062</v>
+        <v>0.1123608739624</v>
       </c>
       <c r="D76" t="n">
-        <v>0.63420748675253</v>
+        <v>0.562684971074335</v>
       </c>
       <c r="E76" t="n">
-        <v>0.100820486348257</v>
+        <v>0.135841723431065</v>
       </c>
       <c r="F76" t="n">
-        <v>3.78704178571634E-4</v>
+        <v>4.07077522652815E-5</v>
       </c>
       <c r="G76" t="n">
-        <v>3.46526490303689E-6</v>
+        <v>1.4337524779692E-6</v>
       </c>
       <c r="H76" t="n">
-        <v>0.00138639679792348</v>
+        <v>0.0182803934385144</v>
       </c>
       <c r="I76" t="n">
-        <v>0.0172422281864916</v>
+        <v>3.10408739351154E-6</v>
       </c>
       <c r="J76" t="n">
-        <v>8.04339335812536E-4</v>
+        <v>9.98007370136721E-7</v>
       </c>
       <c r="K76" t="n">
-        <v>0.00209832243060128</v>
+        <v>0.133818307758583</v>
       </c>
       <c r="L76" t="n">
-        <v>0.00160481895202862</v>
+        <v>0.00741183824553684</v>
       </c>
       <c r="M76" t="n">
-        <v>0.180522888819895</v>
+        <v>0.00247665627735131</v>
       </c>
     </row>
     <row r="77">
@@ -3564,37 +3522,37 @@
         <v>4</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0852418330367577</v>
+        <v>0.102841386131509</v>
       </c>
       <c r="D77" t="n">
-        <v>0.133967062621022</v>
+        <v>0.918146818941441</v>
       </c>
       <c r="E77" t="n">
-        <v>0.312078816249856</v>
+        <v>0.0202649533994255</v>
       </c>
       <c r="F77" t="n">
-        <v>7.7342239655655E-5</v>
+        <v>2.50709835937041E-5</v>
       </c>
       <c r="G77" t="n">
-        <v>1.14262443830221E-6</v>
+        <v>8.2516366039335E-5</v>
       </c>
       <c r="H77" t="n">
-        <v>6.54466548563369E-4</v>
+        <v>0.00606669268566208</v>
       </c>
       <c r="I77" t="n">
-        <v>0.0650136011629605</v>
+        <v>1.39850880650086E-6</v>
       </c>
       <c r="J77" t="n">
-        <v>3.82430320703728E-6</v>
+        <v>6.01363602022317E-7</v>
       </c>
       <c r="K77" t="n">
-        <v>0.00392152594624878</v>
+        <v>2.81639157351608E-4</v>
       </c>
       <c r="L77" t="n">
-        <v>2.2143812632008E-5</v>
+        <v>1.22252211179861E-4</v>
       </c>
       <c r="M77" t="n">
-        <v>0.45400331137852</v>
+        <v>0.00607052389019049</v>
       </c>
     </row>
     <row r="78">
@@ -3605,37 +3563,37 @@
         <v>4</v>
       </c>
       <c r="C78" t="n">
-        <v>0.165892992127079</v>
+        <v>0.0247972116036577</v>
       </c>
       <c r="D78" t="n">
-        <v>0.00111023737390921</v>
+        <v>0.482067969441823</v>
       </c>
       <c r="E78" t="n">
-        <v>0.0766850096697362</v>
+        <v>0.255303412882902</v>
       </c>
       <c r="F78" t="n">
-        <v>2.7154971535446E-7</v>
+        <v>4.63243472558238E-5</v>
       </c>
       <c r="G78" t="n">
-        <v>6.67116073500401E-7</v>
+        <v>5.14510881825316E-7</v>
       </c>
       <c r="H78" t="n">
-        <v>7.72093728722577E-9</v>
+        <v>0.00301330846616089</v>
       </c>
       <c r="I78" t="n">
-        <v>0.0180626997228922</v>
+        <v>1.19152643204831E-4</v>
       </c>
       <c r="J78" t="n">
-        <v>1.82081421676341E-5</v>
+        <v>2.51211878601179E-5</v>
       </c>
       <c r="K78" t="n">
-        <v>0.598914589096863</v>
+        <v>0.00156462655977031</v>
       </c>
       <c r="L78" t="n">
-        <v>4.33125291079932E-4</v>
+        <v>6.06715176328054E-4</v>
       </c>
       <c r="M78" t="n">
-        <v>0.329999538333165</v>
+        <v>0.235469051281475</v>
       </c>
     </row>
     <row r="79">
@@ -3646,37 +3604,37 @@
         <v>4</v>
       </c>
       <c r="C79" t="n">
-        <v>0.288124955698627</v>
+        <v>0.0714321439593577</v>
       </c>
       <c r="D79" t="n">
-        <v>0.00445175673048274</v>
+        <v>0.199569904867747</v>
       </c>
       <c r="E79" t="n">
-        <v>0.0665601665832476</v>
+        <v>0.377781578574143</v>
       </c>
       <c r="F79" t="n">
-        <v>9.57008398610262E-7</v>
+        <v>7.40465263524217E-5</v>
       </c>
       <c r="G79" t="n">
-        <v>5.50406859126051E-6</v>
+        <v>6.27396031851259E-5</v>
       </c>
       <c r="H79" t="n">
-        <v>3.78040799367245E-6</v>
+        <v>0.329937866088229</v>
       </c>
       <c r="I79" t="n">
-        <v>2.36862456630737E-4</v>
+        <v>0.00151868995199035</v>
       </c>
       <c r="J79" t="n">
-        <v>1.5138606651304E-4</v>
+        <v>7.55485053308467E-7</v>
       </c>
       <c r="K79" t="n">
-        <v>0.915545404338603</v>
+        <v>3.59307335481837E-4</v>
       </c>
       <c r="L79" t="n">
-        <v>6.04875416855363E-4</v>
+        <v>3.48401806239316E-5</v>
       </c>
       <c r="M79" t="n">
-        <v>0.00769753231566842</v>
+        <v>0.0985415847161659</v>
       </c>
     </row>
     <row r="80">
@@ -3687,37 +3645,37 @@
         <v>4</v>
       </c>
       <c r="C80" t="n">
-        <v>0.0762136349047768</v>
+        <v>0.124160042951112</v>
       </c>
       <c r="D80" t="n">
-        <v>0.688763226509129</v>
+        <v>0.565130920493059</v>
       </c>
       <c r="E80" t="n">
-        <v>0.256419961147522</v>
+        <v>0.145666581431455</v>
       </c>
       <c r="F80" t="n">
-        <v>1.55108181742882E-7</v>
+        <v>1.51703731550466E-7</v>
       </c>
       <c r="G80" t="n">
-        <v>8.22131744867167E-6</v>
+        <v>2.46034576716917E-8</v>
       </c>
       <c r="H80" t="n">
-        <v>1.0981544450338E-5</v>
+        <v>0.00154948744279075</v>
       </c>
       <c r="I80" t="n">
-        <v>1.61597022245384E-4</v>
+        <v>3.84092367075615E-5</v>
       </c>
       <c r="J80" t="n">
-        <v>9.01228595748131E-5</v>
+        <v>1.85658715537783E-5</v>
       </c>
       <c r="K80" t="n">
-        <v>0.0628560092620592</v>
+        <v>0.153351978124941</v>
       </c>
       <c r="L80" t="n">
-        <v>0.0234354164856752</v>
+        <v>2.03843498743829E-6</v>
       </c>
       <c r="M80" t="n">
-        <v>0.0141316527423137</v>
+        <v>0.00134521864223248</v>
       </c>
     </row>
     <row r="81">
@@ -3728,37 +3686,37 @@
         <v>4</v>
       </c>
       <c r="C81" t="n">
-        <v>0.21617649901774</v>
+        <v>0.127091025508264</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0129623722719702</v>
+        <v>0.255832058252138</v>
       </c>
       <c r="E81" t="n">
-        <v>0.0852067991346747</v>
+        <v>0.211910497903433</v>
       </c>
       <c r="F81" t="n">
-        <v>4.75439425876684E-7</v>
+        <v>1.18823488213071E-5</v>
       </c>
       <c r="G81" t="n">
-        <v>7.10858861525021E-6</v>
+        <v>6.76885297133828E-6</v>
       </c>
       <c r="H81" t="n">
-        <v>0.00906006066832456</v>
+        <v>0.379988144797316</v>
       </c>
       <c r="I81" t="n">
-        <v>6.33076288734664E-5</v>
+        <v>4.62556661093328E-5</v>
       </c>
       <c r="J81" t="n">
-        <v>0.0114280032263007</v>
+        <v>0.0208491789398027</v>
       </c>
       <c r="K81" t="n">
-        <v>0.696217689386959</v>
+        <v>0.0351484325096609</v>
       </c>
       <c r="L81" t="n">
-        <v>0.0343616255521415</v>
+        <v>1.40726340670566E-4</v>
       </c>
       <c r="M81" t="n">
-        <v>0.147601022641274</v>
+        <v>6.29148918734108E-4</v>
       </c>
     </row>
     <row r="82">
@@ -3769,37 +3727,37 @@
         <v>4</v>
       </c>
       <c r="C82" t="n">
-        <v>0.129904203370781</v>
+        <v>0.0674096113230841</v>
       </c>
       <c r="D82" t="n">
-        <v>0.26383460845881</v>
+        <v>0.964245874580068</v>
       </c>
       <c r="E82" t="n">
-        <v>0.148601428388196</v>
+        <v>0.0182099604557236</v>
       </c>
       <c r="F82" t="n">
-        <v>1.78597361758099E-6</v>
+        <v>1.89301082254627E-7</v>
       </c>
       <c r="G82" t="n">
-        <v>1.27924976629265E-5</v>
+        <v>6.30677283979045E-7</v>
       </c>
       <c r="H82" t="n">
-        <v>7.3588680024969E-5</v>
+        <v>0.00464038653591642</v>
       </c>
       <c r="I82" t="n">
-        <v>4.61268992942657E-5</v>
+        <v>2.2855597487478E-6</v>
       </c>
       <c r="J82" t="n">
-        <v>2.46449025380323E-4</v>
+        <v>7.34435196827567E-4</v>
       </c>
       <c r="K82" t="n">
-        <v>0.508463711463225</v>
+        <v>5.17078299007004E-5</v>
       </c>
       <c r="L82" t="n">
-        <v>1.86638461805646E-4</v>
+        <v>1.40285177133624E-5</v>
       </c>
       <c r="M82" t="n">
-        <v>0.0145472615873596</v>
+        <v>0.0370768336764644</v>
       </c>
     </row>
     <row r="83">
@@ -3810,37 +3768,37 @@
         <v>4</v>
       </c>
       <c r="C83" t="n">
-        <v>0.198807057782646</v>
+        <v>0.0671421927918262</v>
       </c>
       <c r="D83" t="n">
-        <v>0.342313960638937</v>
+        <v>0.849446502478923</v>
       </c>
       <c r="E83" t="n">
-        <v>0.101479867700375</v>
+        <v>0.123668249093984</v>
       </c>
       <c r="F83" t="n">
-        <v>4.46545702262329E-6</v>
+        <v>4.03894981589316E-5</v>
       </c>
       <c r="G83" t="n">
-        <v>7.20213088113138E-6</v>
+        <v>2.17050769489426E-6</v>
       </c>
       <c r="H83" t="n">
-        <v>3.07074786154806E-5</v>
+        <v>2.06344833154701E-4</v>
       </c>
       <c r="I83" t="n">
-        <v>4.70982481466962E-4</v>
+        <v>3.90097263574026E-6</v>
       </c>
       <c r="J83" t="n">
-        <v>0.00298077182093746</v>
+        <v>0.00277949789754662</v>
       </c>
       <c r="K83" t="n">
-        <v>0.417346979620461</v>
+        <v>0.00129029362058598</v>
       </c>
       <c r="L83" t="n">
-        <v>3.44926483135249E-4</v>
+        <v>1.51537345476281E-4</v>
       </c>
       <c r="M83" t="n">
-        <v>0.0125334626619434</v>
+        <v>0.0469372254483882</v>
       </c>
     </row>
     <row r="84">
@@ -3851,37 +3809,37 @@
         <v>4</v>
       </c>
       <c r="C84" t="n">
-        <v>0.111483948428099</v>
+        <v>0.0310204059226877</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0880849774167076</v>
+        <v>0.0236704239723923</v>
       </c>
       <c r="E84" t="n">
-        <v>0.1063615475281</v>
+        <v>0.385866753669421</v>
       </c>
       <c r="F84" t="n">
-        <v>7.29690488523315E-7</v>
+        <v>4.37214716344491E-6</v>
       </c>
       <c r="G84" t="n">
-        <v>1.25309799737743E-5</v>
+        <v>2.5571098578674E-4</v>
       </c>
       <c r="H84" t="n">
-        <v>4.5928862878368E-6</v>
+        <v>4.62914868977364E-5</v>
       </c>
       <c r="I84" t="n">
-        <v>6.45188609010511E-4</v>
+        <v>0.0293075281806833</v>
       </c>
       <c r="J84" t="n">
-        <v>0.0083544932538361</v>
+        <v>0.312699503390055</v>
       </c>
       <c r="K84" t="n">
-        <v>0.582979265192121</v>
+        <v>0.23525132440584</v>
       </c>
       <c r="L84" t="n">
-        <v>1.97351158299651E-4</v>
+        <v>0.00246677697075856</v>
       </c>
       <c r="M84" t="n">
-        <v>0.168416522956143</v>
+        <v>0.0774414536341691</v>
       </c>
     </row>
     <row r="85">
@@ -3892,37 +3850,37 @@
         <v>4</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0917650600692849</v>
+        <v>0.072111768482153</v>
       </c>
       <c r="D85" t="n">
-        <v>0.153372017929747</v>
+        <v>0.345927207349241</v>
       </c>
       <c r="E85" t="n">
-        <v>0.155917334603191</v>
+        <v>0.162816296879777</v>
       </c>
       <c r="F85" t="n">
-        <v>4.44279178859107E-7</v>
+        <v>1.3874488983875E-9</v>
       </c>
       <c r="G85" t="n">
-        <v>4.89643048871073E-5</v>
+        <v>1.7063712312299E-5</v>
       </c>
       <c r="H85" t="n">
-        <v>3.18066219832759E-8</v>
+        <v>3.33754618492343E-7</v>
       </c>
       <c r="I85" t="n">
-        <v>0.00484700535731028</v>
+        <v>0.474320738547556</v>
       </c>
       <c r="J85" t="n">
-        <v>5.07428923401509E-5</v>
+        <v>2.73133107480425E-4</v>
       </c>
       <c r="K85" t="n">
-        <v>0.373071863684905</v>
+        <v>7.27797339658384E-5</v>
       </c>
       <c r="L85" t="n">
-        <v>2.56455340312648E-7</v>
+        <v>3.55983361123346E-5</v>
       </c>
       <c r="M85" t="n">
-        <v>0.24368075106019</v>
+        <v>0.0978855450245713</v>
       </c>
     </row>
     <row r="86">
@@ -3933,37 +3891,37 @@
         <v>4</v>
       </c>
       <c r="C86" t="n">
-        <v>0.178376622065848</v>
+        <v>0.0940674755764696</v>
       </c>
       <c r="D86" t="n">
-        <v>0.310617238091455</v>
+        <v>0.162382961165555</v>
       </c>
       <c r="E86" t="n">
-        <v>0.0760918274098372</v>
+        <v>0.245781048312687</v>
       </c>
       <c r="F86" t="n">
-        <v>7.01139898964777E-7</v>
+        <v>3.50437275554699E-7</v>
       </c>
       <c r="G86" t="n">
-        <v>3.32604316117927E-7</v>
+        <v>1.38388358517744E-5</v>
       </c>
       <c r="H86" t="n">
-        <v>5.68418710113648E-9</v>
+        <v>1.02349198270126E-5</v>
       </c>
       <c r="I86" t="n">
-        <v>0.0184566260970741</v>
+        <v>0.0309813105412786</v>
       </c>
       <c r="J86" t="n">
-        <v>5.67045107130529E-7</v>
+        <v>0.00875273036064265</v>
       </c>
       <c r="K86" t="n">
-        <v>0.436215735206251</v>
+        <v>3.71321098427299E-4</v>
       </c>
       <c r="L86" t="n">
-        <v>3.38072141481269E-8</v>
+        <v>2.70843906154201E-6</v>
       </c>
       <c r="M86" t="n">
-        <v>0.00437695515946328</v>
+        <v>0.606584533826781</v>
       </c>
     </row>
     <row r="87">
@@ -3974,37 +3932,37 @@
         <v>4</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0824513510974496</v>
+        <v>0.0917650600692849</v>
       </c>
       <c r="D87" t="n">
-        <v>0.186448404104954</v>
+        <v>0.153372017929747</v>
       </c>
       <c r="E87" t="n">
-        <v>0.292654796302955</v>
+        <v>0.155917334603191</v>
       </c>
       <c r="F87" t="n">
-        <v>6.14655023786673E-6</v>
+        <v>4.44279178859107E-7</v>
       </c>
       <c r="G87" t="n">
-        <v>1.15715148286292E-5</v>
+        <v>4.89643048871073E-5</v>
       </c>
       <c r="H87" t="n">
-        <v>2.91200273909132E-8</v>
+        <v>3.18066219832759E-8</v>
       </c>
       <c r="I87" t="n">
-        <v>0.0317135212068526</v>
+        <v>0.00484700535731028</v>
       </c>
       <c r="J87" t="n">
-        <v>4.55069526646316E-7</v>
+        <v>5.07428923401509E-5</v>
       </c>
       <c r="K87" t="n">
-        <v>0.155399020294881</v>
+        <v>0.373071863684905</v>
       </c>
       <c r="L87" t="n">
-        <v>1.7654683526289E-6</v>
+        <v>2.56455340312648E-7</v>
       </c>
       <c r="M87" t="n">
-        <v>0.260597286165988</v>
+        <v>0.24368075106019</v>
       </c>
     </row>
     <row r="88">
@@ -4015,37 +3973,37 @@
         <v>4</v>
       </c>
       <c r="C88" t="n">
-        <v>0.0940674755764696</v>
+        <v>0.178376622065848</v>
       </c>
       <c r="D88" t="n">
-        <v>0.162382961165555</v>
+        <v>0.310617238091455</v>
       </c>
       <c r="E88" t="n">
-        <v>0.245781048312687</v>
+        <v>0.0760918274098372</v>
       </c>
       <c r="F88" t="n">
-        <v>3.50437275554699E-7</v>
+        <v>7.01139898964777E-7</v>
       </c>
       <c r="G88" t="n">
-        <v>1.38388358517744E-5</v>
+        <v>3.32604316117927E-7</v>
       </c>
       <c r="H88" t="n">
-        <v>1.02349198270126E-5</v>
+        <v>5.68418710113648E-9</v>
       </c>
       <c r="I88" t="n">
-        <v>0.0309813105412786</v>
+        <v>0.0184566260970741</v>
       </c>
       <c r="J88" t="n">
-        <v>0.00875273036064265</v>
+        <v>5.67045107130529E-7</v>
       </c>
       <c r="K88" t="n">
-        <v>3.71321098427299E-4</v>
+        <v>0.436215735206251</v>
       </c>
       <c r="L88" t="n">
-        <v>2.70843906154201E-6</v>
+        <v>3.38072141481269E-8</v>
       </c>
       <c r="M88" t="n">
-        <v>0.606584533826781</v>
+        <v>0.00437695515946328</v>
       </c>
     </row>
     <row r="89">
@@ -4056,37 +4014,37 @@
         <v>4</v>
       </c>
       <c r="C89" t="n">
-        <v>0.072111768482153</v>
+        <v>0.0824513510974496</v>
       </c>
       <c r="D89" t="n">
-        <v>0.345927207349241</v>
+        <v>0.186448404104954</v>
       </c>
       <c r="E89" t="n">
-        <v>0.162816296879777</v>
+        <v>0.292654796302955</v>
       </c>
       <c r="F89" t="n">
-        <v>1.3874488983875E-9</v>
+        <v>6.14655023786673E-6</v>
       </c>
       <c r="G89" t="n">
-        <v>1.7063712312299E-5</v>
+        <v>1.15715148286292E-5</v>
       </c>
       <c r="H89" t="n">
-        <v>3.33754618492343E-7</v>
+        <v>2.91200273909132E-8</v>
       </c>
       <c r="I89" t="n">
-        <v>0.474320738547556</v>
+        <v>0.0317135212068526</v>
       </c>
       <c r="J89" t="n">
-        <v>2.73133107480425E-4</v>
+        <v>4.55069526646316E-7</v>
       </c>
       <c r="K89" t="n">
-        <v>7.27797339658384E-5</v>
+        <v>0.155399020294881</v>
       </c>
       <c r="L89" t="n">
-        <v>3.55983361123346E-5</v>
+        <v>1.7654683526289E-6</v>
       </c>
       <c r="M89" t="n">
-        <v>0.0978855450245713</v>
+        <v>0.260597286165988</v>
       </c>
     </row>
     <row r="90">
@@ -4097,37 +4055,37 @@
         <v>4</v>
       </c>
       <c r="C90" t="n">
-        <v>0.0310204059226877</v>
+        <v>0.0852418330367577</v>
       </c>
       <c r="D90" t="n">
-        <v>0.0236704239723923</v>
+        <v>0.133967062621022</v>
       </c>
       <c r="E90" t="n">
-        <v>0.385866753669421</v>
+        <v>0.312078816249856</v>
       </c>
       <c r="F90" t="n">
-        <v>4.37214716344491E-6</v>
+        <v>7.7342239655655E-5</v>
       </c>
       <c r="G90" t="n">
-        <v>2.5571098578674E-4</v>
+        <v>1.14262443830221E-6</v>
       </c>
       <c r="H90" t="n">
-        <v>4.62914868977364E-5</v>
+        <v>6.54466548563369E-4</v>
       </c>
       <c r="I90" t="n">
-        <v>0.0293075281806833</v>
+        <v>0.0650136011629605</v>
       </c>
       <c r="J90" t="n">
-        <v>0.312699503390055</v>
+        <v>3.82430320703728E-6</v>
       </c>
       <c r="K90" t="n">
-        <v>0.23525132440584</v>
+        <v>0.00392152594624878</v>
       </c>
       <c r="L90" t="n">
-        <v>0.00246677697075856</v>
+        <v>2.2143812632008E-5</v>
       </c>
       <c r="M90" t="n">
-        <v>0.0774414536341691</v>
+        <v>0.45400331137852</v>
       </c>
     </row>
     <row r="91">
@@ -4138,37 +4096,37 @@
         <v>4</v>
       </c>
       <c r="C91" t="n">
-        <v>0.0671421927918262</v>
+        <v>0.0792075473994062</v>
       </c>
       <c r="D91" t="n">
-        <v>0.849446502478923</v>
+        <v>0.63420748675253</v>
       </c>
       <c r="E91" t="n">
-        <v>0.123668249093984</v>
+        <v>0.100820486348257</v>
       </c>
       <c r="F91" t="n">
-        <v>4.03894981589316E-5</v>
+        <v>3.78704178571634E-4</v>
       </c>
       <c r="G91" t="n">
-        <v>2.17050769489426E-6</v>
+        <v>3.46526490303689E-6</v>
       </c>
       <c r="H91" t="n">
-        <v>2.06344833154701E-4</v>
+        <v>0.00138639679792348</v>
       </c>
       <c r="I91" t="n">
-        <v>3.90097263574026E-6</v>
+        <v>0.0172422281864916</v>
       </c>
       <c r="J91" t="n">
-        <v>0.00277949789754662</v>
+        <v>8.04339335812536E-4</v>
       </c>
       <c r="K91" t="n">
-        <v>0.00129029362058598</v>
+        <v>0.00209832243060128</v>
       </c>
       <c r="L91" t="n">
-        <v>1.51537345476281E-4</v>
+        <v>0.00160481895202862</v>
       </c>
       <c r="M91" t="n">
-        <v>0.0469372254483882</v>
+        <v>0.180522888819895</v>
       </c>
     </row>
     <row r="92">
@@ -4179,37 +4137,37 @@
         <v>4</v>
       </c>
       <c r="C92" t="n">
-        <v>0.0674096113230841</v>
+        <v>0.0931921051530629</v>
       </c>
       <c r="D92" t="n">
-        <v>0.964245874580068</v>
+        <v>0.714979036234001</v>
       </c>
       <c r="E92" t="n">
-        <v>0.0182099604557236</v>
+        <v>0.108358330431796</v>
       </c>
       <c r="F92" t="n">
-        <v>1.89301082254627E-7</v>
+        <v>1.31508455181521E-6</v>
       </c>
       <c r="G92" t="n">
-        <v>6.30677283979045E-7</v>
+        <v>1.75442505366199E-7</v>
       </c>
       <c r="H92" t="n">
-        <v>0.00464038653591642</v>
+        <v>3.29518580565454E-6</v>
       </c>
       <c r="I92" t="n">
-        <v>2.2855597487478E-6</v>
+        <v>3.15538840009226E-4</v>
       </c>
       <c r="J92" t="n">
-        <v>7.34435196827567E-4</v>
+        <v>1.78936176373167E-5</v>
       </c>
       <c r="K92" t="n">
-        <v>5.17078299007004E-5</v>
+        <v>7.88383932944052E-6</v>
       </c>
       <c r="L92" t="n">
-        <v>1.40285177133624E-5</v>
+        <v>3.96714510671806E-5</v>
       </c>
       <c r="M92" t="n">
-        <v>0.0370768336764644</v>
+        <v>0.137639406107927</v>
       </c>
     </row>
     <row r="93">
@@ -4220,37 +4178,37 @@
         <v>4</v>
       </c>
       <c r="C93" t="n">
-        <v>0.127091025508264</v>
+        <v>0.0717785758834171</v>
       </c>
       <c r="D93" t="n">
-        <v>0.255832058252138</v>
+        <v>0.868697768845833</v>
       </c>
       <c r="E93" t="n">
-        <v>0.211910497903433</v>
+        <v>0.0439659878089505</v>
       </c>
       <c r="F93" t="n">
-        <v>1.18823488213071E-5</v>
+        <v>3.17930156894628E-6</v>
       </c>
       <c r="G93" t="n">
-        <v>6.76885297133828E-6</v>
+        <v>1.21867919363476E-6</v>
       </c>
       <c r="H93" t="n">
-        <v>0.379988144797316</v>
+        <v>6.370804390452E-6</v>
       </c>
       <c r="I93" t="n">
-        <v>4.62556661093328E-5</v>
+        <v>5.82707916371877E-6</v>
       </c>
       <c r="J93" t="n">
-        <v>0.0208491789398027</v>
+        <v>7.26681949845353E-6</v>
       </c>
       <c r="K93" t="n">
-        <v>0.0351484325096609</v>
+        <v>1.79209663891568E-8</v>
       </c>
       <c r="L93" t="n">
-        <v>1.40726340670566E-4</v>
+        <v>4.56852946447198E-4</v>
       </c>
       <c r="M93" t="n">
-        <v>6.29148918734108E-4</v>
+        <v>0.0587236314723949</v>
       </c>
     </row>
     <row r="94">
@@ -4261,37 +4219,37 @@
         <v>4</v>
       </c>
       <c r="C94" t="n">
-        <v>0.238989787971378</v>
+        <v>0.0657493845330519</v>
       </c>
       <c r="D94" t="n">
-        <v>0.263336305919043</v>
+        <v>0.0615943571481762</v>
       </c>
       <c r="E94" t="n">
-        <v>0.0387713409625632</v>
+        <v>0.512077219331177</v>
       </c>
       <c r="F94" t="n">
-        <v>1.75074655370487E-7</v>
+        <v>3.40690834209847E-7</v>
       </c>
       <c r="G94" t="n">
-        <v>4.27075388063682E-14</v>
+        <v>8.52369741908524E-5</v>
       </c>
       <c r="H94" t="n">
-        <v>7.80706871111446E-6</v>
+        <v>0.00501677686300469</v>
       </c>
       <c r="I94" t="n">
-        <v>3.48644749318593E-6</v>
+        <v>6.38519162005219E-5</v>
       </c>
       <c r="J94" t="n">
-        <v>8.79239576501628E-5</v>
+        <v>0.071042290330106</v>
       </c>
       <c r="K94" t="n">
-        <v>0.589423490790092</v>
+        <v>2.19419766073383E-5</v>
       </c>
       <c r="L94" t="n">
-        <v>2.66839572383308E-7</v>
+        <v>0.0542254840116972</v>
       </c>
       <c r="M94" t="n">
-        <v>0.00974152000811173</v>
+        <v>0.242241742569735</v>
       </c>
     </row>
     <row r="95">
@@ -4302,37 +4260,37 @@
         <v>4</v>
       </c>
       <c r="C95" t="n">
-        <v>0.124160042951112</v>
+        <v>0.0913610868431327</v>
       </c>
       <c r="D95" t="n">
-        <v>0.565130920493059</v>
+        <v>0.65774328150071</v>
       </c>
       <c r="E95" t="n">
-        <v>0.145666581431455</v>
+        <v>0.0576847555534672</v>
       </c>
       <c r="F95" t="n">
-        <v>1.51703731550466E-7</v>
+        <v>2.09635972021317E-5</v>
       </c>
       <c r="G95" t="n">
-        <v>2.46034576716917E-8</v>
+        <v>3.58442505265E-4</v>
       </c>
       <c r="H95" t="n">
-        <v>0.00154948744279075</v>
+        <v>0.0737196519516143</v>
       </c>
       <c r="I95" t="n">
-        <v>3.84092367075615E-5</v>
+        <v>0.00184229330425544</v>
       </c>
       <c r="J95" t="n">
-        <v>1.85658715537783E-5</v>
+        <v>0.010795464071578</v>
       </c>
       <c r="K95" t="n">
-        <v>0.153351978124941</v>
+        <v>3.57377931782696E-6</v>
       </c>
       <c r="L95" t="n">
-        <v>2.03843498743829E-6</v>
+        <v>0.00199857754700772</v>
       </c>
       <c r="M95" t="n">
-        <v>0.00134521864223248</v>
+        <v>0.0908253457028837</v>
       </c>
     </row>
     <row r="96">
@@ -4343,37 +4301,37 @@
         <v>4</v>
       </c>
       <c r="C96" t="n">
-        <v>0.0714321439593577</v>
+        <v>0.122360417810848</v>
       </c>
       <c r="D96" t="n">
-        <v>0.199569904867747</v>
+        <v>0.734033817471539</v>
       </c>
       <c r="E96" t="n">
-        <v>0.377781578574143</v>
+        <v>0.149828105331425</v>
       </c>
       <c r="F96" t="n">
-        <v>7.40465263524217E-5</v>
+        <v>9.62954948184397E-6</v>
       </c>
       <c r="G96" t="n">
-        <v>6.27396031851259E-5</v>
+        <v>4.24065503699888E-7</v>
       </c>
       <c r="H96" t="n">
-        <v>0.329937866088229</v>
+        <v>1.45286874504469E-4</v>
       </c>
       <c r="I96" t="n">
-        <v>0.00151868995199035</v>
+        <v>0.00193214592354254</v>
       </c>
       <c r="J96" t="n">
-        <v>7.55485053308467E-7</v>
+        <v>2.16807262687737E-5</v>
       </c>
       <c r="K96" t="n">
-        <v>3.59307335481837E-4</v>
+        <v>1.46244161487315E-8</v>
       </c>
       <c r="L96" t="n">
-        <v>3.48401806239316E-5</v>
+        <v>1.78533239688348E-8</v>
       </c>
       <c r="M96" t="n">
-        <v>0.0985415847161659</v>
+        <v>0.0291910478368175</v>
       </c>
     </row>
     <row r="97">
@@ -4384,37 +4342,37 @@
         <v>4</v>
       </c>
       <c r="C97" t="n">
-        <v>0.0247972116036577</v>
+        <v>0.104820003325479</v>
       </c>
       <c r="D97" t="n">
-        <v>0.482067969441823</v>
+        <v>0.470762482324013</v>
       </c>
       <c r="E97" t="n">
-        <v>0.255303412882902</v>
+        <v>0.25422700104062</v>
       </c>
       <c r="F97" t="n">
-        <v>4.63243472558238E-5</v>
+        <v>2.52398481816545E-4</v>
       </c>
       <c r="G97" t="n">
-        <v>5.14510881825316E-7</v>
+        <v>0.00684992087427017</v>
       </c>
       <c r="H97" t="n">
-        <v>0.00301330846616089</v>
+        <v>0.00371667538651763</v>
       </c>
       <c r="I97" t="n">
-        <v>1.19152643204831E-4</v>
+        <v>2.65809771625488E-4</v>
       </c>
       <c r="J97" t="n">
-        <v>2.51211878601179E-5</v>
+        <v>0.0300862550447506</v>
       </c>
       <c r="K97" t="n">
-        <v>0.00156462655977031</v>
+        <v>1.833489193757E-4</v>
       </c>
       <c r="L97" t="n">
-        <v>6.06715176328054E-4</v>
+        <v>4.33745116598082E-6</v>
       </c>
       <c r="M97" t="n">
-        <v>0.235469051281475</v>
+        <v>0.182735547021226</v>
       </c>
     </row>
     <row r="98">
@@ -4425,37 +4383,37 @@
         <v>4</v>
       </c>
       <c r="C98" t="n">
-        <v>0.102841386131509</v>
+        <v>0.102664036137559</v>
       </c>
       <c r="D98" t="n">
-        <v>0.918146818941441</v>
+        <v>0.873647973125162</v>
       </c>
       <c r="E98" t="n">
-        <v>0.0202649533994255</v>
+        <v>0.0898804663938364</v>
       </c>
       <c r="F98" t="n">
-        <v>2.50709835937041E-5</v>
+        <v>1.7082867221108E-8</v>
       </c>
       <c r="G98" t="n">
-        <v>8.2516366039335E-5</v>
+        <v>1.02920640397052E-5</v>
       </c>
       <c r="H98" t="n">
-        <v>0.00606669268566208</v>
+        <v>6.35676025962039E-4</v>
       </c>
       <c r="I98" t="n">
-        <v>1.39850880650086E-6</v>
+        <v>4.83514781335408E-6</v>
       </c>
       <c r="J98" t="n">
-        <v>6.01363602022317E-7</v>
+        <v>3.34508974189987E-5</v>
       </c>
       <c r="K98" t="n">
-        <v>2.81639157351608E-4</v>
+        <v>2.08130377966659E-6</v>
       </c>
       <c r="L98" t="n">
-        <v>1.22252211179861E-4</v>
+        <v>1.72381523701769E-6</v>
       </c>
       <c r="M98" t="n">
-        <v>0.00607052389019049</v>
+        <v>0.0359361012888556</v>
       </c>
     </row>
     <row r="99">
@@ -4466,37 +4424,37 @@
         <v>4</v>
       </c>
       <c r="C99" t="n">
-        <v>0.1123608739624</v>
+        <v>0.063597567669791</v>
       </c>
       <c r="D99" t="n">
-        <v>0.562684971074335</v>
+        <v>0.683171197629097</v>
       </c>
       <c r="E99" t="n">
-        <v>0.135841723431065</v>
+        <v>0.319152497871985</v>
       </c>
       <c r="F99" t="n">
-        <v>4.07077522652815E-5</v>
+        <v>3.59015241060972E-7</v>
       </c>
       <c r="G99" t="n">
-        <v>1.4337524779692E-6</v>
+        <v>0.00337276827416258</v>
       </c>
       <c r="H99" t="n">
-        <v>0.0182803934385144</v>
+        <v>0.0319493423892283</v>
       </c>
       <c r="I99" t="n">
-        <v>3.10408739351154E-6</v>
+        <v>4.52660452539029E-8</v>
       </c>
       <c r="J99" t="n">
-        <v>9.98007370136721E-7</v>
+        <v>0.0108928512032446</v>
       </c>
       <c r="K99" t="n">
-        <v>0.133818307758583</v>
+        <v>3.04209817194612E-4</v>
       </c>
       <c r="L99" t="n">
-        <v>0.00741183824553684</v>
+        <v>8.29619445544808E-5</v>
       </c>
       <c r="M99" t="n">
-        <v>0.00247665627735131</v>
+        <v>0.0279743579335484</v>
       </c>
     </row>
     <row r="100">
@@ -4507,611 +4465,37 @@
         <v>4</v>
       </c>
       <c r="C100" t="n">
-        <v>0.269421507193875</v>
+        <v>0.0976009903374781</v>
       </c>
       <c r="D100" t="n">
-        <v>0.0236725743246808</v>
+        <v>0.181726078142662</v>
       </c>
       <c r="E100" t="n">
-        <v>0.104532328458597</v>
+        <v>0.507320549090627</v>
       </c>
       <c r="F100" t="n">
-        <v>1.47884710145796E-5</v>
+        <v>3.04615858534072E-4</v>
       </c>
       <c r="G100" t="n">
-        <v>1.20016094777462E-6</v>
+        <v>0.0337068878325066</v>
       </c>
       <c r="H100" t="n">
-        <v>6.23340023492997E-4</v>
+        <v>0.00384012930308166</v>
       </c>
       <c r="I100" t="n">
-        <v>3.74728235535857E-7</v>
+        <v>1.54598039308787E-5</v>
       </c>
       <c r="J100" t="n">
-        <v>5.50287334480336E-6</v>
+        <v>0.034398205109086</v>
       </c>
       <c r="K100" t="n">
-        <v>0.890978856373056</v>
+        <v>0.00230766098512784</v>
       </c>
       <c r="L100" t="n">
-        <v>0.00386514578422188</v>
+        <v>0.00248658666388832</v>
       </c>
       <c r="M100" t="n">
-        <v>0.00978051302888717</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="s">
-        <v>112</v>
-      </c>
-      <c r="B101" t="s">
-        <v>4</v>
-      </c>
-      <c r="C101" t="n">
-        <v>0.239882040520034</v>
-      </c>
-      <c r="D101" t="n">
-        <v>0.0528797031630197</v>
-      </c>
-      <c r="E101" t="n">
-        <v>0.0329948698910859</v>
-      </c>
-      <c r="F101" t="n">
-        <v>7.6819402415854E-6</v>
-      </c>
-      <c r="G101" t="n">
-        <v>3.11643985873445E-6</v>
-      </c>
-      <c r="H101" t="n">
-        <v>2.26440212312619E-6</v>
-      </c>
-      <c r="I101" t="n">
-        <v>1.1084432748846E-7</v>
-      </c>
-      <c r="J101" t="n">
-        <v>5.83471742480865E-9</v>
-      </c>
-      <c r="K101" t="n">
-        <v>0.832473775532672</v>
-      </c>
-      <c r="L101" t="n">
-        <v>0.0186748840811248</v>
-      </c>
-      <c r="M101" t="n">
-        <v>0.0477183919695543</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="s">
-        <v>113</v>
-      </c>
-      <c r="B102" t="s">
-        <v>4</v>
-      </c>
-      <c r="C102" t="n">
-        <v>0.0885109677918246</v>
-      </c>
-      <c r="D102" t="n">
-        <v>0.163007005969118</v>
-      </c>
-      <c r="E102" t="n">
-        <v>0.162759947947909</v>
-      </c>
-      <c r="F102" t="n">
-        <v>1.86557105938505E-6</v>
-      </c>
-      <c r="G102" t="n">
-        <v>2.16792703666293E-4</v>
-      </c>
-      <c r="H102" t="n">
-        <v>1.24862663282543E-5</v>
-      </c>
-      <c r="I102" t="n">
-        <v>1.97729125528318E-7</v>
-      </c>
-      <c r="J102" t="n">
-        <v>1.24379059008945E-6</v>
-      </c>
-      <c r="K102" t="n">
-        <v>4.50188096791126E-4</v>
-      </c>
-      <c r="L102" t="n">
-        <v>1.48512154893196E-5</v>
-      </c>
-      <c r="M102" t="n">
-        <v>0.588365832802713</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="s">
-        <v>114</v>
-      </c>
-      <c r="B103" t="s">
-        <v>4</v>
-      </c>
-      <c r="C103" t="n">
-        <v>0.0255586375388769</v>
-      </c>
-      <c r="D103" t="n">
-        <v>0.439222184064288</v>
-      </c>
-      <c r="E103" t="n">
-        <v>0.427650000164653</v>
-      </c>
-      <c r="F103" t="n">
-        <v>1.84009850638265E-6</v>
-      </c>
-      <c r="G103" t="n">
-        <v>0.00196829730670435</v>
-      </c>
-      <c r="H103" t="n">
-        <v>1.82760351417799E-5</v>
-      </c>
-      <c r="I103" t="n">
-        <v>1.35455514565369E-5</v>
-      </c>
-      <c r="J103" t="n">
-        <v>1.38150378235376E-5</v>
-      </c>
-      <c r="K103" t="n">
-        <v>0.00215157723645603</v>
-      </c>
-      <c r="L103" t="n">
-        <v>0.00965730107987612</v>
-      </c>
-      <c r="M103" t="n">
-        <v>0.0350089307624796</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="s">
-        <v>115</v>
-      </c>
-      <c r="B104" t="s">
-        <v>4</v>
-      </c>
-      <c r="C104" t="n">
-        <v>0.0580475852100544</v>
-      </c>
-      <c r="D104" t="n">
-        <v>0.686345647707369</v>
-      </c>
-      <c r="E104" t="n">
-        <v>0.143032702927607</v>
-      </c>
-      <c r="F104" t="n">
-        <v>7.75372392777242E-11</v>
-      </c>
-      <c r="G104" t="n">
-        <v>0.031294343194673</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0.00110813023064889</v>
-      </c>
-      <c r="I104" t="n">
-        <v>2.49192399047345E-6</v>
-      </c>
-      <c r="J104" t="n">
-        <v>1.40786993992587E-7</v>
-      </c>
-      <c r="K104" t="n">
-        <v>0.0416683517150293</v>
-      </c>
-      <c r="L104" t="n">
-        <v>3.05119624793593E-4</v>
-      </c>
-      <c r="M104" t="n">
-        <v>0.022544446077308</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="s">
-        <v>116</v>
-      </c>
-      <c r="B105" t="s">
-        <v>4</v>
-      </c>
-      <c r="C105" t="n">
-        <v>0.429256321445234</v>
-      </c>
-      <c r="D105" t="n">
-        <v>0.0231973275446729</v>
-      </c>
-      <c r="E105" t="n">
-        <v>0.0197828825438535</v>
-      </c>
-      <c r="F105" t="n">
-        <v>1.24209442897633E-6</v>
-      </c>
-      <c r="G105" t="n">
-        <v>0.0091926062264078</v>
-      </c>
-      <c r="H105" t="n">
-        <v>3.07807489975995E-4</v>
-      </c>
-      <c r="I105" t="n">
-        <v>2.42114431582171E-6</v>
-      </c>
-      <c r="J105" t="n">
-        <v>7.24530776015211E-6</v>
-      </c>
-      <c r="K105" t="n">
-        <v>0.791264224214339</v>
-      </c>
-      <c r="L105" t="n">
-        <v>2.01234313137613E-5</v>
-      </c>
-      <c r="M105" t="n">
-        <v>0.151927026158108</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="s">
-        <v>117</v>
-      </c>
-      <c r="B106" t="s">
-        <v>4</v>
-      </c>
-      <c r="C106" t="n">
-        <v>0.169568257242033</v>
-      </c>
-      <c r="D106" t="n">
-        <v>0.0337314599076848</v>
-      </c>
-      <c r="E106" t="n">
-        <v>0.1817051547294</v>
-      </c>
-      <c r="F106" t="n">
-        <v>4.40495985637651E-6</v>
-      </c>
-      <c r="G106" t="n">
-        <v>6.30941418466949E-5</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0.204011493421193</v>
-      </c>
-      <c r="I106" t="n">
-        <v>1.22421657070814E-5</v>
-      </c>
-      <c r="J106" t="n">
-        <v>7.83694170106704E-6</v>
-      </c>
-      <c r="K106" t="n">
-        <v>0.321725250037715</v>
-      </c>
-      <c r="L106" t="n">
-        <v>7.77866864752085E-5</v>
-      </c>
-      <c r="M106" t="n">
-        <v>0.344872399605442</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="s">
-        <v>118</v>
-      </c>
-      <c r="B107" t="s">
-        <v>4</v>
-      </c>
-      <c r="C107" t="n">
-        <v>0.0911509596099482</v>
-      </c>
-      <c r="D107" t="n">
-        <v>0.044774777489213</v>
-      </c>
-      <c r="E107" t="n">
-        <v>0.187376830180332</v>
-      </c>
-      <c r="F107" t="n">
-        <v>2.23988107429002E-7</v>
-      </c>
-      <c r="G107" t="n">
-        <v>5.31442983131006E-6</v>
-      </c>
-      <c r="H107" t="n">
-        <v>5.56307557806493E-4</v>
-      </c>
-      <c r="I107" t="n">
-        <v>7.46457659926751E-5</v>
-      </c>
-      <c r="J107" t="n">
-        <v>7.32171754945443E-7</v>
-      </c>
-      <c r="K107" t="n">
-        <v>0.204802012172852</v>
-      </c>
-      <c r="L107" t="n">
-        <v>1.03938602927753E-5</v>
-      </c>
-      <c r="M107" t="n">
-        <v>0.522221499273339</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="s">
-        <v>119</v>
-      </c>
-      <c r="B108" t="s">
-        <v>4</v>
-      </c>
-      <c r="C108" t="n">
-        <v>0.059850219676627</v>
-      </c>
-      <c r="D108" t="n">
-        <v>0.838952144163235</v>
-      </c>
-      <c r="E108" t="n">
-        <v>0.0736705010936012</v>
-      </c>
-      <c r="F108" t="n">
-        <v>6.15284412295284E-7</v>
-      </c>
-      <c r="G108" t="n">
-        <v>3.34351497969024E-6</v>
-      </c>
-      <c r="H108" t="n">
-        <v>2.41940705650711E-5</v>
-      </c>
-      <c r="I108" t="n">
-        <v>2.02469985373394E-5</v>
-      </c>
-      <c r="J108" t="n">
-        <v>1.57898678886366E-5</v>
-      </c>
-      <c r="K108" t="n">
-        <v>0.00534298882714311</v>
-      </c>
-      <c r="L108" t="n">
-        <v>1.90177293135649E-5</v>
-      </c>
-      <c r="M108" t="n">
-        <v>0.122744182961248</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="s">
-        <v>120</v>
-      </c>
-      <c r="B109" t="s">
-        <v>4</v>
-      </c>
-      <c r="C109" t="n">
-        <v>0.043523850409815</v>
-      </c>
-      <c r="D109" t="n">
-        <v>0.203612342708557</v>
-      </c>
-      <c r="E109" t="n">
-        <v>0.208111193538208</v>
-      </c>
-      <c r="F109" t="n">
-        <v>1.62050653438951E-5</v>
-      </c>
-      <c r="G109" t="n">
-        <v>0.00192861246826689</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0.00213125052786259</v>
-      </c>
-      <c r="I109" t="n">
-        <v>0.00285376138329922</v>
-      </c>
-      <c r="J109" t="n">
-        <v>1.79696634815681E-6</v>
-      </c>
-      <c r="K109" t="n">
-        <v>0.0301410782051947</v>
-      </c>
-      <c r="L109" t="n">
-        <v>0.149090991441831</v>
-      </c>
-      <c r="M109" t="n">
-        <v>0.351141547828691</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="s">
-        <v>121</v>
-      </c>
-      <c r="B110" t="s">
-        <v>4</v>
-      </c>
-      <c r="C110" t="n">
-        <v>0.114552642419583</v>
-      </c>
-      <c r="D110" t="n">
-        <v>0.00392921905847888</v>
-      </c>
-      <c r="E110" t="n">
-        <v>0.134332121111704</v>
-      </c>
-      <c r="F110" t="n">
-        <v>1.7180142178831E-6</v>
-      </c>
-      <c r="G110" t="n">
-        <v>1.91738018082286E-5</v>
-      </c>
-      <c r="H110" t="n">
-        <v>8.18094768805895E-4</v>
-      </c>
-      <c r="I110" t="n">
-        <v>4.18656892931109E-5</v>
-      </c>
-      <c r="J110" t="n">
-        <v>6.01060966102871E-6</v>
-      </c>
-      <c r="K110" t="n">
-        <v>0.550067073839111</v>
-      </c>
-      <c r="L110" t="n">
-        <v>0.0178109165472678</v>
-      </c>
-      <c r="M110" t="n">
-        <v>0.322253778938716</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="s">
-        <v>122</v>
-      </c>
-      <c r="B111" t="s">
-        <v>4</v>
-      </c>
-      <c r="C111" t="n">
-        <v>0.151584702602353</v>
-      </c>
-      <c r="D111" t="n">
-        <v>0.2409360062526</v>
-      </c>
-      <c r="E111" t="n">
-        <v>0.147679140215956</v>
-      </c>
-      <c r="F111" t="n">
-        <v>6.76964488504529E-8</v>
-      </c>
-      <c r="G111" t="n">
-        <v>3.42581738645779E-4</v>
-      </c>
-      <c r="H111" t="n">
-        <v>3.04617611990748E-6</v>
-      </c>
-      <c r="I111" t="n">
-        <v>1.60786373115407E-5</v>
-      </c>
-      <c r="J111" t="n">
-        <v>1.27194192725035E-6</v>
-      </c>
-      <c r="K111" t="n">
-        <v>0.512550764540538</v>
-      </c>
-      <c r="L111" t="n">
-        <v>0.00411743581035417</v>
-      </c>
-      <c r="M111" t="n">
-        <v>0.00791002539157453</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="s">
-        <v>123</v>
-      </c>
-      <c r="B112" t="s">
-        <v>4</v>
-      </c>
-      <c r="C112" t="n">
-        <v>0.059750701818676</v>
-      </c>
-      <c r="D112" t="n">
-        <v>0.0984593785298707</v>
-      </c>
-      <c r="E112" t="n">
-        <v>0.0809466274976345</v>
-      </c>
-      <c r="F112" t="n">
-        <v>4.7191128626825E-6</v>
-      </c>
-      <c r="G112" t="n">
-        <v>2.20382459172309E-4</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0.0119158789693169</v>
-      </c>
-      <c r="I112" t="n">
-        <v>1.76096679407403E-5</v>
-      </c>
-      <c r="J112" t="n">
-        <v>3.11246920270091E-5</v>
-      </c>
-      <c r="K112" t="n">
-        <v>0.72190037668767</v>
-      </c>
-      <c r="L112" t="n">
-        <v>0.0231725531783771</v>
-      </c>
-      <c r="M112" t="n">
-        <v>0.0818357962532174</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="s">
-        <v>124</v>
-      </c>
-      <c r="B113" t="s">
-        <v>4</v>
-      </c>
-      <c r="C113" t="n">
-        <v>0.0627127973702897</v>
-      </c>
-      <c r="D113" t="n">
-        <v>0.852810177468724</v>
-      </c>
-      <c r="E113" t="n">
-        <v>0.185313871996449</v>
-      </c>
-      <c r="F113" t="n">
-        <v>3.53188441100386E-10</v>
-      </c>
-      <c r="G113" t="n">
-        <v>3.76584766993616E-5</v>
-      </c>
-      <c r="H113" t="n">
-        <v>1.73821685192564E-4</v>
-      </c>
-      <c r="I113" t="n">
-        <v>3.09164919714124E-6</v>
-      </c>
-      <c r="J113" t="n">
-        <v>3.10542224767003E-6</v>
-      </c>
-      <c r="K113" t="n">
-        <v>0.00291509677222881</v>
-      </c>
-      <c r="L113" t="n">
-        <v>3.60414259898769E-4</v>
-      </c>
-      <c r="M113" t="n">
-        <v>0.00201839595708651</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="s">
-        <v>125</v>
-      </c>
-      <c r="B114" t="s">
-        <v>4</v>
-      </c>
-      <c r="C114" t="n">
-        <v>0.118372036236627</v>
-      </c>
-      <c r="D114" t="n">
-        <v>0.462147520168284</v>
-      </c>
-      <c r="E114" t="n">
-        <v>0.0671583731007574</v>
-      </c>
-      <c r="F114" t="n">
-        <v>2.37595257646816E-8</v>
-      </c>
-      <c r="G114" t="n">
-        <v>8.06046422392932E-7</v>
-      </c>
-      <c r="H114" t="n">
-        <v>8.2951326377127E-5</v>
-      </c>
-      <c r="I114" t="n">
-        <v>1.91616281474058E-7</v>
-      </c>
-      <c r="J114" t="n">
-        <v>2.66489263788859E-7</v>
-      </c>
-      <c r="K114" t="n">
-        <v>0.374405886791564</v>
-      </c>
-      <c r="L114" t="n">
-        <v>3.83393939074942E-4</v>
-      </c>
-      <c r="M114" t="n">
-        <v>0.0</v>
+        <v>0.0312964621314262</v>
       </c>
     </row>
   </sheetData>
